--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\DataBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D9C59F-D938-48A5-A477-92968370B6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DEF76F-A963-4F07-A9B1-78A763D0946A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Paramètre</t>
   </si>
@@ -90,6 +90,66 @@
   </si>
   <si>
     <t>Coefficient de conversion</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>Other Encapsulation Layers</t>
+  </si>
+  <si>
+    <t>Aluminum (Al) (Metallization)</t>
+  </si>
+  <si>
+    <t>Silver (Ag)</t>
+  </si>
+  <si>
+    <t>Rear Metal Contact (Ag, Al)</t>
+  </si>
+  <si>
+    <t>Silicon Nitride (SiNx)</t>
+  </si>
+  <si>
+    <t>Rear Anti-Reflective Coating (SiNx, AZO, ITO)</t>
+  </si>
+  <si>
+    <t>Silicon (Si)</t>
+  </si>
+  <si>
+    <t>N-type Polycrystalline Silicon (Poly-Si)</t>
+  </si>
+  <si>
+    <t>Silicon Oxide (SiO₂)</t>
+  </si>
+  <si>
+    <t>Ultra-Thin Tunnel Oxide (SiO₂)</t>
+  </si>
+  <si>
+    <t>N-type Silicon Substrate</t>
+  </si>
+  <si>
+    <t>Passivation Layer (SiO₂ + Al₂O₃)</t>
+  </si>
+  <si>
+    <t>Anti-Reflective Coating (SiNx or AZO)</t>
+  </si>
+  <si>
+    <t>Mass (mg)</t>
+  </si>
+  <si>
+    <t>Density (mg/mm³)</t>
+  </si>
+  <si>
+    <t>Thickness (mm)</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Layer</t>
   </si>
 </sst>
 </file>
@@ -197,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -233,6 +293,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -255,15 +316,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -286,7 +347,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295651" y="47625"/>
+          <a:off x="4943476" y="1209675"/>
           <a:ext cx="3505200" cy="4124325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -294,6 +355,170 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>396545</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808C18F5-F77A-0BC3-4803-ABE53DD410A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9515475" y="7524749"/>
+          <a:ext cx="7654595" cy="3209925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53BF610-D210-6B2A-8050-7BE8E13876CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="5495925"/>
+          <a:ext cx="17373600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074F1037-27F2-4E2B-A187-20EDC4C1E345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17373600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -586,143 +811,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A5:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39" style="11" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="21" style="11" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
+    <col min="4" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12">
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="12">
-        <v>182.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="12">
-        <v>183.75</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="12">
-        <v>0.13</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12">
+        <v>182.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12">
+        <v>183.75</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B11" s="12">
         <v>2.33</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
-        <f>B4*B5</f>
+      <c r="B12" s="6">
+        <f>B8*B9</f>
         <v>33479.25</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6">
-        <f>B8*B6</f>
+      <c r="B13" s="6">
+        <f>B12*B10</f>
         <v>4352.3024999999998</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="6">
-        <f>(B9*B7)/1000</f>
+      <c r="B14" s="6">
+        <f>(B13*B11)/1000</f>
         <v>10.140864825000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6">
-        <f>B2*B3</f>
+      <c r="B15" s="6">
+        <f>B6*B7</f>
         <v>0.33799999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6">
-        <f>B3/B10</f>
+      <c r="B16" s="6">
+        <f>B7/B14</f>
         <v>0.83326226567663553</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10">
-        <f>B2*B12</f>
+      <c r="B17" s="10">
+        <f>B6*B16</f>
         <v>3.3330490627065425E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="D41" s="15">
+        <v>3.44</v>
+      </c>
+      <c r="E41" s="15">
+        <v>11.516862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="15">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D42" s="15">
+        <v>2.65</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0.88720012500000012</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="D43" s="15">
+        <v>2.33</v>
+      </c>
+      <c r="E43" s="15">
+        <v>11700.997874999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="15">
+        <v>1.5E-6</v>
+      </c>
+      <c r="D44" s="15">
+        <v>2.65</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0.13308001875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="15">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D45" s="15">
+        <v>2.33</v>
+      </c>
+      <c r="E45" s="15">
+        <v>1.5601330499999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="15">
+        <v>1E-4</v>
+      </c>
+      <c r="D46" s="15">
+        <v>3.44</v>
+      </c>
+      <c r="E46" s="15">
+        <v>11.516862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="15">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D47" s="15">
+        <v>10.49</v>
+      </c>
+      <c r="E47" s="15">
+        <v>1755.9866625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="E48" s="15">
+        <v>-1002.520153408124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="15">
+        <v>-334.17338446937492</v>
       </c>
     </row>
   </sheetData>

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DEF76F-A963-4F07-A9B1-78A763D0946A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9594494-38F8-4F02-8A6C-0EE037A30825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Paramètre</t>
   </si>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -294,6 +294,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,6 +983,7 @@
         <v>3.44</v>
       </c>
       <c r="E41" s="15">
+        <f>C41*D41*$B$12</f>
         <v>11.516862</v>
       </c>
     </row>
@@ -999,7 +1001,8 @@
         <v>2.65</v>
       </c>
       <c r="E42" s="15">
-        <v>0.88720012500000012</v>
+        <f t="shared" ref="E42:E48" si="0">C42*D42*$B$12</f>
+        <v>0.88720012500000001</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1009,14 +1012,13 @@
       <c r="B43" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="15">
-        <v>0.15</v>
-      </c>
+      <c r="C43" s="15"/>
       <c r="D43" s="15">
         <v>2.33</v>
       </c>
       <c r="E43" s="15">
-        <v>11700.997874999999</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,6 +1035,7 @@
         <v>2.65</v>
       </c>
       <c r="E44" s="15">
+        <f t="shared" si="0"/>
         <v>0.13308001875</v>
       </c>
     </row>
@@ -1050,7 +1053,8 @@
         <v>2.33</v>
       </c>
       <c r="E45" s="15">
-        <v>1.5601330499999999</v>
+        <f t="shared" si="0"/>
+        <v>1.5601330500000004</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1067,6 +1071,7 @@
         <v>3.44</v>
       </c>
       <c r="E46" s="15">
+        <f t="shared" si="0"/>
         <v>11.516862</v>
       </c>
     </row>
@@ -1078,47 +1083,50 @@
         <v>23</v>
       </c>
       <c r="C47" s="15">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D47" s="15">
         <v>10.49</v>
       </c>
       <c r="E47" s="15">
-        <v>1755.9866625</v>
+        <f t="shared" si="0"/>
+        <v>35.119733250000003</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="D48" s="16">
+        <v>2.7</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="0"/>
+        <v>90.393975000000012</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="15">
-        <v>2.7</v>
-      </c>
-      <c r="E48" s="15">
-        <v>-1002.520153408124</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="15" t="s">
+      <c r="D49" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="15">
-        <v>-334.17338446937492</v>
+      <c r="E49" s="16">
+        <f>SUM(E41:E48)-(B14*1000)</f>
+        <v>-9989.7369795562499</v>
       </c>
     </row>
   </sheetData>

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9594494-38F8-4F02-8A6C-0EE037A30825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37FCB1A-C7BF-46F1-88B0-F08734097461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Paramètre</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Silver (Ag)</t>
   </si>
   <si>
-    <t>Rear Metal Contact (Ag, Al)</t>
-  </si>
-  <si>
     <t>Silicon Nitride (SiNx)</t>
   </si>
   <si>
@@ -150,13 +147,37 @@
   </si>
   <si>
     <t>Layer</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Sunrise Energy (https://www.sunriseenergy.cn/products/m10-cell/)</t>
+  </si>
+  <si>
+    <t>Maysun Solar (https://www.maysunsolar.com/solar-cells-size-process-and-technology-explained/)</t>
+  </si>
+  <si>
+    <t>Red Solar's (https://www.red-solar.com/products-info/Solar-Cell/M10-TOPCon-Cell.html)</t>
+  </si>
+  <si>
+    <t>Ocean Solar (https://www.oceansolarcn.com/m10-mbb-n-type-topcon-132-half-cells-520w-535w-solar-module-product/)</t>
+  </si>
+  <si>
+    <t>AL-TOPCON-M10 Datasheet (https://www.enfsolar.com/pv/cell-datasheet/2947)</t>
+  </si>
+  <si>
+    <t>Rhofa Energy (https://rhofaenergy.com/144-TOP-CON-GLASS-GLASS-EN.pdf)</t>
+  </si>
+  <si>
+    <t>Rear Metal Contact (Ag)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +200,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +258,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -257,11 +292,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -295,6 +327,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,15 +356,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>752476</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>175203</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1164166</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>158660</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -348,8 +387,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4943476" y="1209675"/>
-          <a:ext cx="3505200" cy="4124325"/>
+          <a:off x="4370051" y="663188"/>
+          <a:ext cx="4760479" cy="5653048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -360,16 +399,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>246918</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>80595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>396545</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1261123</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>52020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -392,8 +431,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9515475" y="7524749"/>
-          <a:ext cx="7654595" cy="3209925"/>
+          <a:off x="246918" y="9796095"/>
+          <a:ext cx="7696359" cy="3209925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -812,322 +851,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:F49"/>
+  <dimension ref="A5:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="21" style="11" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="21" style="10" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="129.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>182.2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>183.75</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>0.13</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>2.33</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>B8*B9</f>
         <v>33479.25</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>B12*B10</f>
         <v>4352.3024999999998</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>(B13*B11)/1000</f>
         <v>10.140864825000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>B6*B7</f>
         <v>0.33799999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>B7/B14</f>
         <v>0.83326226567663553</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <f>B6*B16</f>
         <v>3.3330490627065425E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="15">
-        <v>1E-4</v>
-      </c>
-      <c r="D41" s="15">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="14">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="D41" s="14">
         <v>3.44</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <f>C41*D41*$B$12</f>
-        <v>11.516862</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="15">
+        <v>8.6376464999999989</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="14">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="14">
         <v>2.65</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <f t="shared" ref="E42:E48" si="0">C42*D42*$B$12</f>
         <v>0.88720012500000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="15" t="s">
+      <c r="F42" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="D43" s="14">
+        <v>2.33</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="0"/>
+        <v>10140.864825000001</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="D44" s="14">
+        <v>2.65</v>
+      </c>
+      <c r="E44" s="14">
+        <f t="shared" si="0"/>
+        <v>0.10646401499999998</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15">
+      <c r="B45" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1.5E-5</v>
+      </c>
+      <c r="D45" s="14">
         <v>2.33</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E45" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="15">
-        <v>1.5E-6</v>
-      </c>
-      <c r="D44" s="15">
-        <v>2.65</v>
-      </c>
-      <c r="E44" s="15">
+        <v>1.1700997875000001</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="14">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="D46" s="14">
+        <v>3.44</v>
+      </c>
+      <c r="E46" s="14">
         <f t="shared" si="0"/>
-        <v>0.13308001875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="15">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="D45" s="15">
-        <v>2.33</v>
-      </c>
-      <c r="E45" s="15">
+        <v>8.6376464999999989</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="14">
+        <f>D47/E47</f>
+        <v>7.3024712843717379E-2</v>
+      </c>
+      <c r="D47" s="14">
+        <v>10.49</v>
+      </c>
+      <c r="E47" s="14">
+        <f>17*B7</f>
+        <v>143.64999999999998</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="14">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D48" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="E48" s="14">
         <f t="shared" si="0"/>
-        <v>1.5601330500000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="15">
-        <v>1E-4</v>
-      </c>
-      <c r="D46" s="15">
-        <v>3.44</v>
-      </c>
-      <c r="E46" s="15">
-        <f t="shared" si="0"/>
-        <v>11.516862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="15">
-        <v>1E-4</v>
-      </c>
-      <c r="D47" s="15">
-        <v>10.49</v>
-      </c>
-      <c r="E47" s="15">
-        <f t="shared" si="0"/>
-        <v>35.119733250000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="16" t="s">
+        <v>63.275782500000005</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="16">
-        <v>1E-3</v>
-      </c>
-      <c r="D48" s="16">
-        <v>2.7</v>
-      </c>
-      <c r="E48" s="15">
-        <f t="shared" si="0"/>
-        <v>90.393975000000012</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="15">
         <f>SUM(E41:E48)-(B14*1000)</f>
-        <v>-9989.7369795562499</v>
-      </c>
+        <v>226.36483942749874</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37FCB1A-C7BF-46F1-88B0-F08734097461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E74E32-5126-4481-B647-E22C530DCB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,15 +356,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>175203</xdr:colOff>
+      <xdr:colOff>155961</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85915</xdr:rowOff>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1164166</xdr:colOff>
+      <xdr:colOff>1144924</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>158660</xdr:rowOff>
+      <xdr:rowOff>72069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -387,8 +387,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4370051" y="663188"/>
-          <a:ext cx="4760479" cy="5653048"/>
+          <a:off x="4350809" y="750455"/>
+          <a:ext cx="4760479" cy="5479190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,6 +559,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1231516</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>96212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3826017</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>182803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8B89DA-AC1F-49B6-E115-13A999765A39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7918258" y="9909848"/>
+          <a:ext cx="5153744" cy="3357803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -853,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E74E32-5126-4481-B647-E22C530DCB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE58062B-2319-44B2-92CF-DAFE4E063543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Paramètre</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Valeur</t>
   </si>
   <si>
-    <t>Prix (USD/W)</t>
-  </si>
-  <si>
     <t>Puissance maximale (W)</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>Volume (mm³)</t>
   </si>
   <si>
-    <t>Prix (USD/mg)</t>
-  </si>
-  <si>
     <t>Surface=Longueur×Largeur</t>
   </si>
   <si>
@@ -83,27 +77,12 @@
     <t>Prix (USD/mg)=Prix total / Masse​</t>
   </si>
   <si>
-    <t>Prix Total (USD)</t>
-  </si>
-  <si>
-    <t>Masse (g)</t>
-  </si>
-  <si>
     <t>Coefficient de conversion</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Various</t>
-  </si>
-  <si>
-    <t>Other Encapsulation Layers</t>
-  </si>
-  <si>
-    <t>Aluminum (Al) (Metallization)</t>
-  </si>
-  <si>
     <t>Silver (Ag)</t>
   </si>
   <si>
@@ -134,9 +113,6 @@
     <t>Anti-Reflective Coating (SiNx or AZO)</t>
   </si>
   <si>
-    <t>Mass (mg)</t>
-  </si>
-  <si>
     <t>Density (mg/mm³)</t>
   </si>
   <si>
@@ -167,17 +143,59 @@
     <t>AL-TOPCON-M10 Datasheet (https://www.enfsolar.com/pv/cell-datasheet/2947)</t>
   </si>
   <si>
-    <t>Rhofa Energy (https://rhofaenergy.com/144-TOP-CON-GLASS-GLASS-EN.pdf)</t>
-  </si>
-  <si>
     <t>Rear Metal Contact (Ag)</t>
+  </si>
+  <si>
+    <t>Cellule solaire bifaciale TOPCon de type N 182 mm M10</t>
+  </si>
+  <si>
+    <t>Prix (Eur/W)</t>
+  </si>
+  <si>
+    <t>Masse (mg)</t>
+  </si>
+  <si>
+    <t>Prix (eur/g)</t>
+  </si>
+  <si>
+    <t>Prix Total (eur/cellule)</t>
+  </si>
+  <si>
+    <t>Mass (mg/cellule)</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>https://fr.solarpanelproductionline.com/knowledges/TOPCon-comprehensive-analysis.html</t>
+  </si>
+  <si>
+    <t>C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Documentation\WO2019053368A1.pdf</t>
+  </si>
+  <si>
+    <t>TOTAL Price</t>
+  </si>
+  <si>
+    <t>TOTAL Thickness</t>
+  </si>
+  <si>
+    <t>Cell price (SMM)</t>
+  </si>
+  <si>
+    <t>Price (CNY)</t>
+  </si>
+  <si>
+    <t>AL-TOPCON-M10</t>
+  </si>
+  <si>
+    <t>Caractéristique Technique Cellule AL-TOPCON M10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +226,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +298,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -288,11 +340,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -307,9 +372,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -319,14 +381,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -334,6 +392,33 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,22 +441,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>155961</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:colOff>1962728</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1144924</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>72069</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2065335</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1">
+        <xdr:cNvPr id="6" name="Image 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698FEDE4-A631-EAD7-E232-E54F6097389F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8B89DA-AC1F-49B6-E115-13A999765A39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -387,8 +472,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4350809" y="750455"/>
-          <a:ext cx="4760479" cy="5479190"/>
+          <a:off x="6157576" y="9900227"/>
+          <a:ext cx="5153744" cy="3357803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -400,22 +485,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>246918</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>80595</xdr:rowOff>
+      <xdr:rowOff>163561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1261123</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1987740</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>52020</xdr:rowOff>
+      <xdr:rowOff>83669</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
+        <xdr:cNvPr id="8" name="Image 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808C18F5-F77A-0BC3-4803-ABE53DD410A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AF0B8F-F3F5-D164-AB58-951C6318FA61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -431,8 +516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="246918" y="9796095"/>
-          <a:ext cx="7696359" cy="3209925"/>
+          <a:off x="0" y="9977197"/>
+          <a:ext cx="6182588" cy="3191320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -441,145 +526,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>145566</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53BF610-D210-6B2A-8050-7BE8E13876CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="5495925"/>
-          <a:ext cx="17373600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074F1037-27F2-4E2B-A187-20EDC4C1E345}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="17373600" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1231516</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>96212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>3826017</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>182803</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1125682</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>144318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5">
+        <xdr:cNvPr id="9" name="Image 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8B89DA-AC1F-49B6-E115-13A999765A39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BB783D-FF2A-5EB4-8589-36FEF8508781}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -595,14 +560,783 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7918258" y="9909848"/>
-          <a:ext cx="5153744" cy="3357803"/>
+          <a:off x="4340414" y="654241"/>
+          <a:ext cx="4751632" cy="5647653"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2780529</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57728</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>413712</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>99725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA10E2F8-3909-CCE4-1EAD-A6B78786F805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12026514" y="635001"/>
+          <a:ext cx="6253789" cy="5622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>418708</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>4298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>332618</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>18909</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="39" name="Groupe 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C83097-FCB8-F5CA-F422-0F1A297218D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="418708" y="15405110"/>
+          <a:ext cx="22736800" cy="6508929"/>
+          <a:chOff x="961104" y="19294577"/>
+          <a:chExt cx="22069381" cy="6733796"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="35" name="Groupe 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1919B902-2339-D691-18B3-0B284CB6A491}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5578892" y="20987657"/>
+            <a:ext cx="17451593" cy="5040716"/>
+            <a:chOff x="5569135" y="20455897"/>
+            <a:chExt cx="17455284" cy="4913875"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="31" name="Groupe 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95C586B0-9B2B-0C37-9F0D-1113FA6B3C60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="5569135" y="20455897"/>
+              <a:ext cx="17455284" cy="4913875"/>
+              <a:chOff x="48106" y="16596590"/>
+              <a:chExt cx="17462500" cy="5052352"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="22" name="Groupe 21">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AB269B7-C933-4508-71C2-761A0A1140D1}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="48106" y="16596590"/>
+                <a:ext cx="17462500" cy="4525004"/>
+                <a:chOff x="28864" y="15874999"/>
+                <a:chExt cx="17462500" cy="4525004"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="19" name="Groupe 18">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2074AF-76DD-C12C-93FF-3F80C9E5F40F}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="28864" y="15874999"/>
+                  <a:ext cx="17462500" cy="4525004"/>
+                  <a:chOff x="0" y="17048787"/>
+                  <a:chExt cx="17462500" cy="4525004"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="16" name="Groupe 15">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79B8AAF-10B1-3CA3-4632-42F26C2B9C96}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="9890607" y="17048787"/>
+                    <a:ext cx="7571893" cy="2289849"/>
+                    <a:chOff x="96214" y="18982651"/>
+                    <a:chExt cx="7571893" cy="2289849"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:grpSp>
+                  <xdr:nvGrpSpPr>
+                    <xdr:cNvPr id="13" name="Groupe 12">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562DFB70-2AF8-D762-7483-D4D173DCD5ED}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvGrpSpPr/>
+                  </xdr:nvGrpSpPr>
+                  <xdr:grpSpPr>
+                    <a:xfrm>
+                      <a:off x="96214" y="18982651"/>
+                      <a:ext cx="7571893" cy="2289849"/>
+                      <a:chOff x="5811213" y="19001894"/>
+                      <a:chExt cx="10955279" cy="2896004"/>
+                    </a:xfrm>
+                  </xdr:grpSpPr>
+                  <xdr:pic>
+                    <xdr:nvPicPr>
+                      <xdr:cNvPr id="11" name="Image 10">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13906697-49C5-B77E-2838-6A737CD48CA1}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvPicPr>
+                        <a:picLocks noChangeAspect="1"/>
+                      </xdr:cNvPicPr>
+                    </xdr:nvPicPr>
+                    <xdr:blipFill>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                      <a:stretch>
+                        <a:fillRect/>
+                      </a:stretch>
+                    </xdr:blipFill>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="5811213" y="19001894"/>
+                        <a:ext cx="10955279" cy="2896004"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="rect">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:ln w="190500" cap="sq">
+                        <a:solidFill>
+                          <a:srgbClr val="C8C6BD"/>
+                        </a:solidFill>
+                        <a:prstDash val="solid"/>
+                        <a:miter lim="800000"/>
+                      </a:ln>
+                      <a:effectLst>
+                        <a:outerShdw blurRad="254000" algn="bl" rotWithShape="0">
+                          <a:srgbClr val="000000">
+                            <a:alpha val="43000"/>
+                          </a:srgbClr>
+                        </a:outerShdw>
+                      </a:effectLst>
+                      <a:scene3d>
+                        <a:camera prst="perspectiveFront" fov="5400000"/>
+                        <a:lightRig rig="threePt" dir="t">
+                          <a:rot lat="0" lon="0" rev="2100000"/>
+                        </a:lightRig>
+                      </a:scene3d>
+                      <a:sp3d extrusionH="25400">
+                        <a:bevelT w="304800" h="152400" prst="hardEdge"/>
+                        <a:extrusionClr>
+                          <a:srgbClr val="000000"/>
+                        </a:extrusionClr>
+                      </a:sp3d>
+                    </xdr:spPr>
+                  </xdr:pic>
+                  <xdr:sp macro="" textlink="">
+                    <xdr:nvSpPr>
+                      <xdr:cNvPr id="12" name="Ellipse 11">
+                        <a:extLst>
+                          <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                            <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E1119B-78BB-7437-F467-22DDCD483548}"/>
+                          </a:ext>
+                        </a:extLst>
+                      </xdr:cNvPr>
+                      <xdr:cNvSpPr/>
+                    </xdr:nvSpPr>
+                    <xdr:spPr>
+                      <a:xfrm>
+                        <a:off x="13762245" y="19525121"/>
+                        <a:ext cx="2113348" cy="387109"/>
+                      </a:xfrm>
+                      <a:prstGeom prst="ellipse">
+                        <a:avLst/>
+                      </a:prstGeom>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:ln>
+                    </xdr:spPr>
+                    <xdr:style>
+                      <a:lnRef idx="2">
+                        <a:schemeClr val="accent1">
+                          <a:shade val="15000"/>
+                        </a:schemeClr>
+                      </a:lnRef>
+                      <a:fillRef idx="1">
+                        <a:schemeClr val="accent1"/>
+                      </a:fillRef>
+                      <a:effectRef idx="0">
+                        <a:schemeClr val="accent1"/>
+                      </a:effectRef>
+                      <a:fontRef idx="minor">
+                        <a:schemeClr val="lt1"/>
+                      </a:fontRef>
+                    </xdr:style>
+                    <xdr:txBody>
+                      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr algn="l"/>
+                        <a:endParaRPr lang="fr-FR" sz="1100"/>
+                      </a:p>
+                    </xdr:txBody>
+                  </xdr:sp>
+                </xdr:grpSp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="14" name="Ellipse 13">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6F6542-038B-4D7B-8025-8E20ECBE7462}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="4704774" y="19646515"/>
+                      <a:ext cx="1460670" cy="306084"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="ellipse">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="15000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="l"/>
+                      <a:endParaRPr lang="fr-FR" sz="1100"/>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+              <xdr:pic>
+                <xdr:nvPicPr>
+                  <xdr:cNvPr id="15" name="Image 14">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB7E0268-79EB-3E00-FD40-FB4D22A948B6}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvPicPr>
+                    <a:picLocks noChangeAspect="1"/>
+                  </xdr:cNvPicPr>
+                </xdr:nvPicPr>
+                <xdr:blipFill>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+                  <a:stretch>
+                    <a:fillRect/>
+                  </a:stretch>
+                </xdr:blipFill>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="0" y="17847346"/>
+                    <a:ext cx="9296500" cy="3726445"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </xdr:spPr>
+              </xdr:pic>
+              <xdr:cxnSp macro="">
+                <xdr:nvCxnSpPr>
+                  <xdr:cNvPr id="18" name="Connecteur droit avec flèche 17">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0042EAF-2AC4-6826-7D4B-7C315C277D7E}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvCxnSpPr>
+                    <a:stCxn id="12" idx="2"/>
+                  </xdr:cNvCxnSpPr>
+                </xdr:nvCxnSpPr>
+                <xdr:spPr>
+                  <a:xfrm flipH="1">
+                    <a:off x="7956742" y="17615541"/>
+                    <a:ext cx="7429331" cy="2608246"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="straightConnector1">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:ln>
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:tailEnd type="triangle"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent2"/>
+                  </a:lnRef>
+                  <a:fillRef idx="0">
+                    <a:schemeClr val="accent2"/>
+                  </a:fillRef>
+                  <a:effectRef idx="1">
+                    <a:schemeClr val="accent2"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="tx1"/>
+                  </a:fontRef>
+                </xdr:style>
+              </xdr:cxnSp>
+            </xdr:grpSp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="21" name="Connecteur droit avec flèche 20">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE6FE77-1F2F-8E6E-2820-5024F0E3EA94}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="14" idx="3"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm flipH="1">
+                  <a:off x="7975985" y="16800122"/>
+                  <a:ext cx="6765956" cy="2625105"/>
+                </a:xfrm>
+                <a:prstGeom prst="straightConnector1">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln>
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:tailEnd type="triangle"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent2"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent2"/>
+                </a:fillRef>
+                <a:effectRef idx="1">
+                  <a:schemeClr val="accent2"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+          </xdr:grpSp>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="23" name="Image 22">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF060664-44D9-D17D-9252-AA74FEDA754F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="10198485" y="19838939"/>
+                <a:ext cx="6392167" cy="1810003"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln w="190500" cap="sq">
+                <a:solidFill>
+                  <a:srgbClr val="C8C6BD"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" algn="bl" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="perspectiveFront" fov="5400000"/>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="2100000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d extrusionH="25400">
+                <a:bevelT w="304800" h="152400" prst="hardEdge"/>
+                <a:extrusionClr>
+                  <a:srgbClr val="000000"/>
+                </a:extrusionClr>
+              </a:sp3d>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="29" name="Connecteur droit avec flèche 28">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89637E80-D64B-6EC5-4C7F-566BD0B660CC}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="25" idx="2"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1" flipV="1">
+                <a:off x="7947121" y="20454697"/>
+                <a:ext cx="6776820" cy="178591"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent2"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent2"/>
+              </a:fillRef>
+              <a:effectRef idx="1">
+                <a:schemeClr val="accent2"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+        </xdr:grpSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="Ellipse 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFDA072C-39D0-44E8-88AF-626CC882BF9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="20238906" y="24203017"/>
+              <a:ext cx="1460670" cy="357875"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="15000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="36" name="Image 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBBF68C-C04B-0B63-0DE3-82F6C9C89E02}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="961104" y="19294577"/>
+            <a:ext cx="6460987" cy="1935778"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="190500" cap="sq">
+            <a:solidFill>
+              <a:srgbClr val="C8C6BD"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="800000"/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="254000" algn="bl" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="43000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="perspectiveFront" fov="5400000"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="2100000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d extrusionH="25400">
+            <a:bevelT w="304800" h="152400" prst="hardEdge"/>
+            <a:extrusionClr>
+              <a:srgbClr val="000000"/>
+            </a:extrusionClr>
+          </a:sp3d>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="Ellipse 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7C8877-7856-4ADB-A132-90575807862D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4118538" y="20620166"/>
+            <a:ext cx="1454368" cy="309037"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="fr-FR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="38" name="Connecteur droit avec flèche 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC13FB5-4199-B2C6-E6F6-BD51564C4803}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="33" idx="6"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5572906" y="20774685"/>
+            <a:ext cx="5738954" cy="1945024"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -895,437 +1629,1113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:F69"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21" style="10" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21" style="9" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="129.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="B7" s="10">
+        <v>8.09</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="O7" s="19"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11">
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="B8" s="10">
+        <v>182</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="O8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11">
-        <v>182.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="10">
+        <v>183</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="11">
-        <v>183.75</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="B10" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2.33</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0.13</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2.33</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="B12" s="5">
         <f>B8*B9</f>
-        <v>33479.25</v>
-      </c>
+        <v>33306</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5">
         <f>B12*B10</f>
-        <v>4352.3024999999998</v>
-      </c>
+        <v>4995.8999999999996</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5">
-        <f>(B13*B11)/1000</f>
-        <v>10.140864825000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5">
+        <v>13</v>
+      </c>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="28">
+        <f>SUM(E41:E47)</f>
+        <v>11781.681098324998</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="28">
         <f>B6*B7</f>
-        <v>0.33799999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>18</v>
+        <v>0.26211599999999996</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="B16" s="5">
         <f>B7/B14</f>
-        <v>0.83326226567663553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="9">
-        <f>B6*B16</f>
-        <v>3.3330490627065425E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+        <v>6.8665922396678647E-4</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="8">
+        <f>B15/(B14/1000)</f>
+        <v>2.2247758856523879E-2</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="O19" s="19"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="O20" s="19"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="O21" s="19"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="O22" s="19"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="O24" s="19"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="O25" s="19"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="O26" s="19"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="O27" s="19"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="O28" s="19"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="O29" s="19"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="O30" s="19"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="O31" s="19"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="O32" s="19"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="O33" s="19"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="19"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="19"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="19"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="19"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="19"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="19"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O40" s="19"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="22">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="D41" s="12">
+        <v>3.44</v>
+      </c>
+      <c r="E41" s="12">
+        <f>C41*D41*$B$12</f>
+        <v>6.8743584000000002</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="O41" s="19"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="22">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2.65</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" ref="E42:E48" si="0">C42*D42*$B$12</f>
+        <v>3.5304359999999999</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="O42" s="19"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2.33</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="0"/>
+        <v>11640.447</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="12">
+        <v>1.18</v>
+      </c>
+      <c r="O43" s="19"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="22">
+        <v>1.2500000000000001E-6</v>
+      </c>
+      <c r="D44" s="12">
+        <v>2.65</v>
+      </c>
+      <c r="E44" s="12">
+        <f t="shared" si="0"/>
+        <v>0.110326125</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="O44" s="19"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="22">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2.33</v>
+      </c>
+      <c r="E45" s="12">
+        <f t="shared" si="0"/>
+        <v>0.7760298000000001</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="O45" s="19"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="22">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="D46" s="12">
+        <v>3.44</v>
+      </c>
+      <c r="E46" s="12">
+        <f t="shared" si="0"/>
+        <v>8.5929479999999998</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="O46" s="19"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="22">
+        <f>(E47/B12)/D47</f>
+        <v>3.4732961485997165E-4</v>
+      </c>
+      <c r="D47" s="12">
+        <v>10.49</v>
+      </c>
+      <c r="E47" s="12">
+        <f>15*B7</f>
+        <v>121.35</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="12">
+        <f>(0.007968)*E47</f>
+        <v>0.96691679999999991</v>
+      </c>
+      <c r="O47" s="19"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="12"/>
+      <c r="O48" s="19"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="29"/>
+      <c r="O49" s="19"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="27">
+        <f>SUM(C41:C47)</f>
+        <v>0.15053357961485997</v>
+      </c>
+      <c r="G50" s="27">
+        <f>SUM(G41:G49)</f>
+        <v>2.1469167999999996</v>
+      </c>
+      <c r="H50" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="O50" s="19"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G51" s="26">
+        <f>0.3*B7</f>
+        <v>2.427</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="O51" s="19"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G52" s="30">
+        <f>B6*7.6*B7</f>
+        <v>1.9920815999999999</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="O52" s="19"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="19"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="19"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="19"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O56" s="19"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="19"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="19"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O59" s="19"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="O60" s="19"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="O61" s="19"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="O62" s="19"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="O63" s="19"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="O64" s="19"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="O65" s="19"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="O66" s="19"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="O67" s="19"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="O68" s="19"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="O69" s="19"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F70" s="17"/>
+      <c r="O70" s="19"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="14">
-        <v>7.4999999999999993E-5</v>
-      </c>
-      <c r="D41" s="14">
-        <v>3.44</v>
-      </c>
-      <c r="E41" s="14">
-        <f>C41*D41*$B$12</f>
-        <v>8.6376464999999989</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="14">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="D42" s="14">
-        <v>2.65</v>
-      </c>
-      <c r="E42" s="14">
-        <f t="shared" ref="E42:E48" si="0">C42*D42*$B$12</f>
-        <v>0.88720012500000001</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="14">
-        <v>0.13</v>
-      </c>
-      <c r="D43" s="14">
-        <v>2.33</v>
-      </c>
-      <c r="E43" s="14">
-        <f t="shared" si="0"/>
-        <v>10140.864825000001</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="14">
-        <v>1.1999999999999999E-6</v>
-      </c>
-      <c r="D44" s="14">
-        <v>2.65</v>
-      </c>
-      <c r="E44" s="14">
-        <f t="shared" si="0"/>
-        <v>0.10646401499999998</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="14">
-        <v>1.5E-5</v>
-      </c>
-      <c r="D45" s="14">
-        <v>2.33</v>
-      </c>
-      <c r="E45" s="14">
-        <f t="shared" si="0"/>
-        <v>1.1700997875000001</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="14">
-        <v>7.4999999999999993E-5</v>
-      </c>
-      <c r="D46" s="14">
-        <v>3.44</v>
-      </c>
-      <c r="E46" s="14">
-        <f t="shared" si="0"/>
-        <v>8.6376464999999989</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="18"/>
+      <c r="O71" s="19"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F72" s="17"/>
+      <c r="O72" s="19"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O73" s="19"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O74" s="19"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O75" s="19"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O76" s="19"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="20"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F80" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O80" s="19"/>
+    </row>
+    <row r="81" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F81" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="14">
-        <f>D47/E47</f>
-        <v>7.3024712843717379E-2</v>
-      </c>
-      <c r="D47" s="14">
-        <v>10.49</v>
-      </c>
-      <c r="E47" s="14">
-        <f>17*B7</f>
-        <v>143.64999999999998</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="14">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="D48" s="15">
-        <v>2.7</v>
-      </c>
-      <c r="E48" s="14">
-        <f t="shared" si="0"/>
-        <v>63.275782500000005</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="15">
-        <f>SUM(E41:E48)-(B14*1000)</f>
-        <v>226.36483942749874</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
+      <c r="O81" s="19"/>
+    </row>
+    <row r="82" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O82" s="19"/>
+    </row>
+    <row r="83" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O83" s="19"/>
+    </row>
+    <row r="84" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O84" s="19"/>
+    </row>
+    <row r="85" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O85" s="19"/>
+    </row>
+    <row r="86" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O86" s="19"/>
+    </row>
+    <row r="87" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O87" s="19"/>
+    </row>
+    <row r="88" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O88" s="19"/>
+    </row>
+    <row r="89" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O89" s="19"/>
+    </row>
+    <row r="90" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O90" s="19"/>
+    </row>
+    <row r="91" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O91" s="19"/>
+    </row>
+    <row r="92" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O92" s="19"/>
+    </row>
+    <row r="93" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O93" s="19"/>
+    </row>
+    <row r="94" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O94" s="19"/>
+    </row>
+    <row r="95" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O95" s="19"/>
+    </row>
+    <row r="96" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="O96" s="19"/>
+    </row>
+    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O97" s="19"/>
+    </row>
+    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O98" s="19"/>
+    </row>
+    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O99" s="19"/>
+    </row>
+    <row r="100" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O100" s="19"/>
+    </row>
+    <row r="101" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O101" s="19"/>
+    </row>
+    <row r="102" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O102" s="19"/>
+    </row>
+    <row r="103" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O103" s="19"/>
+    </row>
+    <row r="104" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O104" s="19"/>
+    </row>
+    <row r="105" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O105" s="19"/>
+    </row>
+    <row r="106" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O106" s="19"/>
+    </row>
+    <row r="107" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O107" s="19"/>
+    </row>
+    <row r="108" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O108" s="19"/>
+    </row>
+    <row r="109" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O109" s="19"/>
+    </row>
+    <row r="110" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O110" s="19"/>
+    </row>
+    <row r="111" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O111" s="19"/>
+    </row>
+    <row r="112" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O112" s="19"/>
+    </row>
+    <row r="113" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O113" s="19"/>
+    </row>
+    <row r="114" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O114" s="19"/>
+    </row>
+    <row r="115" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O115" s="19"/>
+    </row>
+    <row r="116" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O116" s="19"/>
+    </row>
+    <row r="117" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O117" s="19"/>
+    </row>
+    <row r="118" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O118" s="19"/>
+    </row>
+    <row r="119" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O119" s="19"/>
+    </row>
+    <row r="120" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O120" s="19"/>
+    </row>
+    <row r="121" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O121" s="19"/>
+    </row>
+    <row r="122" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O122" s="19"/>
+    </row>
+    <row r="123" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O123" s="19"/>
+    </row>
+    <row r="124" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O124" s="19"/>
+    </row>
+    <row r="125" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O125" s="19"/>
+    </row>
+    <row r="126" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O126" s="19"/>
+    </row>
+    <row r="127" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O127" s="19"/>
+    </row>
+    <row r="128" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O128" s="19"/>
+    </row>
+    <row r="129" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O129" s="19"/>
+    </row>
+    <row r="130" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O130" s="19"/>
+    </row>
+    <row r="131" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O131" s="19"/>
+    </row>
+    <row r="132" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O132" s="19"/>
+    </row>
+    <row r="133" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O133" s="19"/>
+    </row>
+    <row r="134" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O134" s="19"/>
+    </row>
+    <row r="135" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O135" s="19"/>
+    </row>
+    <row r="136" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O136" s="19"/>
+    </row>
+    <row r="137" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O137" s="19"/>
+    </row>
+    <row r="138" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O138" s="19"/>
+    </row>
+    <row r="139" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O139" s="19"/>
+    </row>
+    <row r="140" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O140" s="19"/>
+    </row>
+    <row r="141" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O141" s="19"/>
+    </row>
+    <row r="142" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O142" s="19"/>
+    </row>
+    <row r="143" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O143" s="19"/>
+    </row>
+    <row r="144" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O144" s="19"/>
+    </row>
+    <row r="145" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O145" s="19"/>
+    </row>
+    <row r="146" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O146" s="19"/>
+    </row>
+    <row r="147" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O147" s="19"/>
+    </row>
+    <row r="148" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O148" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="A77:O79"/>
+    <mergeCell ref="A1:N3"/>
+    <mergeCell ref="A34:N37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE58062B-2319-44B2-92CF-DAFE4E063543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C77B15-579A-4678-9E45-F346A43F1695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Paramètre</t>
   </si>
@@ -149,18 +150,9 @@
     <t>Cellule solaire bifaciale TOPCon de type N 182 mm M10</t>
   </si>
   <si>
-    <t>Prix (Eur/W)</t>
-  </si>
-  <si>
     <t>Masse (mg)</t>
   </si>
   <si>
-    <t>Prix (eur/g)</t>
-  </si>
-  <si>
-    <t>Prix Total (eur/cellule)</t>
-  </si>
-  <si>
     <t>Mass (mg/cellule)</t>
   </si>
   <si>
@@ -176,26 +168,44 @@
     <t>TOTAL Price</t>
   </si>
   <si>
-    <t>TOTAL Thickness</t>
-  </si>
-  <si>
     <t>Cell price (SMM)</t>
   </si>
   <si>
     <t>Price (CNY)</t>
   </si>
   <si>
-    <t>AL-TOPCON-M10</t>
-  </si>
-  <si>
     <t>Caractéristique Technique Cellule AL-TOPCON M10</t>
+  </si>
+  <si>
+    <t>TOTAL Mass (mg)</t>
+  </si>
+  <si>
+    <t>TOTAL Thickness (mm)</t>
+  </si>
+  <si>
+    <t>Prix (Yuan/W)</t>
+  </si>
+  <si>
+    <t>Prix Total (Yuan/cellule)</t>
+  </si>
+  <si>
+    <t>Prix (Yuan/g)</t>
+  </si>
+  <si>
+    <t>Cout Argent</t>
+  </si>
+  <si>
+    <t>Coût Wafer</t>
+  </si>
+  <si>
+    <t>Autres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,8 +252,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,12 +299,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,8 +327,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -353,11 +376,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -381,47 +414,51 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,94 +563,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>145566</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76968</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1125682</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>144318</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BB783D-FF2A-5EB4-8589-36FEF8508781}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4340414" y="654241"/>
-          <a:ext cx="4751632" cy="5647653"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2780529</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57728</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>413712</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>99725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA10E2F8-3909-CCE4-1EAD-A6B78786F805}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12026514" y="635001"/>
-          <a:ext cx="6253789" cy="5622300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -640,8 +589,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="418708" y="15405110"/>
-          <a:ext cx="22736800" cy="6508929"/>
+          <a:off x="418708" y="15620594"/>
+          <a:ext cx="23232521" cy="6599796"/>
           <a:chOff x="961104" y="19294577"/>
           <a:chExt cx="22069381" cy="6733796"/>
         </a:xfrm>
@@ -774,7 +723,7 @@
                       </xdr:cNvPicPr>
                     </xdr:nvPicPr>
                     <xdr:blipFill>
-                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+                      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
                       <a:stretch>
                         <a:fillRect/>
                       </a:stretch>
@@ -933,7 +882,7 @@
                   </xdr:cNvPicPr>
                 </xdr:nvPicPr>
                 <xdr:blipFill>
-                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+                  <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
                   <a:stretch>
                     <a:fillRect/>
                   </a:stretch>
@@ -1050,7 +999,7 @@
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
               <a:stretch>
                 <a:fillRect/>
               </a:stretch>
@@ -1201,7 +1150,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1337,6 +1286,94 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2655700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>32289</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC8D96E-DB1A-9D1D-6AAA-4F856CEE2852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11890107" y="766844"/>
+          <a:ext cx="6804724" cy="2437753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161442</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1170447</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104936</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B840A1-044B-BE6D-F538-56A46BDE976D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4350828" y="582589"/>
+          <a:ext cx="4778644" cy="5721669"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1631,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,68 +1681,68 @@
     <col min="6" max="6" width="129.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="19"/>
+      <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="19"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="19"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="O4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -1714,22 +1751,22 @@
       <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="O5" s="19"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B6" s="10">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="O6" s="19"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -1738,10 +1775,10 @@
       <c r="B7" s="10">
         <v>8.09</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1750,10 +1787,10 @@
       <c r="B8" s="10">
         <v>182</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="O8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -1762,28 +1799,28 @@
       <c r="B9" s="10">
         <v>183</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="19"/>
+      <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+        <v>0.13</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="19"/>
+      <c r="O10" s="18"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -1792,13 +1829,13 @@
       <c r="B11" s="10">
         <v>2.33</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="19"/>
+      <c r="O11" s="18"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1808,13 +1845,13 @@
         <f>B8*B9</f>
         <v>33306</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="19"/>
+      <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -1822,41 +1859,41 @@
       </c>
       <c r="B13" s="5">
         <f>B12*B10</f>
-        <v>4995.8999999999996</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+        <v>4329.78</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="19"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="28">
+      <c r="A14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="22">
         <f>SUM(E41:E47)</f>
-        <v>11781.681098324998</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="O14" s="19"/>
+        <v>10205.351498324997</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="O14" s="18"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="28">
+      <c r="A15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="22">
         <f>B6*B7</f>
-        <v>0.26211599999999996</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="O15" s="19"/>
+        <v>2.3460999999999999</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="O15" s="18"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -1864,195 +1901,195 @@
       </c>
       <c r="B16" s="5">
         <f>B7/B14</f>
-        <v>6.8665922396678647E-4</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="O16" s="19"/>
+        <v>7.9272134833648902E-4</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B17" s="8">
         <f>B15/(B14/1000)</f>
-        <v>2.2247758856523879E-2</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="O17" s="19"/>
+        <v>0.22988919101758179</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="O18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="O19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="O20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="O21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="O22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="O23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="O24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="O25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="O26" s="19"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="O27" s="19"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="O28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="O29" s="19"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="O29" s="18"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="O30" s="19"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="O31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="O31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="O32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="O32" s="18"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="O33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="19"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="18"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="19"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="18"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="19"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="19"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O38" s="19"/>
+      <c r="O38" s="18"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O39" s="19"/>
+      <c r="O39" s="18"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
@@ -2068,15 +2105,15 @@
         <v>26</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O40" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="O40" s="18"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
@@ -2085,7 +2122,7 @@
       <c r="B41" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="19">
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="D41" s="12">
@@ -2098,8 +2135,9 @@
       <c r="F41" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="O41" s="19"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="29"/>
+      <c r="O41" s="18"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
@@ -2108,21 +2146,22 @@
       <c r="B42" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="19">
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="D42" s="12">
         <v>2.65</v>
       </c>
       <c r="E42" s="12">
-        <f t="shared" ref="E42:E48" si="0">C42*D42*$B$12</f>
+        <f t="shared" ref="E42:E46" si="0">C42*D42*$B$12</f>
         <v>3.5304359999999999</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="O42" s="19"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="29"/>
+      <c r="O42" s="18"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
@@ -2131,23 +2170,24 @@
       <c r="B43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="22">
-        <v>0.15</v>
+      <c r="C43" s="19">
+        <v>0.13</v>
       </c>
       <c r="D43" s="12">
         <v>2.33</v>
       </c>
       <c r="E43" s="12">
         <f t="shared" si="0"/>
-        <v>11640.447</v>
+        <v>10088.3874</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="12">
-        <v>1.18</v>
-      </c>
-      <c r="O43" s="19"/>
+      <c r="G43" s="28">
+        <v>1.17</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="O43" s="18"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
@@ -2156,7 +2196,7 @@
       <c r="B44" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="19">
         <v>1.2500000000000001E-6</v>
       </c>
       <c r="D44" s="12">
@@ -2169,8 +2209,9 @@
       <c r="F44" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="O44" s="19"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="29"/>
+      <c r="O44" s="18"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
@@ -2179,7 +2220,7 @@
       <c r="B45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="19">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D45" s="12">
@@ -2192,8 +2233,9 @@
       <c r="F45" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="O45" s="19"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="29"/>
+      <c r="O45" s="18"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
@@ -2202,7 +2244,7 @@
       <c r="B46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="19">
         <v>7.4999999999999993E-5</v>
       </c>
       <c r="D46" s="12">
@@ -2215,8 +2257,9 @@
       <c r="F46" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="O46" s="19"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="29"/>
+      <c r="O46" s="18"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
@@ -2225,123 +2268,148 @@
       <c r="B47" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="19">
         <f>(E47/B12)/D47</f>
-        <v>3.4732961485997165E-4</v>
+        <v>2.778636918879773E-4</v>
       </c>
       <c r="D47" s="12">
         <v>10.49</v>
       </c>
       <c r="E47" s="12">
-        <f>15*B7</f>
-        <v>121.35</v>
+        <f>12*B7</f>
+        <v>97.08</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G47" s="12">
-        <f>(0.007968)*E47</f>
-        <v>0.96691679999999991</v>
-      </c>
-      <c r="O47" s="19"/>
+      <c r="G47" s="28">
+        <f>7.943*(E47/1000)</f>
+        <v>0.77110643999999995</v>
+      </c>
+      <c r="O47" s="18"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="12"/>
-      <c r="O48" s="19"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="O48" s="18"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="29"/>
-      <c r="O49" s="19"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="27"/>
+      <c r="O49" s="18"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="23">
+        <f>SUM(C41:C47)</f>
+        <v>0.13046411369188798</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="27">
-        <f>SUM(C41:C47)</f>
-        <v>0.15053357961485997</v>
-      </c>
-      <c r="G50" s="27">
+      <c r="E50" s="23">
+        <f>SUM(E41:E47)</f>
+        <v>10205.351498324997</v>
+      </c>
+      <c r="G50" s="23">
         <f>SUM(G41:G49)</f>
-        <v>2.1469167999999996</v>
-      </c>
-      <c r="H50" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="O50" s="19"/>
+        <v>1.94110644</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="O50" s="18"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G51" s="26">
+      <c r="G51" s="23">
         <f>0.3*B7</f>
         <v>2.427</v>
       </c>
-      <c r="H51" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="O51" s="19"/>
+      <c r="H51" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O51" s="18"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G52" s="30">
-        <f>B6*7.6*B7</f>
-        <v>1.9920815999999999</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="O52" s="19"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="O52" s="18"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O53" s="19"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="O53" s="18"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O54" s="19"/>
+      <c r="O54" s="18"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O55" s="19"/>
+      <c r="I55" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O55" s="18"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O56" s="19"/>
+      <c r="I56" s="30">
+        <f>G43/G51</f>
+        <v>0.48207663782447463</v>
+      </c>
+      <c r="J56" s="30">
+        <f>G47/G51</f>
+        <v>0.31771999999999995</v>
+      </c>
+      <c r="K56" s="31">
+        <f>100% - SUM(I56,J56)</f>
+        <v>0.20020336217552548</v>
+      </c>
+      <c r="O56" s="18"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O57" s="19"/>
+      <c r="O57" s="18"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O58" s="19"/>
+      <c r="O58" s="18"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O59" s="19"/>
+      <c r="O59" s="18"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
@@ -2350,7 +2418,7 @@
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
-      <c r="O60" s="19"/>
+      <c r="O60" s="18"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
@@ -2359,7 +2427,7 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
-      <c r="O61" s="19"/>
+      <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
@@ -2368,7 +2436,7 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
-      <c r="O62" s="19"/>
+      <c r="O62" s="18"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
@@ -2377,7 +2445,7 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
-      <c r="O63" s="19"/>
+      <c r="O63" s="18"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
@@ -2386,7 +2454,7 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
-      <c r="O64" s="19"/>
+      <c r="O64" s="18"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
@@ -2395,7 +2463,7 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
-      <c r="O65" s="19"/>
+      <c r="O65" s="18"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
@@ -2404,7 +2472,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
-      <c r="O66" s="19"/>
+      <c r="O66" s="18"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
@@ -2413,7 +2481,7 @@
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
-      <c r="O67" s="19"/>
+      <c r="O67" s="18"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
@@ -2422,7 +2490,7 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
-      <c r="O68" s="19"/>
+      <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
@@ -2431,303 +2499,303 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
-      <c r="O69" s="19"/>
+      <c r="O69" s="18"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F70" s="17"/>
-      <c r="O70" s="19"/>
+      <c r="F70" s="16"/>
+      <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="18"/>
-      <c r="O71" s="19"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="17"/>
+      <c r="O71" s="18"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F72" s="17"/>
-      <c r="O72" s="19"/>
+      <c r="F72" s="16"/>
+      <c r="O72" s="18"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O73" s="19"/>
+      <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O74" s="19"/>
+      <c r="O74" s="18"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O75" s="19"/>
+      <c r="O75" s="18"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O76" s="19"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20"/>
+      <c r="O76" s="18"/>
+    </row>
+    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="33"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="33"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="33"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="33"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F80" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O80" s="19"/>
+        <v>41</v>
+      </c>
+      <c r="O80" s="18"/>
     </row>
     <row r="81" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F81" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O81" s="19"/>
+        <v>42</v>
+      </c>
+      <c r="O81" s="18"/>
     </row>
     <row r="82" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O82" s="19"/>
+      <c r="O82" s="18"/>
     </row>
     <row r="83" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O83" s="19"/>
+      <c r="O83" s="18"/>
     </row>
     <row r="84" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O84" s="19"/>
+      <c r="O84" s="18"/>
     </row>
     <row r="85" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O85" s="19"/>
+      <c r="O85" s="18"/>
     </row>
     <row r="86" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O86" s="19"/>
+      <c r="O86" s="18"/>
     </row>
     <row r="87" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O87" s="19"/>
+      <c r="O87" s="18"/>
     </row>
     <row r="88" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O88" s="19"/>
+      <c r="O88" s="18"/>
     </row>
     <row r="89" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O89" s="19"/>
+      <c r="O89" s="18"/>
     </row>
     <row r="90" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O90" s="19"/>
+      <c r="O90" s="18"/>
     </row>
     <row r="91" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O91" s="19"/>
+      <c r="O91" s="18"/>
     </row>
     <row r="92" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O92" s="19"/>
+      <c r="O92" s="18"/>
     </row>
     <row r="93" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O93" s="19"/>
+      <c r="O93" s="18"/>
     </row>
     <row r="94" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O94" s="19"/>
+      <c r="O94" s="18"/>
     </row>
     <row r="95" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O95" s="19"/>
+      <c r="O95" s="18"/>
     </row>
     <row r="96" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="O96" s="19"/>
+      <c r="O96" s="18"/>
     </row>
     <row r="97" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O97" s="19"/>
+      <c r="O97" s="18"/>
     </row>
     <row r="98" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O98" s="19"/>
+      <c r="O98" s="18"/>
     </row>
     <row r="99" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O99" s="19"/>
+      <c r="O99" s="18"/>
     </row>
     <row r="100" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O100" s="19"/>
+      <c r="O100" s="18"/>
     </row>
     <row r="101" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O101" s="19"/>
+      <c r="O101" s="18"/>
     </row>
     <row r="102" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O102" s="19"/>
+      <c r="O102" s="18"/>
     </row>
     <row r="103" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O103" s="19"/>
+      <c r="O103" s="18"/>
     </row>
     <row r="104" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O104" s="19"/>
+      <c r="O104" s="18"/>
     </row>
     <row r="105" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O105" s="19"/>
+      <c r="O105" s="18"/>
     </row>
     <row r="106" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O106" s="19"/>
+      <c r="O106" s="18"/>
     </row>
     <row r="107" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O107" s="19"/>
+      <c r="O107" s="18"/>
     </row>
     <row r="108" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O108" s="19"/>
+      <c r="O108" s="18"/>
     </row>
     <row r="109" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O109" s="19"/>
+      <c r="O109" s="18"/>
     </row>
     <row r="110" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O110" s="19"/>
+      <c r="O110" s="18"/>
     </row>
     <row r="111" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O111" s="19"/>
+      <c r="O111" s="18"/>
     </row>
     <row r="112" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O112" s="19"/>
+      <c r="O112" s="18"/>
     </row>
     <row r="113" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O113" s="19"/>
+      <c r="O113" s="18"/>
     </row>
     <row r="114" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O114" s="19"/>
+      <c r="O114" s="18"/>
     </row>
     <row r="115" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O115" s="19"/>
+      <c r="O115" s="18"/>
     </row>
     <row r="116" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O116" s="19"/>
+      <c r="O116" s="18"/>
     </row>
     <row r="117" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O117" s="19"/>
+      <c r="O117" s="18"/>
     </row>
     <row r="118" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O118" s="19"/>
+      <c r="O118" s="18"/>
     </row>
     <row r="119" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O119" s="19"/>
+      <c r="O119" s="18"/>
     </row>
     <row r="120" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O120" s="19"/>
+      <c r="O120" s="18"/>
     </row>
     <row r="121" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O121" s="19"/>
+      <c r="O121" s="18"/>
     </row>
     <row r="122" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O122" s="19"/>
+      <c r="O122" s="18"/>
     </row>
     <row r="123" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O123" s="19"/>
+      <c r="O123" s="18"/>
     </row>
     <row r="124" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O124" s="19"/>
+      <c r="O124" s="18"/>
     </row>
     <row r="125" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O125" s="19"/>
+      <c r="O125" s="18"/>
     </row>
     <row r="126" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O126" s="19"/>
+      <c r="O126" s="18"/>
     </row>
     <row r="127" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O127" s="19"/>
+      <c r="O127" s="18"/>
     </row>
     <row r="128" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O128" s="19"/>
+      <c r="O128" s="18"/>
     </row>
     <row r="129" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O129" s="19"/>
+      <c r="O129" s="18"/>
     </row>
     <row r="130" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O130" s="19"/>
+      <c r="O130" s="18"/>
     </row>
     <row r="131" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O131" s="19"/>
+      <c r="O131" s="18"/>
     </row>
     <row r="132" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O132" s="19"/>
+      <c r="O132" s="18"/>
     </row>
     <row r="133" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O133" s="19"/>
+      <c r="O133" s="18"/>
     </row>
     <row r="134" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O134" s="19"/>
+      <c r="O134" s="18"/>
     </row>
     <row r="135" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O135" s="19"/>
+      <c r="O135" s="18"/>
     </row>
     <row r="136" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O136" s="19"/>
+      <c r="O136" s="18"/>
     </row>
     <row r="137" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O137" s="19"/>
+      <c r="O137" s="18"/>
     </row>
     <row r="138" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O138" s="19"/>
+      <c r="O138" s="18"/>
     </row>
     <row r="139" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O139" s="19"/>
+      <c r="O139" s="18"/>
     </row>
     <row r="140" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O140" s="19"/>
+      <c r="O140" s="18"/>
     </row>
     <row r="141" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O141" s="19"/>
+      <c r="O141" s="18"/>
     </row>
     <row r="142" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O142" s="19"/>
+      <c r="O142" s="18"/>
     </row>
     <row r="143" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O143" s="19"/>
+      <c r="O143" s="18"/>
     </row>
     <row r="144" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O144" s="19"/>
+      <c r="O144" s="18"/>
     </row>
     <row r="145" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O145" s="19"/>
+      <c r="O145" s="18"/>
     </row>
     <row r="146" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O146" s="19"/>
+      <c r="O146" s="18"/>
     </row>
     <row r="147" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O147" s="19"/>
+      <c r="O147" s="18"/>
     </row>
     <row r="148" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O148" s="19"/>
+      <c r="O148" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C77B15-579A-4678-9E45-F346A43F1695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D642F55-615D-4D7B-A2D0-78F3168C26F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Décomposition Cellule TOPCON" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Paramètre</t>
   </si>
@@ -199,13 +199,40 @@
   </si>
   <si>
     <t>Autres</t>
+  </si>
+  <si>
+    <t>Solar Cell Rear-side Silver Paste</t>
+  </si>
+  <si>
+    <t>Solar Cell Busbar Front-side Silver Paste</t>
+  </si>
+  <si>
+    <t>Solar Cell Finger Front-side Silver Paste</t>
+  </si>
+  <si>
+    <t>N-type Wafer-183mm</t>
+  </si>
+  <si>
+    <t>Monocrystalline Topcon Solar Cell - 183mm</t>
+  </si>
+  <si>
+    <t>Exemple Cellule Topcon 183mm</t>
+  </si>
+  <si>
+    <t>Topcon Module-182mm Europe</t>
+  </si>
+  <si>
+    <t>N-Type Polysilicon</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,8 +286,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,8 +382,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -385,12 +434,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -455,8 +531,33 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1379,6 +1480,569 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur droit avec flèche 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5E02B26-78AA-91FC-E70D-385DCAE3945D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="2667000"/>
+          <a:ext cx="781050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connecteur droit avec flèche 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA3A478-9369-8334-41DB-7CFF5669AA74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5743575" y="3619500"/>
+          <a:ext cx="923925" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Connecteur droit avec flèche 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EB3378-3254-F344-3DDA-0A58C440FEA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4057650" y="3714750"/>
+          <a:ext cx="1133475" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Connecteur droit avec flèche 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB54376A-984A-A891-6249-1A2A212F4E73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9305925" y="3343275"/>
+          <a:ext cx="771525" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connecteur droit avec flèche 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3E9CB3-988D-0D18-83A3-942CCB69DDEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12830175" y="2476500"/>
+          <a:ext cx="752475" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connecteur droit avec flèche 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCA71A5-5F65-63E3-48B8-5EB7DF157A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12811125" y="3609975"/>
+          <a:ext cx="771525" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2049" name="AutoShape 1" descr="Chine N Type 182mm M10 Bifacial TOPCon Fournisseurs de cellules  solaires&amp;Fabricants&amp;Usine - Fabriqué en Chine - Dongshuo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3312757-2DAC-7671-1EA7-AE0CEAA6B9B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15868650" y="3238500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2051" name="AutoShape 3" descr="Chine N Type 182mm M10 Bifacial TOPCon Fournisseurs de cellules  solaires&amp;Fabricants&amp;Usine - Fabriqué en Chine - Dongshuo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F4B43A-46D3-2C60-E249-D87D5ECCFF1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5724525" y="4762500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2052" name="AutoShape 4" descr="Chine N Type 182mm M10 Bifacial TOPCon Fournisseurs de cellules  solaires&amp;Fabricants&amp;Usine - Fabriqué en Chine - Dongshuo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4733E8BA-9224-A72B-0C78-DFFF54907065}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5724525" y="1524000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2053" name="AutoShape 5" descr="Chine N Type 182mm M10 Bifacial TOPCon Fournisseurs de cellules  solaires&amp;Fabricants&amp;Usine - Fabriqué en Chine - Dongshuo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3768F43C-E385-A6FD-DC0B-CB90D4BAD289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5724525" y="4572000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2055" name="AutoShape 7" descr="Module Solaire Bifacial Type N Direct Usine Ja 615W 610W 605W - Chine  Panneau solaire, panneau solaire">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817C7D8C-4168-D974-1E65-ECD94A4A42CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12058650" y="4762500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1668,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="C25" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +2539,7 @@
       </c>
       <c r="B14" s="22">
         <f>SUM(E41:E47)</f>
-        <v>10205.351498324997</v>
+        <v>10245.801498324998</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1901,7 +2565,7 @@
       </c>
       <c r="B16" s="5">
         <f>B7/B14</f>
-        <v>7.9272134833648902E-4</v>
+        <v>7.8959171728269068E-4</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1914,7 +2578,7 @@
       </c>
       <c r="B17" s="8">
         <f>B15/(B14/1000)</f>
-        <v>0.22988919101758179</v>
+        <v>0.22898159801198029</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -2184,7 +2848,7 @@
         <v>33</v>
       </c>
       <c r="G43" s="28">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H43" s="24"/>
       <c r="O43" s="18"/>
@@ -2270,21 +2934,21 @@
       </c>
       <c r="C47" s="19">
         <f>(E47/B12)/D47</f>
-        <v>2.778636918879773E-4</v>
+        <v>3.9364023017463451E-4</v>
       </c>
       <c r="D47" s="12">
         <v>10.49</v>
       </c>
       <c r="E47" s="12">
-        <f>12*B7</f>
-        <v>97.08</v>
+        <f>17*B7</f>
+        <v>137.53</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="28">
         <f>7.943*(E47/1000)</f>
-        <v>0.77110643999999995</v>
+        <v>1.0924007900000001</v>
       </c>
       <c r="O47" s="18"/>
     </row>
@@ -2334,18 +2998,18 @@
       </c>
       <c r="C50" s="23">
         <f>SUM(C41:C47)</f>
-        <v>0.13046411369188798</v>
+        <v>0.13057989023017463</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E50" s="23">
         <f>SUM(E41:E47)</f>
-        <v>10205.351498324997</v>
+        <v>10245.801498324998</v>
       </c>
       <c r="G50" s="23">
         <f>SUM(G41:G49)</f>
-        <v>1.94110644</v>
+        <v>2.2724007899999998</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>43</v>
@@ -2390,15 +3054,15 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I56" s="30">
         <f>G43/G51</f>
-        <v>0.48207663782447463</v>
+        <v>0.48619695096827353</v>
       </c>
       <c r="J56" s="30">
         <f>G47/G51</f>
-        <v>0.31771999999999995</v>
+        <v>0.45010333333333336</v>
       </c>
       <c r="K56" s="31">
         <f>100% - SUM(I56,J56)</f>
-        <v>0.20020336217552548</v>
+        <v>6.3699715698393167E-2</v>
       </c>
       <c r="O56" s="18"/>
     </row>
@@ -2807,4 +3471,324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E917B3B-4BCF-4647-AB61-1058E32AFD0A}">
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G1" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="39"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="39"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="G17:I19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E15" r:id="rId1" display="https://www.metal.com/Solar/202112230003" xr:uid="{243A1FFF-81ED-444D-9597-55B71892D5AF}"/>
+    <hyperlink ref="E16" r:id="rId2" display="https://www.metal.com/Solar/202112230004" xr:uid="{2A18A93D-58DA-4F3D-919C-F7085B23A381}"/>
+    <hyperlink ref="E17" r:id="rId3" display="https://www.metal.com/Solar/202112230005" xr:uid="{DD06F49C-21C5-4487-8E22-FD4B9C10D9DE}"/>
+    <hyperlink ref="E20" r:id="rId4" display="https://www.metal.com/Solar/202303220001" xr:uid="{895E524E-477C-40D5-9AF1-E984E603F77D}"/>
+    <hyperlink ref="G17" r:id="rId5" display="https://www.metal.com/Solar/202210280001" xr:uid="{BD0D9A99-FD32-4EBD-AD3D-F6476F6B7002}"/>
+    <hyperlink ref="B20" r:id="rId6" display="https://www.metal.com/Solar/202501060001" xr:uid="{E51D4007-9B21-4A15-8035-09A634069D33}"/>
+    <hyperlink ref="O13" r:id="rId7" display="https://www.metal.com/Solar/202303220001" xr:uid="{157DDE2F-BD61-45E0-9A78-E8BD441609B4}"/>
+    <hyperlink ref="O22" r:id="rId8" display="https://www.metal.com/Solar/202303220001" xr:uid="{D5007968-F43C-46BD-ADC8-9192959FAC9E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId9"/>
+</worksheet>
 </file>
--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D642F55-615D-4D7B-A2D0-78F3168C26F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53CA16A-38AC-48C5-A021-039948DCA306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Décomposition Cellule TOPCON" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
+    <sheet name="Chaîne de valeur Solaire" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>Paramètre</t>
   </si>
@@ -192,9 +193,6 @@
     <t>Prix (Yuan/g)</t>
   </si>
   <si>
-    <t>Cout Argent</t>
-  </si>
-  <si>
     <t>Coût Wafer</t>
   </si>
   <si>
@@ -216,9 +214,6 @@
     <t>Monocrystalline Topcon Solar Cell - 183mm</t>
   </si>
   <si>
-    <t>Exemple Cellule Topcon 183mm</t>
-  </si>
-  <si>
     <t>Topcon Module-182mm Europe</t>
   </si>
   <si>
@@ -227,12 +222,30 @@
   <si>
     <t>Aluminium</t>
   </si>
+  <si>
+    <t>Coût Argent</t>
+  </si>
+  <si>
+    <t>Cellule</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Chaîne de Valeur Solaire</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Gérer les formalités douanières et payer les taxes et droits d’importation.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +311,22 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -389,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -460,13 +489,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -519,6 +619,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,30 +636,63 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1477,6 +1615,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>458612</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>58797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>868667</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>94074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6247741-8C35-47D0-A0A6-9A2B88EB3A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9701390" y="3445464"/>
+          <a:ext cx="10899314" cy="2481203"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1539,12 +1721,12 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1561,8 +1743,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5743575" y="3619500"/>
-          <a:ext cx="923925" cy="190500"/>
+          <a:off x="5743575" y="3324225"/>
+          <a:ext cx="904875" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1643,16 +1825,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522636</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65272</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1663,12 +1845,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2121" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9305925" y="3343275"/>
-          <a:ext cx="771525" cy="0"/>
+          <a:off x="7989794" y="3843618"/>
+          <a:ext cx="1049313" cy="1376360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1900,54 +2084,6 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2052" name="AutoShape 4" descr="Chine N Type 182mm M10 Bifacial TOPCon Fournisseurs de cellules  solaires&amp;Fabricants&amp;Usine - Fabriqué en Chine - Dongshuo">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4733E8BA-9224-A72B-0C78-DFFF54907065}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5724525" y="1524000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1992,36 +2128,1749 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Ellipse 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3448D6FC-6A52-A152-3E94-0CAFBC7A3337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1419225"/>
+          <a:ext cx="8905875" cy="4019550"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2476501</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4362E525-9507-D8E5-44DE-297F338CB111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715001" y="2628901"/>
+          <a:ext cx="590549" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>27%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ZoneTexte 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D683EE8-6039-4256-AEAB-EC2F2E0F2849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3457575"/>
+          <a:ext cx="761999" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>50%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Connecteur droit avec flèche 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E126DFBF-8875-4E82-8147-B0DCF0337264}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2051" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5724525" y="3619500"/>
+          <a:ext cx="914400" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2352676</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2055" name="AutoShape 7" descr="Module Solaire Bifacial Type N Direct Usine Ja 615W 610W 605W - Chine  Panneau solaire, panneau solaire">
+        <xdr:cNvPr id="12" name="ZoneTexte 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817C7D8C-4168-D974-1E65-ECD94A4A42CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF100BF-C567-4AFD-950E-B0CD9EAAA705}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591176" y="4533901"/>
+          <a:ext cx="590549" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>23%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352427</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>284514</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Ellipse 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF2CC93-D36F-4386-A72B-7F48D964F517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352427" y="709056"/>
+          <a:ext cx="15827704" cy="5437167"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>519151</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>74557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1669967</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107948</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="ZoneTexte 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{525B146A-772D-404A-B5E4-61C54CE4014A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2931326" y="7533745"/>
+          <a:ext cx="1954875" cy="515826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Transport</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304776</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>151512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>692530</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>74557</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Connecteur droit avec flèche 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAD91795-1C35-CCEA-6E3F-6D9B60CC1DAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1912893" y="4827421"/>
+          <a:ext cx="1995871" cy="2706324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>73543</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>162570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>618506</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>131805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="ZoneTexte 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E51531E7-AC0D-4DE6-9D7B-185BF1EECEE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2485718" y="6322895"/>
+          <a:ext cx="1349022" cy="340339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Négociation</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457694</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>197921</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>185122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="ZoneTexte 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78281745-280D-46B1-901F-2077EA17562E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2065811" y="5819556"/>
+          <a:ext cx="1348344" cy="340339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fournisseur</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>448604</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>141789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>993567</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>111025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="ZoneTexte 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7BBA22-CDE6-4433-A62D-723F77298714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2860779" y="6858770"/>
+          <a:ext cx="1349022" cy="340339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Production</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622071</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>41405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12371</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="ZoneTexte 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0A29D1-0584-4096-BD9A-4EAC9092229A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8378142" y="6758386"/>
+          <a:ext cx="2223060" cy="342069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fret Maritime</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>626030</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>45363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548245</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="ZoneTexte 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E676000-4501-4674-ACB1-3F17C572733B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382101" y="8358090"/>
+          <a:ext cx="2223060" cy="342069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fret Aérien</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>643246</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>26888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622071</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>157721</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Connecteur droit avec flèche 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B06163B-E540-4C83-92F4-F23A7BF8C6BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7277128" y="7086594"/>
+          <a:ext cx="1099414" cy="892833"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>643246</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>162960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>626030</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>30846</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Connecteur droit avec flèche 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AF3DDB0-4130-4016-9473-5DE02E620C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7273636" y="7807700"/>
+          <a:ext cx="1108465" cy="721425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>26889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>498368</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>138506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Connecteur droit avec flèche 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29678498-0CA1-4392-9F44-DADBF1ED0BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="2066" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10601202" y="6929421"/>
+          <a:ext cx="1191095" cy="853825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>548245</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>138506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>498368</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>30846</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Connecteur droit avec flèche 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DDB103-073E-40C4-B2DF-EDDD25541C45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="3"/>
+          <a:endCxn id="2066" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10605161" y="7783246"/>
+          <a:ext cx="1187136" cy="745879"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2378628</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>643246</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>49481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="ZoneTexte 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A974164E-B3D6-4775-93BF-42DD149F383A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5594862" y="7438743"/>
+          <a:ext cx="1678774" cy="737913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Droits</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> d'éxportation</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="2000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1669967</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>146918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2378628</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>162960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Connecteur droit avec flèche 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540F207B-4156-460F-82B0-CC1661A4F8B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="3"/>
+          <a:endCxn id="49" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4886201" y="7791658"/>
+          <a:ext cx="708661" cy="16042"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>498368</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2066" name="ZoneTexte 2065">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED01817-756D-4059-ADB9-DA48021B019A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11792297" y="7525333"/>
+          <a:ext cx="1954875" cy="515826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Douane</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>322263</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104129</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>22410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2084" name="ZoneTexte 2083">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624FA439-7FD6-4264-BAD7-7D5E7C7EC126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14654587" y="7788088"/>
+          <a:ext cx="2067866" cy="347381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Transport interne</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>322263</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140073</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2085" name="Connecteur droit avec flèche 2084">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B332431A-925D-464E-BFAC-E5F89682158B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2066" idx="3"/>
+          <a:endCxn id="2084" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13722723" y="7954973"/>
+          <a:ext cx="931864" cy="6806"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104129</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>135384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>129621</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140073</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2095" name="Connecteur droit avec flèche 2094">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89761ABF-96B0-49E0-B245-4EF9B76A1071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2084" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16722453" y="7957090"/>
+          <a:ext cx="787492" cy="4689"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>697890</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2121" name="ZoneTexte 2120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF10E5D4-90B9-4C01-B806-AB2926A3C3CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8452361" y="5219978"/>
+          <a:ext cx="1173492" cy="528639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Spread</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>522636</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1221441</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65272</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2123" name="Connecteur droit avec flèche 2122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78130D85-72CF-4451-9E8B-FCE173978F04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2121" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9039107" y="3854824"/>
+          <a:ext cx="2222805" cy="1365154"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>148477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>92447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2135" name="Image 2134" descr="10 meilleures idées sur Logo usine | logo usine, logos, usine">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A097674-C347-F67F-FFEA-088BC8D63776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="12058650" y="4762500"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="17503588" y="7589183"/>
+          <a:ext cx="806823" cy="806823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2037,7 +3886,200 @@
           </a:ext>
         </a:extLst>
       </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>672452</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>155385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594667</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2142" name="ZoneTexte 2141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C32F305-EEB7-40AC-A758-2BE5F3A5F861}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8426923" y="7786591"/>
+          <a:ext cx="2208215" cy="351965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fret Ferroviaire</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>643246</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>672452</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>157721</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2143" name="Connecteur droit avec flèche 2142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF45930A-349B-4DEA-9674-E023157F0CEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="2142" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7277128" y="7962574"/>
+          <a:ext cx="1149795" cy="16853"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594667</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>498368</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>140868</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2147" name="Connecteur droit avec flèche 2146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C80A2F-F2A9-42AF-99ED-A63E59005409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2142" idx="3"/>
+          <a:endCxn id="2066" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10635138" y="7954973"/>
+          <a:ext cx="1147554" cy="7601"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2332,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView topLeftCell="A19" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,56 +4392,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
       <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
       <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2539,7 +4581,7 @@
       </c>
       <c r="B14" s="22">
         <f>SUM(E41:E47)</f>
-        <v>10245.801498324998</v>
+        <v>10189.171498324997</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -2565,7 +4607,7 @@
       </c>
       <c r="B16" s="5">
         <f>B7/B14</f>
-        <v>7.8959171728269068E-4</v>
+        <v>7.9398015837989569E-4</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -2578,7 +4620,7 @@
       </c>
       <c r="B17" s="8">
         <f>B15/(B14/1000)</f>
-        <v>0.22898159801198029</v>
+        <v>0.23025424593016972</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -2682,71 +4724,71 @@
       <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
       <c r="O34" s="18"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
       <c r="O35" s="18"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
       <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
       <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2934,21 +4976,21 @@
       </c>
       <c r="C47" s="19">
         <f>(E47/B12)/D47</f>
-        <v>3.9364023017463451E-4</v>
+        <v>2.3155307657331443E-4</v>
       </c>
       <c r="D47" s="12">
         <v>10.49</v>
       </c>
       <c r="E47" s="12">
-        <f>17*B7</f>
-        <v>137.53</v>
+        <f>10*B7</f>
+        <v>80.900000000000006</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="28">
         <f>7.943*(E47/1000)</f>
-        <v>1.0924007900000001</v>
+        <v>0.64258870000000001</v>
       </c>
       <c r="O47" s="18"/>
     </row>
@@ -2998,18 +5040,18 @@
       </c>
       <c r="C50" s="23">
         <f>SUM(C41:C47)</f>
-        <v>0.13057989023017463</v>
+        <v>0.13041780307657333</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E50" s="23">
         <f>SUM(E41:E47)</f>
-        <v>10245.801498324998</v>
+        <v>10189.171498324997</v>
       </c>
       <c r="G50" s="23">
         <f>SUM(G41:G49)</f>
-        <v>2.2724007899999998</v>
+        <v>1.8225886999999998</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>43</v>
@@ -3018,8 +5060,8 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G51" s="23">
-        <f>0.3*B7</f>
-        <v>2.427</v>
+        <f>0.293*B7</f>
+        <v>2.3703699999999999</v>
       </c>
       <c r="H51" s="20" t="s">
         <v>44</v>
@@ -3041,28 +5083,28 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I55" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="O55" s="18"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I56" s="30">
         <f>G43/G51</f>
-        <v>0.48619695096827353</v>
+        <v>0.4978125777832153</v>
       </c>
       <c r="J56" s="30">
         <f>G47/G51</f>
-        <v>0.45010333333333336</v>
+        <v>0.27109215017064847</v>
       </c>
       <c r="K56" s="31">
         <f>100% - SUM(I56,J56)</f>
-        <v>6.3699715698393167E-2</v>
+        <v>0.23109527204613622</v>
       </c>
       <c r="O56" s="18"/>
     </row>
@@ -3170,12 +5212,12 @@
       <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
       <c r="F71" s="17"/>
       <c r="O71" s="18"/>
     </row>
@@ -3196,57 +5238,57 @@
       <c r="O76" s="18"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="33"/>
-      <c r="I77" s="33"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="33"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="33"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33"/>
-      <c r="N78" s="33"/>
-      <c r="O78" s="33"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F80" s="15" t="s">
@@ -3475,10 +5517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E917B3B-4BCF-4647-AB61-1058E32AFD0A}">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,293 +5532,1936 @@
     <col min="11" max="11" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G1" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="39" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+    </row>
+    <row r="8" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+    </row>
+    <row r="10" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="P13" s="39"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="36" t="s">
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="36" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="51"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
       <c r="B20" s="44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="45"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="P22" s="39"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="32"/>
+      <c r="AA38" s="32"/>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="32"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" s="59"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="32"/>
+      <c r="AC39" s="32"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+      <c r="Z40" s="32"/>
+      <c r="AA40" s="32"/>
+      <c r="AB40" s="32"/>
+      <c r="AC40" s="32"/>
+    </row>
+    <row r="41" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A41" s="32"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+      <c r="Z42" s="32"/>
+      <c r="AA42" s="32"/>
+      <c r="AB42" s="32"/>
+      <c r="AC42" s="32"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+      <c r="Z45" s="32"/>
+      <c r="AA45" s="32"/>
+      <c r="AB45" s="32"/>
+      <c r="AC45" s="32"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+      <c r="Z46" s="32"/>
+      <c r="AA46" s="32"/>
+      <c r="AB46" s="32"/>
+      <c r="AC46" s="32"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="32"/>
+      <c r="AA52" s="32"/>
+      <c r="AB52" s="32"/>
+      <c r="AC52" s="32"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="32"/>
+      <c r="Z53" s="32"/>
+      <c r="AA53" s="32"/>
+      <c r="AB53" s="32"/>
+      <c r="AC53" s="32"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="32"/>
+      <c r="AC54" s="32"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32"/>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="32"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="32"/>
+      <c r="AA56" s="32"/>
+      <c r="AB56" s="32"/>
+      <c r="AC56" s="32"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="32"/>
+      <c r="Z57" s="32"/>
+      <c r="AA57" s="32"/>
+      <c r="AB57" s="32"/>
+      <c r="AC57" s="32"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="32"/>
+      <c r="Z58" s="32"/>
+      <c r="AA58" s="32"/>
+      <c r="AB58" s="32"/>
+      <c r="AC58" s="32"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="32"/>
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="32"/>
+      <c r="AC59" s="32"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="32"/>
+      <c r="Y60" s="32"/>
+      <c r="Z60" s="32"/>
+      <c r="AA60" s="32"/>
+      <c r="AB60" s="32"/>
+      <c r="AC60" s="32"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="32"/>
+      <c r="U61" s="32"/>
+      <c r="V61" s="32"/>
+      <c r="W61" s="32"/>
+      <c r="X61" s="32"/>
+      <c r="Y61" s="32"/>
+      <c r="Z61" s="32"/>
+      <c r="AA61" s="32"/>
+      <c r="AB61" s="32"/>
+      <c r="AC61" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="G17:I19"/>
+    <mergeCell ref="I8:K8"/>
     <mergeCell ref="K17:M19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="B40:D41"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="G17:I19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="https://www.metal.com/Solar/202112230003" xr:uid="{243A1FFF-81ED-444D-9597-55B71892D5AF}"/>
@@ -3786,9 +7471,22 @@
     <hyperlink ref="G17" r:id="rId5" display="https://www.metal.com/Solar/202210280001" xr:uid="{BD0D9A99-FD32-4EBD-AD3D-F6476F6B7002}"/>
     <hyperlink ref="B20" r:id="rId6" display="https://www.metal.com/Solar/202501060001" xr:uid="{E51D4007-9B21-4A15-8035-09A634069D33}"/>
     <hyperlink ref="O13" r:id="rId7" display="https://www.metal.com/Solar/202303220001" xr:uid="{157DDE2F-BD61-45E0-9A78-E8BD441609B4}"/>
-    <hyperlink ref="O22" r:id="rId8" display="https://www.metal.com/Solar/202303220001" xr:uid="{D5007968-F43C-46BD-ADC8-9192959FAC9E}"/>
+    <hyperlink ref="E26" r:id="rId8" display="https://www.metal.com/Solar/202303220001" xr:uid="{36BF44DE-53A8-4C3D-97AE-456CCA852B6C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <drawing r:id="rId10"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22EF4E4-4639-4D25-A7E0-36B40C5D2D97}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53CA16A-38AC-48C5-A021-039948DCA306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E79A6A3-F980-4525-BB59-66947BA5926D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Décomposition Cellule TOPCON" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>Paramètre</t>
   </si>
@@ -240,12 +240,21 @@
   <si>
     <t>Gérer les formalités douanières et payer les taxes et droits d’importation.</t>
   </si>
+  <si>
+    <t>0,15 et 0,18</t>
+  </si>
+  <si>
+    <t>coût de production</t>
+  </si>
+  <si>
+    <t>prix du module</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +339,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF073965"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -566,7 +581,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -624,6 +639,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -640,29 +664,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -692,7 +696,24 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1825,16 +1846,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>235323</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>522636</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>65272</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1845,14 +1866,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="2121" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7989794" y="3843618"/>
-          <a:ext cx="1049313" cy="1376360"/>
+        <a:xfrm flipV="1">
+          <a:off x="9289676" y="3529853"/>
+          <a:ext cx="750795" cy="11206"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3698,136 +3717,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>697890</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>65272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2121" name="ZoneTexte 2120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF10E5D4-90B9-4C01-B806-AB2926A3C3CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8452361" y="5219978"/>
-          <a:ext cx="1173492" cy="528639"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Spread</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>522636</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1221441</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>65272</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2123" name="Connecteur droit avec flèche 2122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78130D85-72CF-4451-9E8B-FCE173978F04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2121" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9039107" y="3854824"/>
-          <a:ext cx="2222805" cy="1365154"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -4080,6 +3969,388 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>231466</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>79680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6090071-485D-44C0-88D2-A58F812C7C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="231466" y="12193239"/>
+          <a:ext cx="5539564" cy="951260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://www.statistiques.developpement-durable.gouv.fr/publicationweb/649?type=versionimprimable</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>633493</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B246C32-17BE-0734-F1AD-C718CEF988E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6107206" y="13346204"/>
+          <a:ext cx="6572611" cy="4123766"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619190</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>52786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589430</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>51546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="ZoneTexte 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBAB760-EFB1-4BA0-82B5-FD5DF2F8D7E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334190" y="12166345"/>
+          <a:ext cx="5539564" cy="951260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>https://www.drewry.co.uk/supply-chain-advisors/supply-chain-expertise/world-container-index-assessed-by-drewry</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>95714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{221A21A2-E6C1-AC5E-2E31-C57B00FF8584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="13447058"/>
+          <a:ext cx="5927912" cy="3334215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>334383</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F96005-0D26-907E-B3E2-5B5D40534C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="1238250"/>
+          <a:ext cx="7220958" cy="1676634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C23C3F-DB0F-0013-9FE4-69A232B799F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="2914650"/>
+          <a:ext cx="3705225" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Un </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" b="1"/>
+            <a:t>module solaire TOPCon de 182 mm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t> contient généralement </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" b="1"/>
+            <a:t>54, 60, 72 ou 78 cellules</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t> en fonction du modèle. Les configurations les plus courantes en Europe sont </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" b="1"/>
+            <a:t>108 demi-cellules (54 cellules pleines), 120 demi-cellules (60 cellules pleines) et 144 demi-cellules (72 cellules pleines)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4392,56 +4663,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
       <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
       <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
       <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4724,71 +4995,71 @@
       <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
       <c r="O34" s="18"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
       <c r="O35" s="18"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
       <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
       <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -5212,12 +5483,12 @@
       <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
       <c r="F71" s="17"/>
       <c r="O71" s="18"/>
     </row>
@@ -5238,57 +5509,57 @@
       <c r="O76" s="18"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36" t="s">
+      <c r="A77" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="41"/>
+      <c r="O77" s="41"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="41"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="36"/>
-      <c r="J79" s="36"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="36"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="41"/>
+      <c r="O79" s="41"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F80" s="15" t="s">
@@ -5517,10 +5788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E917B3B-4BCF-4647-AB61-1058E32AFD0A}">
-  <dimension ref="A1:AC61"/>
+  <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21:W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5533,68 +5804,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="39" t="s">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
@@ -5760,11 +6031,11 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
@@ -5820,7 +6091,7 @@
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="38" t="s">
         <v>63</v>
       </c>
       <c r="F10" s="32"/>
@@ -5925,10 +6196,10 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="40" t="s">
+      <c r="O13" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="40"/>
+      <c r="P13" s="58"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -5979,7 +6250,7 @@
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="37" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="32"/>
@@ -6012,7 +6283,7 @@
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="37" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="32"/>
@@ -6045,21 +6316,21 @@
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="37" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
       <c r="J17" s="32"/>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="52"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
       <c r="N17" s="33"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
@@ -6084,13 +6355,13 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="55"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="52"/>
       <c r="N18" s="33"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -6115,13 +6386,13 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="58"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="55"/>
       <c r="N19" s="33"/>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
@@ -6141,12 +6412,12 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="32"/>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="36" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="32"/>
@@ -6163,10 +6434,14 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
+      <c r="T20" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="U20" s="60"/>
+      <c r="V20" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="W20" s="60"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
@@ -6174,7 +6449,7 @@
       <c r="AB20" s="32"/>
       <c r="AC20" s="32"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
@@ -6196,10 +6471,12 @@
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
+      <c r="T21" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="U21" s="61"/>
+      <c r="V21" s="60"/>
+      <c r="W21" s="60"/>
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
@@ -6222,10 +6499,10 @@
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="40" t="s">
+      <c r="O22" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="40"/>
+      <c r="P22" s="58"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -6338,7 +6615,7 @@
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="36" t="s">
         <v>53</v>
       </c>
       <c r="F26" s="32"/>
@@ -6750,10 +7027,10 @@
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
       <c r="K39" s="32"/>
-      <c r="L39" s="59" t="s">
+      <c r="L39" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="M39" s="59"/>
+      <c r="M39" s="39"/>
       <c r="N39" s="32"/>
       <c r="O39" s="32"/>
       <c r="P39" s="32"/>
@@ -6773,9 +7050,9 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -6804,10 +7081,10 @@
     </row>
     <row r="41" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="41"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
@@ -7452,16 +7729,51 @@
       <c r="AB61" s="32"/>
       <c r="AC61" s="32"/>
     </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+      <c r="T62" s="32"/>
+      <c r="U62" s="32"/>
+      <c r="V62" s="32"/>
+      <c r="W62" s="32"/>
+      <c r="X62" s="32"/>
+      <c r="Y62" s="32"/>
+      <c r="Z62" s="32"/>
+      <c r="AA62" s="32"/>
+      <c r="AB62" s="32"/>
+      <c r="AC62" s="32"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B40:D41"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
     <mergeCell ref="G1:J2"/>
     <mergeCell ref="G17:I19"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="K17:M19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B40:D41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="https://www.metal.com/Solar/202112230003" xr:uid="{243A1FFF-81ED-444D-9597-55B71892D5AF}"/>
@@ -7483,10 +7795,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22EF4E4-4639-4D25-A7E0-36B40C5D2D97}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E79A6A3-F980-4525-BB59-66947BA5926D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD07ADC2-D17D-48AE-A1A5-7F27988CD929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Décomposition Cellule TOPCON" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>Paramètre</t>
   </si>
@@ -249,12 +249,36 @@
   <si>
     <t>prix du module</t>
   </si>
+  <si>
+    <t>Silver Paste sur la face arrière</t>
+  </si>
+  <si>
+    <t>Silver Paste sur les busbars avant</t>
+  </si>
+  <si>
+    <t>Silver Paste sur les fingers avant</t>
+  </si>
+  <si>
+    <t>%/cellule</t>
+  </si>
+  <si>
+    <t>prix(cny/kg)</t>
+  </si>
+  <si>
+    <t>prix(mg/cellule)</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>ARGENT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +370,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +461,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +625,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -660,6 +704,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,18 +758,15 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -850,7 +903,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="418708" y="15620594"/>
-          <a:ext cx="23232521" cy="6599796"/>
+          <a:ext cx="23691132" cy="6599796"/>
           <a:chOff x="961104" y="19294577"/>
           <a:chExt cx="22069381" cy="6733796"/>
         </a:xfrm>
@@ -4645,8 +4698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4660,6 +4713,9 @@
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4738,7 +4794,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="10">
-        <v>0.28999999999999998</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -4865,7 +4921,7 @@
       </c>
       <c r="B15" s="22">
         <f>B6*B7</f>
-        <v>2.3460999999999999</v>
+        <v>2.4108199999999997</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -4891,7 +4947,7 @@
       </c>
       <c r="B17" s="8">
         <f>B15/(B14/1000)</f>
-        <v>0.23025424593016972</v>
+        <v>0.23660608719720888</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -5161,7 +5217,7 @@
         <v>33</v>
       </c>
       <c r="G43" s="28">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="H43" s="24"/>
       <c r="O43" s="18"/>
@@ -5260,8 +5316,8 @@
         <v>35</v>
       </c>
       <c r="G47" s="28">
-        <f>7.943*(E47/1000)</f>
-        <v>0.64258870000000001</v>
+        <f>N65</f>
+        <v>0.70279043500000005</v>
       </c>
       <c r="O47" s="18"/>
     </row>
@@ -5322,7 +5378,7 @@
       </c>
       <c r="G50" s="23">
         <f>SUM(G41:G49)</f>
-        <v>1.8225886999999998</v>
+        <v>1.892790435</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>43</v>
@@ -5331,8 +5387,8 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G51" s="23">
-        <f>0.293*B7</f>
-        <v>2.3703699999999999</v>
+        <f>0.298*B7</f>
+        <v>2.4108199999999997</v>
       </c>
       <c r="H51" s="20" t="s">
         <v>44</v>
@@ -5367,19 +5423,31 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I56" s="30">
         <f>G43/G51</f>
-        <v>0.4978125777832153</v>
+        <v>0.49360798400544215</v>
       </c>
       <c r="J56" s="30">
         <f>G47/G51</f>
-        <v>0.27109215017064847</v>
+        <v>0.291515100671141</v>
       </c>
       <c r="K56" s="31">
         <f>100% - SUM(I56,J56)</f>
-        <v>0.23109527204613622</v>
+        <v>0.21487691532341691</v>
       </c>
       <c r="O56" s="18"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I57" s="21">
+        <f>I56*$G$51</f>
+        <v>1.19</v>
+      </c>
+      <c r="J57" s="21">
+        <f t="shared" ref="J57:K57" si="1">J56*$G$51</f>
+        <v>0.70279043500000005</v>
+      </c>
+      <c r="K57" s="21">
+        <f t="shared" si="1"/>
+        <v>0.51802956499999986</v>
+      </c>
       <c r="O57" s="18"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -5395,6 +5463,13 @@
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
       <c r="O60" s="18"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -5404,6 +5479,16 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
+      <c r="H61" s="62"/>
+      <c r="L61" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="O61" s="18"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -5413,6 +5498,22 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="J62" s="63"/>
+      <c r="K62" s="63"/>
+      <c r="L62" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="M62" s="64">
+        <v>5335</v>
+      </c>
+      <c r="N62" s="12">
+        <f>L62*$E$47*M62/1000000</f>
+        <v>8.6320300000000016E-2</v>
+      </c>
       <c r="O62" s="18"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -5422,6 +5523,22 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="66">
+        <v>0.65</v>
+      </c>
+      <c r="M63" s="64">
+        <v>8037</v>
+      </c>
+      <c r="N63" s="12">
+        <f>L63*$E$47*M63/1000000</f>
+        <v>0.42262564500000005</v>
+      </c>
       <c r="O63" s="18"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -5431,6 +5548,22 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="66">
+        <v>0.3</v>
+      </c>
+      <c r="M64" s="64">
+        <v>7987</v>
+      </c>
+      <c r="N64" s="12">
+        <f>L64*$E$47*M64/1000000</f>
+        <v>0.19384448999999998</v>
+      </c>
       <c r="O64" s="18"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -5440,6 +5573,14 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
+      <c r="H65" s="62"/>
+      <c r="M65" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N65" s="21">
+        <f>SUM(N62:N64)</f>
+        <v>0.70279043500000005</v>
+      </c>
       <c r="O65" s="18"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -5449,6 +5590,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
+      <c r="H66" s="62"/>
       <c r="O66" s="18"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -5458,6 +5600,7 @@
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
+      <c r="H67" s="62"/>
       <c r="O67" s="18"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -5467,6 +5610,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
+      <c r="H68" s="62"/>
+      <c r="J68" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
       <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -5476,10 +5626,20 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
+      <c r="H69" s="62"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
+      <c r="M69" s="65"/>
       <c r="O69" s="18"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F70" s="16"/>
+      <c r="H70" s="62"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+      <c r="M70" s="65"/>
       <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -5490,22 +5650,34 @@
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="F71" s="17"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="62"/>
       <c r="O71" s="18"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F72" s="16"/>
+      <c r="H72" s="15"/>
       <c r="O72" s="18"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H73" s="15"/>
       <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H74" s="15"/>
       <c r="O74" s="18"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H75" s="15"/>
       <c r="O75" s="18"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H76" s="15"/>
       <c r="O76" s="18"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5775,11 +5947,15 @@
       <c r="O148" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="B71:E71"/>
     <mergeCell ref="A77:O79"/>
     <mergeCell ref="A1:N3"/>
     <mergeCell ref="A34:N37"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="J68:M70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5810,12 +5986,12 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -5843,10 +6019,10 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -6031,11 +6207,11 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
@@ -6196,10 +6372,10 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="58" t="s">
+      <c r="O13" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="58"/>
+      <c r="P13" s="45"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -6320,17 +6496,17 @@
         <v>56</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
       <c r="J17" s="32"/>
-      <c r="K17" s="47" t="s">
+      <c r="K17" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="53"/>
       <c r="N17" s="33"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
@@ -6355,13 +6531,13 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="52"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
       <c r="N18" s="33"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -6386,13 +6562,13 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="55"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59"/>
       <c r="N19" s="33"/>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
@@ -6412,10 +6588,10 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="57"/>
+      <c r="C20" s="61"/>
       <c r="D20" s="32"/>
       <c r="E20" s="36" t="s">
         <v>57</v>
@@ -6434,14 +6610,14 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="60" t="s">
+      <c r="T20" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60" t="s">
+      <c r="U20" s="44"/>
+      <c r="V20" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="W20" s="60"/>
+      <c r="W20" s="44"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
@@ -6471,12 +6647,12 @@
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="61" t="s">
+      <c r="T21" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="U21" s="61"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
@@ -6499,10 +6675,10 @@
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="58" t="s">
+      <c r="O22" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="58"/>
+      <c r="P22" s="45"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -7050,9 +7226,9 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -7081,9 +7257,9 @@
     </row>
     <row r="41" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="35"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -7762,6 +7938,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="G17:I19"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="O13:P13"/>
@@ -7769,11 +7950,6 @@
     <mergeCell ref="B40:D41"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="T21:U21"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="G17:I19"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="https://www.metal.com/Solar/202112230003" xr:uid="{243A1FFF-81ED-444D-9597-55B71892D5AF}"/>
@@ -7795,7 +7971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22EF4E4-4639-4D25-A7E0-36B40C5D2D97}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD07ADC2-D17D-48AE-A1A5-7F27988CD929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE138C6E-40EF-48E3-9891-ADAAE7658208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>Paramètre</t>
   </si>
@@ -272,6 +272,78 @@
   </si>
   <si>
     <t>ARGENT</t>
+  </si>
+  <si>
+    <t>prix argent USD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">finger FS = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.149927 × Arg + 3.043445</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">busbar FS = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.149927 × Arg + 2.993445</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Rear Side = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.100028 × Arg + 2.003465</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -625,7 +697,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -692,6 +764,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,16 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -758,15 +824,24 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -4698,8 +4773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4719,56 +4794,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
       <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
       <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5051,71 +5126,71 @@
       <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
       <c r="O34" s="18"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
       <c r="O35" s="18"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
       <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
       <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -5463,13 +5538,13 @@
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="62"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="J60" s="40"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="40"/>
+      <c r="N60" s="40"/>
       <c r="O60" s="18"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -5479,7 +5554,7 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
-      <c r="H61" s="62"/>
+      <c r="H61" s="40"/>
       <c r="L61" s="12" t="s">
         <v>74</v>
       </c>
@@ -5498,16 +5573,16 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
-      <c r="H62" s="62"/>
-      <c r="I62" s="63" t="s">
+      <c r="H62" s="40"/>
+      <c r="I62" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="66">
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="42">
         <v>0.2</v>
       </c>
-      <c r="M62" s="64">
+      <c r="M62" s="41">
         <v>5335</v>
       </c>
       <c r="N62" s="12">
@@ -5523,16 +5598,16 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="63" t="s">
+      <c r="H63" s="40"/>
+      <c r="I63" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="66">
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="42">
         <v>0.65</v>
       </c>
-      <c r="M63" s="64">
+      <c r="M63" s="41">
         <v>8037</v>
       </c>
       <c r="N63" s="12">
@@ -5548,16 +5623,16 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="63" t="s">
+      <c r="H64" s="40"/>
+      <c r="I64" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="66">
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="42">
         <v>0.3</v>
       </c>
-      <c r="M64" s="64">
+      <c r="M64" s="41">
         <v>7987</v>
       </c>
       <c r="N64" s="12">
@@ -5573,7 +5648,7 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
-      <c r="H65" s="62"/>
+      <c r="H65" s="40"/>
       <c r="M65" s="21" t="s">
         <v>77</v>
       </c>
@@ -5590,7 +5665,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
-      <c r="H66" s="62"/>
+      <c r="H66" s="40"/>
       <c r="O66" s="18"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -5600,7 +5675,7 @@
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
-      <c r="H67" s="62"/>
+      <c r="H67" s="40"/>
       <c r="O67" s="18"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -5610,13 +5685,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
-      <c r="H68" s="62"/>
-      <c r="J68" s="65" t="s">
+      <c r="H68" s="40"/>
+      <c r="J68" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
       <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -5626,37 +5701,37 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
-      <c r="H69" s="62"/>
-      <c r="J69" s="65"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="65"/>
-      <c r="M69" s="65"/>
+      <c r="H69" s="40"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
       <c r="O69" s="18"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F70" s="16"/>
-      <c r="H70" s="62"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="65"/>
+      <c r="H70" s="40"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="67"/>
       <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
       <c r="F71" s="17"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="62"/>
-      <c r="N71" s="62"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="40"/>
+      <c r="N71" s="40"/>
       <c r="O71" s="18"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -5665,15 +5740,32 @@
       <c r="O72" s="18"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H73" s="15"/>
+      <c r="H73" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I73" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
       <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H74" s="15"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
       <c r="O74" s="18"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H75" s="15"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
       <c r="O75" s="18"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -5681,57 +5773,57 @@
       <c r="O76" s="18"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="41"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="41"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
-      <c r="O78" s="41"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="41"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="41"/>
-      <c r="O79" s="41"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F80" s="15" t="s">
@@ -5947,7 +6039,7 @@
       <c r="O148" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
     <mergeCell ref="B71:E71"/>
     <mergeCell ref="A77:O79"/>
     <mergeCell ref="A1:N3"/>
@@ -5956,6 +6048,10 @@
     <mergeCell ref="I63:K63"/>
     <mergeCell ref="I64:K64"/>
     <mergeCell ref="J68:M70"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="H73:H75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6372,10 +6468,10 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="45"/>
+      <c r="P13" s="63"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -6610,14 +6706,14 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="44" t="s">
+      <c r="T20" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44" t="s">
+      <c r="U20" s="62"/>
+      <c r="V20" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="W20" s="44"/>
+      <c r="W20" s="62"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
@@ -6647,12 +6743,12 @@
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="47" t="s">
+      <c r="T21" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="U21" s="47"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
@@ -6675,10 +6771,10 @@
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="45" t="s">
+      <c r="O22" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="45"/>
+      <c r="P22" s="63"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -7226,9 +7322,9 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -7257,9 +7353,9 @@
     </row>
     <row r="41" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
       <c r="E41" s="35"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -7938,11 +8034,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="G17:I19"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="O13:P13"/>
@@ -7950,6 +8041,11 @@
     <mergeCell ref="B40:D41"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="T21:U21"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="G17:I19"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="https://www.metal.com/Solar/202112230003" xr:uid="{243A1FFF-81ED-444D-9597-55B71892D5AF}"/>

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE138C6E-40EF-48E3-9891-ADAAE7658208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51030E1F-2130-48B1-97C9-0EA6644496A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Décomposition Cellule TOPCON" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>Paramètre</t>
   </si>
@@ -345,12 +345,39 @@
       <t>0.100028 × Arg + 2.003465</t>
     </r>
   </si>
+  <si>
+    <t>Etude Module TOPCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module </t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Puissance max</t>
+  </si>
+  <si>
+    <t>% Cell</t>
+  </si>
+  <si>
+    <t>% Autres</t>
+  </si>
+  <si>
+    <t>Prix unitaire (CNY)</t>
+  </si>
+  <si>
+    <t>Prix (CNY/W)</t>
+  </si>
+  <si>
+    <t>SPREAD (CNY)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +477,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,6 +580,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +738,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -782,6 +823,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,23 +883,14 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4481,6 +4531,112 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connecteur droit avec flèche 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE790F0-54CF-5052-2963-D7AB96CF14B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10629900" y="2981325"/>
+          <a:ext cx="1181100" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connecteur droit avec flèche 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1AA65C-0320-437C-A6CB-188AA309C91C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13896975" y="2667000"/>
+          <a:ext cx="828675" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4773,7 +4929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
@@ -5686,12 +5842,12 @@
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="H68" s="40"/>
-      <c r="J68" s="67" t="s">
+      <c r="J68" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="67"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
       <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -5702,19 +5858,19 @@
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="H69" s="40"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="67"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
       <c r="O69" s="18"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F70" s="16"/>
       <c r="H70" s="40"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="67"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
       <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -5740,7 +5896,7 @@
       <c r="O72" s="18"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H73" s="66" t="s">
+      <c r="H73" s="49" t="s">
         <v>79</v>
       </c>
       <c r="I73" s="47" t="s">
@@ -5751,7 +5907,7 @@
       <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H74" s="66"/>
+      <c r="H74" s="49"/>
       <c r="I74" s="47" t="s">
         <v>81</v>
       </c>
@@ -5760,7 +5916,7 @@
       <c r="O74" s="18"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H75" s="66"/>
+      <c r="H75" s="49"/>
       <c r="I75" s="47" t="s">
         <v>82</v>
       </c>
@@ -6062,8 +6218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E917B3B-4BCF-4647-AB61-1058E32AFD0A}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21:W21"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6082,12 +6238,12 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -6115,10 +6271,10 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -6303,11 +6459,11 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
@@ -6468,10 +6624,10 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="63" t="s">
+      <c r="O13" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="63"/>
+      <c r="P13" s="51"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -6592,17 +6748,17 @@
         <v>56</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
       <c r="J17" s="32"/>
-      <c r="K17" s="51" t="s">
+      <c r="K17" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="52"/>
-      <c r="M17" s="53"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="33"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
@@ -6627,13 +6783,13 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
       <c r="N18" s="33"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -6658,13 +6814,13 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
       <c r="N19" s="33"/>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
@@ -6684,10 +6840,10 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="32"/>
       <c r="E20" s="36" t="s">
         <v>57</v>
@@ -6706,14 +6862,14 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="62" t="s">
+      <c r="T20" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62" t="s">
+      <c r="U20" s="50"/>
+      <c r="V20" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="W20" s="62"/>
+      <c r="W20" s="50"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
@@ -6743,12 +6899,12 @@
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="65" t="s">
+      <c r="T21" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="U21" s="65"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
@@ -6771,10 +6927,10 @@
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="63" t="s">
+      <c r="O22" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="63"/>
+      <c r="P22" s="51"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -7322,9 +7478,9 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -7353,9 +7509,9 @@
     </row>
     <row r="41" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="35"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -8034,6 +8190,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="G17:I19"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="O13:P13"/>
@@ -8041,11 +8202,6 @@
     <mergeCell ref="B40:D41"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="T21:U21"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="G17:I19"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="https://www.metal.com/Solar/202112230003" xr:uid="{243A1FFF-81ED-444D-9597-55B71892D5AF}"/>
@@ -8065,14 +8221,161 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22EF4E4-4639-4D25-A7E0-36B40C5D2D97}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S12" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M13" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="S13" s="72">
+        <f>O14-(O15*54)</f>
+        <v>188.72352000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L14" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="N14" s="12">
+        <f>N15*54</f>
+        <v>436.86</v>
+      </c>
+      <c r="O14" s="12">
+        <f>M14*N14</f>
+        <v>318.90780000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L15" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="N15" s="12">
+        <v>8.09</v>
+      </c>
+      <c r="O15" s="12">
+        <f>M15*N15</f>
+        <v>2.4108199999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f>M14-M15</f>
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="20" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="70" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="13:17" x14ac:dyDescent="0.25">
+      <c r="O21" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="P21" s="71">
+        <f>(O15*54)/O14</f>
+        <v>0.40821917808219166</v>
+      </c>
+      <c r="Q21" s="71">
+        <f>(1-P21)</f>
+        <v>0.59178082191780834</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51030E1F-2130-48B1-97C9-0EA6644496A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FCAF97-7939-4D10-A031-931DB3D33D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Décomposition Cellule TOPCON" sheetId="1" r:id="rId1"/>
@@ -808,6 +808,12 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,18 +834,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -883,14 +877,20 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4950,56 +4950,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
       <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
       <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
       <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5282,71 +5282,71 @@
       <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
       <c r="O34" s="18"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
       <c r="O35" s="18"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
       <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -5730,11 +5730,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="H62" s="40"/>
-      <c r="I62" s="47" t="s">
+      <c r="I62" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
       <c r="L62" s="42">
         <v>0.2</v>
       </c>
@@ -5755,11 +5755,11 @@
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="H63" s="40"/>
-      <c r="I63" s="47" t="s">
+      <c r="I63" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
       <c r="L63" s="42">
         <v>0.65</v>
       </c>
@@ -5780,11 +5780,11 @@
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="H64" s="40"/>
-      <c r="I64" s="47" t="s">
+      <c r="I64" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
       <c r="L64" s="42">
         <v>0.3</v>
       </c>
@@ -5842,12 +5842,12 @@
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="H68" s="40"/>
-      <c r="J68" s="48" t="s">
+      <c r="J68" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
       <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -5858,28 +5858,28 @@
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="H69" s="40"/>
-      <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
       <c r="O69" s="18"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F70" s="16"/>
       <c r="H70" s="40"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
       <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="43" t="s">
+      <c r="B71" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
       <c r="F71" s="17"/>
       <c r="H71" s="40"/>
       <c r="I71" s="40"/>
@@ -5896,32 +5896,32 @@
       <c r="O72" s="18"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H73" s="49" t="s">
+      <c r="H73" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="I73" s="47" t="s">
+      <c r="I73" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="J73" s="47"/>
-      <c r="K73" s="47"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
       <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H74" s="49"/>
-      <c r="I74" s="47" t="s">
+      <c r="H74" s="53"/>
+      <c r="I74" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
       <c r="O74" s="18"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H75" s="49"/>
-      <c r="I75" s="47" t="s">
+      <c r="H75" s="53"/>
+      <c r="I75" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
       <c r="O75" s="18"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -5929,57 +5929,57 @@
       <c r="O76" s="18"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="44"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="44"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="48"/>
+      <c r="J77" s="48"/>
+      <c r="K77" s="48"/>
+      <c r="L77" s="48"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="48"/>
+      <c r="O77" s="48"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="44"/>
-      <c r="M78" s="44"/>
-      <c r="N78" s="44"/>
-      <c r="O78" s="44"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
+      <c r="I78" s="48"/>
+      <c r="J78" s="48"/>
+      <c r="K78" s="48"/>
+      <c r="L78" s="48"/>
+      <c r="M78" s="48"/>
+      <c r="N78" s="48"/>
+      <c r="O78" s="48"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
-      <c r="I79" s="44"/>
-      <c r="J79" s="44"/>
-      <c r="K79" s="44"/>
-      <c r="L79" s="44"/>
-      <c r="M79" s="44"/>
-      <c r="N79" s="44"/>
-      <c r="O79" s="44"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="48"/>
+      <c r="J79" s="48"/>
+      <c r="K79" s="48"/>
+      <c r="L79" s="48"/>
+      <c r="M79" s="48"/>
+      <c r="N79" s="48"/>
+      <c r="O79" s="48"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F80" s="15" t="s">
@@ -6218,8 +6218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E917B3B-4BCF-4647-AB61-1058E32AFD0A}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6624,10 +6624,10 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="51" t="s">
+      <c r="O13" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="51"/>
+      <c r="P13" s="69"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -6862,14 +6862,14 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="50" t="s">
+      <c r="T20" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50" t="s">
+      <c r="U20" s="68"/>
+      <c r="V20" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="W20" s="50"/>
+      <c r="W20" s="68"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
@@ -6899,12 +6899,12 @@
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="53" t="s">
+      <c r="T21" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="U21" s="53"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
@@ -6927,10 +6927,10 @@
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="51" t="s">
+      <c r="O22" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="51"/>
+      <c r="P22" s="69"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -7478,9 +7478,9 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -7509,9 +7509,9 @@
     </row>
     <row r="41" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
       <c r="E41" s="35"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -8190,11 +8190,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="G17:I19"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="O13:P13"/>
@@ -8202,6 +8197,11 @@
     <mergeCell ref="B40:D41"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="T21:U21"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="G17:I19"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="https://www.metal.com/Solar/202112230003" xr:uid="{243A1FFF-81ED-444D-9597-55B71892D5AF}"/>
@@ -8223,7 +8223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22EF4E4-4639-4D25-A7E0-36B40C5D2D97}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -8236,86 +8236,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S12" s="72" t="s">
+      <c r="S12" s="46" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M13" s="69" t="s">
+      <c r="M13" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N13" s="70" t="s">
+      <c r="N13" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="O13" s="70" t="s">
+      <c r="O13" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="S13" s="72">
+      <c r="S13" s="46">
         <f>O14-(O15*54)</f>
         <v>188.72352000000004</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L14" s="70" t="s">
+      <c r="L14" s="44" t="s">
         <v>84</v>
       </c>
       <c r="M14" s="12">
@@ -8331,7 +8331,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L15" s="70" t="s">
+      <c r="L15" s="44" t="s">
         <v>85</v>
       </c>
       <c r="M15" s="12">
@@ -8352,22 +8352,22 @@
       </c>
     </row>
     <row r="20" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="P20" s="70" t="s">
+      <c r="P20" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="Q20" s="70" t="s">
+      <c r="Q20" s="44" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="13:17" x14ac:dyDescent="0.25">
-      <c r="O21" s="70" t="s">
+      <c r="O21" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="P21" s="71">
+      <c r="P21" s="45">
         <f>(O15*54)/O14</f>
         <v>0.40821917808219166</v>
       </c>
-      <c r="Q21" s="71">
+      <c r="Q21" s="45">
         <f>(1-P21)</f>
         <v>0.59178082191780834</v>
       </c>

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FCAF97-7939-4D10-A031-931DB3D33D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB504039-6306-4D53-83B8-AF45C9806D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Décomposition Cellule TOPCON" sheetId="1" r:id="rId1"/>
     <sheet name="Chaîne de valeur Solaire" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil1" sheetId="3" r:id="rId3"/>
+    <sheet name="Décomposition Module" sheetId="3" r:id="rId3"/>
+    <sheet name="Calcule Offset cell-estimated" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>Paramètre</t>
   </si>
@@ -372,12 +373,27 @@
   <si>
     <t>SPREAD (CNY)</t>
   </si>
+  <si>
+    <t>somme ARG</t>
+  </si>
+  <si>
+    <t>wafer_W</t>
+  </si>
+  <si>
+    <t>prix cellule(cny/W)</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>moyenne</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +500,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -738,7 +760,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -835,6 +857,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,21 +911,11 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -4929,7 +4953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="C43" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
@@ -6218,7 +6242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E917B3B-4BCF-4647-AB61-1058E32AFD0A}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -6238,12 +6262,12 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -6271,10 +6295,10 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -6459,11 +6483,11 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
@@ -6624,10 +6648,10 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="69" t="s">
+      <c r="O13" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="69"/>
+      <c r="P13" s="55"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -6748,17 +6772,17 @@
         <v>56</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
       <c r="J17" s="32"/>
-      <c r="K17" s="57" t="s">
+      <c r="K17" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
       <c r="N17" s="33"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
@@ -6783,13 +6807,13 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="66"/>
       <c r="N18" s="33"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -6814,13 +6838,13 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="69"/>
       <c r="N19" s="33"/>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
@@ -6840,10 +6864,10 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="32"/>
       <c r="E20" s="36" t="s">
         <v>57</v>
@@ -6862,14 +6886,14 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="68" t="s">
+      <c r="T20" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68" t="s">
+      <c r="U20" s="54"/>
+      <c r="V20" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="W20" s="68"/>
+      <c r="W20" s="54"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
@@ -6899,12 +6923,12 @@
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="71" t="s">
+      <c r="T21" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="U21" s="71"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
@@ -6927,10 +6951,10 @@
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="69" t="s">
+      <c r="O22" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="69"/>
+      <c r="P22" s="55"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -7478,9 +7502,9 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -7509,9 +7533,9 @@
     </row>
     <row r="41" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="35"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -8190,6 +8214,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="G17:I19"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="O13:P13"/>
@@ -8197,11 +8226,6 @@
     <mergeCell ref="B40:D41"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="T21:U21"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="G17:I19"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="https://www.metal.com/Solar/202112230003" xr:uid="{243A1FFF-81ED-444D-9597-55B71892D5AF}"/>
@@ -8224,7 +8248,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8379,4 +8403,286 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E947D54B-5760-45E9-BDC4-CE443C54D520}">
+  <dimension ref="A4:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="74">
+        <v>8.41615E-2</v>
+      </c>
+      <c r="B5" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C5" s="74">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D5" s="12">
+        <f>C5-(B5+A5)</f>
+        <v>5.8743320766377977E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="74">
+        <v>8.4421499999999997E-2</v>
+      </c>
+      <c r="B6" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C6" s="74">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D6" s="12">
+        <f>C6-(B6+A6)</f>
+        <v>5.8483320766377966E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="74">
+        <v>8.4681500000000007E-2</v>
+      </c>
+      <c r="B7" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C7" s="74">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D7" s="12">
+        <f>C7-(B7+A7)</f>
+        <v>6.1223320766377987E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="74">
+        <v>8.5830500000000004E-2</v>
+      </c>
+      <c r="B8" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C8" s="74">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D8" s="12">
+        <f>C8-(B8+A8)</f>
+        <v>6.2074320766377977E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="74">
+        <v>8.5526500000000005E-2</v>
+      </c>
+      <c r="B9" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C9" s="74">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D9" s="12">
+        <f>C9-(B9+A9)</f>
+        <v>6.2378320766377976E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="74">
+        <v>8.5526500000000005E-2</v>
+      </c>
+      <c r="B10" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C10" s="74">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D10" s="12">
+        <f>C10-(B10+A10)</f>
+        <v>6.2378320766377976E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="74">
+        <v>8.5526500000000005E-2</v>
+      </c>
+      <c r="B11" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C11" s="74">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D11" s="12">
+        <f>C11-(B11+A11)</f>
+        <v>6.2378320766377976E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="74">
+        <v>8.5698499999999997E-2</v>
+      </c>
+      <c r="B12" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C12" s="74">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D12" s="12">
+        <f>C12-(B12+A12)</f>
+        <v>6.2206320766377998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="74">
+        <v>8.4844000000000003E-2</v>
+      </c>
+      <c r="B13" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C13" s="74">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D13" s="12">
+        <f>C13-(B13+A13)</f>
+        <v>6.3060820766377979E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="74">
+        <v>8.5939500000000002E-2</v>
+      </c>
+      <c r="B14" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C14" s="74">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D14" s="12">
+        <f>C14-(B14+A14)</f>
+        <v>6.1965320766377979E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="74">
+        <v>8.6696499999999996E-2</v>
+      </c>
+      <c r="B15" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C15" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D15" s="12">
+        <f>C15-(B15+A15)</f>
+        <v>6.4208320766378002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="74">
+        <v>8.8646500000000003E-2</v>
+      </c>
+      <c r="B16" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C16" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D16" s="12">
+        <f>C16-(B16+A16)</f>
+        <v>6.2258320766377995E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="74">
+        <v>8.8646500000000003E-2</v>
+      </c>
+      <c r="B17" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C17" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D17" s="12">
+        <f>C17-(B17+A17)</f>
+        <v>6.2258320766377995E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="74">
+        <v>8.8646500000000003E-2</v>
+      </c>
+      <c r="B18" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C18" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D18" s="12">
+        <f>C18-(B18+A18)</f>
+        <v>6.2258320766377995E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="74">
+        <v>8.84075E-2</v>
+      </c>
+      <c r="B19" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C19" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D19" s="12">
+        <f>C19-(B19+A19)</f>
+        <v>6.2497320766377984E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="74">
+        <v>8.8569999999999996E-2</v>
+      </c>
+      <c r="B20" s="74">
+        <v>0.147095179233622</v>
+      </c>
+      <c r="C20" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D20" s="12">
+        <f>C20-(B20+A20)</f>
+        <v>6.2334820766377974E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="21">
+        <f>AVERAGE(D5:D20)</f>
+        <v>6.1919195766377992E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB504039-6306-4D53-83B8-AF45C9806D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ABF31B-3C4A-422B-8B26-C6DA4A672E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Décomposition Cellule TOPCON" sheetId="1" r:id="rId1"/>
@@ -836,6 +836,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,18 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -911,11 +901,21 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -4953,8 +4953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView topLeftCell="C43" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4974,56 +4974,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
       <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
       <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5306,71 +5306,71 @@
       <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
       <c r="O34" s="18"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
       <c r="O35" s="18"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
       <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -5754,11 +5754,11 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="H62" s="40"/>
-      <c r="I62" s="51" t="s">
+      <c r="I62" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
       <c r="L62" s="42">
         <v>0.2</v>
       </c>
@@ -5779,11 +5779,11 @@
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="H63" s="40"/>
-      <c r="I63" s="51" t="s">
+      <c r="I63" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
       <c r="L63" s="42">
         <v>0.65</v>
       </c>
@@ -5804,11 +5804,11 @@
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="H64" s="40"/>
-      <c r="I64" s="51" t="s">
+      <c r="I64" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
       <c r="L64" s="42">
         <v>0.3</v>
       </c>
@@ -5866,12 +5866,12 @@
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="H68" s="40"/>
-      <c r="J68" s="52" t="s">
+      <c r="J68" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
       <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -5882,28 +5882,28 @@
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="H69" s="40"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
       <c r="O69" s="18"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F70" s="16"/>
       <c r="H70" s="40"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
       <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
       <c r="F71" s="17"/>
       <c r="H71" s="40"/>
       <c r="I71" s="40"/>
@@ -5920,32 +5920,32 @@
       <c r="O72" s="18"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H73" s="53" t="s">
+      <c r="H73" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="I73" s="51" t="s">
+      <c r="I73" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
+      <c r="J73" s="53"/>
+      <c r="K73" s="53"/>
       <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H74" s="53"/>
-      <c r="I74" s="51" t="s">
+      <c r="H74" s="55"/>
+      <c r="I74" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="J74" s="51"/>
-      <c r="K74" s="51"/>
+      <c r="J74" s="53"/>
+      <c r="K74" s="53"/>
       <c r="O74" s="18"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H75" s="53"/>
-      <c r="I75" s="51" t="s">
+      <c r="H75" s="55"/>
+      <c r="I75" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="J75" s="51"/>
-      <c r="K75" s="51"/>
+      <c r="J75" s="53"/>
+      <c r="K75" s="53"/>
       <c r="O75" s="18"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -5953,57 +5953,57 @@
       <c r="O76" s="18"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="48"/>
-      <c r="I77" s="48"/>
-      <c r="J77" s="48"/>
-      <c r="K77" s="48"/>
-      <c r="L77" s="48"/>
-      <c r="M77" s="48"/>
-      <c r="N77" s="48"/>
-      <c r="O77" s="48"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="50"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="50"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="48"/>
-      <c r="I78" s="48"/>
-      <c r="J78" s="48"/>
-      <c r="K78" s="48"/>
-      <c r="L78" s="48"/>
-      <c r="M78" s="48"/>
-      <c r="N78" s="48"/>
-      <c r="O78" s="48"/>
+      <c r="A78" s="50"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="48"/>
-      <c r="I79" s="48"/>
-      <c r="J79" s="48"/>
-      <c r="K79" s="48"/>
-      <c r="L79" s="48"/>
-      <c r="M79" s="48"/>
-      <c r="N79" s="48"/>
-      <c r="O79" s="48"/>
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="50"/>
+      <c r="M79" s="50"/>
+      <c r="N79" s="50"/>
+      <c r="O79" s="50"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F80" s="15" t="s">
@@ -6262,12 +6262,12 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -6295,10 +6295,10 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -6483,11 +6483,11 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
-      <c r="I8" s="60" t="s">
+      <c r="I8" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
@@ -6648,10 +6648,10 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="55" t="s">
+      <c r="O13" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="55"/>
+      <c r="P13" s="71"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -6772,17 +6772,17 @@
         <v>56</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="32"/>
-      <c r="K17" s="61" t="s">
+      <c r="K17" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="33"/>
       <c r="O17" s="32"/>
       <c r="P17" s="32"/>
@@ -6807,13 +6807,13 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="66"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
       <c r="N18" s="33"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -6838,13 +6838,13 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="69"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="67"/>
       <c r="N19" s="33"/>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
@@ -6864,10 +6864,10 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="71"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="32"/>
       <c r="E20" s="36" t="s">
         <v>57</v>
@@ -6886,14 +6886,14 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="54" t="s">
+      <c r="T20" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54" t="s">
+      <c r="U20" s="70"/>
+      <c r="V20" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="W20" s="54"/>
+      <c r="W20" s="70"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
@@ -6923,12 +6923,12 @@
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="57" t="s">
+      <c r="T21" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="U21" s="57"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
@@ -6951,10 +6951,10 @@
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="55" t="s">
+      <c r="O22" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="55"/>
+      <c r="P22" s="71"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -7502,9 +7502,9 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -7533,9 +7533,9 @@
     </row>
     <row r="41" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="35"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -8214,11 +8214,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="G17:I19"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="O13:P13"/>
@@ -8226,6 +8221,11 @@
     <mergeCell ref="B40:D41"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="T21:U21"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="G17:I19"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="https://www.metal.com/Solar/202112230003" xr:uid="{243A1FFF-81ED-444D-9597-55B71892D5AF}"/>
@@ -8260,63 +8260,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S12" s="46" t="s">
@@ -8409,8 +8409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E947D54B-5760-45E9-BDC4-CE443C54D520}">
   <dimension ref="A4:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8419,256 +8419,256 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="47" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="74">
+      <c r="A5" s="48">
         <v>8.41615E-2</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="48">
         <v>0.28999999999999998</v>
       </c>
       <c r="D5" s="12">
-        <f>C5-(B5+A5)</f>
+        <f t="shared" ref="D5:D20" si="0">C5-(B5+A5)</f>
         <v>5.8743320766377977E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="74">
+      <c r="A6" s="48">
         <v>8.4421499999999997E-2</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="48">
         <v>0.28999999999999998</v>
       </c>
       <c r="D6" s="12">
-        <f>C6-(B6+A6)</f>
+        <f t="shared" si="0"/>
         <v>5.8483320766377966E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="74">
+      <c r="A7" s="48">
         <v>8.4681500000000007E-2</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="48">
         <v>0.29299999999999998</v>
       </c>
       <c r="D7" s="12">
-        <f>C7-(B7+A7)</f>
+        <f t="shared" si="0"/>
         <v>6.1223320766377987E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="74">
+      <c r="A8" s="48">
         <v>8.5830500000000004E-2</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="48">
         <v>0.29499999999999998</v>
       </c>
       <c r="D8" s="12">
-        <f>C8-(B8+A8)</f>
+        <f t="shared" si="0"/>
         <v>6.2074320766377977E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="74">
+      <c r="A9" s="48">
         <v>8.5526500000000005E-2</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C9" s="48">
         <v>0.29499999999999998</v>
       </c>
       <c r="D9" s="12">
-        <f>C9-(B9+A9)</f>
+        <f t="shared" si="0"/>
         <v>6.2378320766377976E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="74">
+      <c r="A10" s="48">
         <v>8.5526500000000005E-2</v>
       </c>
-      <c r="B10" s="74">
+      <c r="B10" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="48">
         <v>0.29499999999999998</v>
       </c>
       <c r="D10" s="12">
-        <f>C10-(B10+A10)</f>
+        <f t="shared" si="0"/>
         <v>6.2378320766377976E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="74">
+      <c r="A11" s="48">
         <v>8.5526500000000005E-2</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="48">
         <v>0.29499999999999998</v>
       </c>
       <c r="D11" s="12">
-        <f>C11-(B11+A11)</f>
+        <f t="shared" si="0"/>
         <v>6.2378320766377976E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="74">
+      <c r="A12" s="48">
         <v>8.5698499999999997E-2</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="48">
         <v>0.29499999999999998</v>
       </c>
       <c r="D12" s="12">
-        <f>C12-(B12+A12)</f>
+        <f t="shared" si="0"/>
         <v>6.2206320766377998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="74">
+      <c r="A13" s="48">
         <v>8.4844000000000003E-2</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B13" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="48">
         <v>0.29499999999999998</v>
       </c>
       <c r="D13" s="12">
-        <f>C13-(B13+A13)</f>
+        <f t="shared" si="0"/>
         <v>6.3060820766377979E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="74">
+      <c r="A14" s="48">
         <v>8.5939500000000002E-2</v>
       </c>
-      <c r="B14" s="74">
+      <c r="B14" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="48">
         <v>0.29499999999999998</v>
       </c>
       <c r="D14" s="12">
-        <f>C14-(B14+A14)</f>
+        <f t="shared" si="0"/>
         <v>6.1965320766377979E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="74">
+      <c r="A15" s="48">
         <v>8.6696499999999996E-2</v>
       </c>
-      <c r="B15" s="74">
+      <c r="B15" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="48">
         <v>0.29799999999999999</v>
       </c>
       <c r="D15" s="12">
-        <f>C15-(B15+A15)</f>
+        <f t="shared" si="0"/>
         <v>6.4208320766378002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="74">
+      <c r="A16" s="48">
         <v>8.8646500000000003E-2</v>
       </c>
-      <c r="B16" s="74">
+      <c r="B16" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="48">
         <v>0.29799999999999999</v>
       </c>
       <c r="D16" s="12">
-        <f>C16-(B16+A16)</f>
+        <f t="shared" si="0"/>
         <v>6.2258320766377995E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="74">
+      <c r="A17" s="48">
         <v>8.8646500000000003E-2</v>
       </c>
-      <c r="B17" s="74">
+      <c r="B17" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="48">
         <v>0.29799999999999999</v>
       </c>
       <c r="D17" s="12">
-        <f>C17-(B17+A17)</f>
+        <f t="shared" si="0"/>
         <v>6.2258320766377995E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="74">
+      <c r="A18" s="48">
         <v>8.8646500000000003E-2</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="48">
         <v>0.29799999999999999</v>
       </c>
       <c r="D18" s="12">
-        <f>C18-(B18+A18)</f>
+        <f t="shared" si="0"/>
         <v>6.2258320766377995E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="74">
+      <c r="A19" s="48">
         <v>8.84075E-2</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="48">
         <v>0.29799999999999999</v>
       </c>
       <c r="D19" s="12">
-        <f>C19-(B19+A19)</f>
+        <f t="shared" si="0"/>
         <v>6.2497320766377984E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="74">
+      <c r="A20" s="48">
         <v>8.8569999999999996E-2</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="48">
         <v>0.147095179233622</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="48">
         <v>0.29799999999999999</v>
       </c>
       <c r="D20" s="12">
-        <f>C20-(B20+A20)</f>
+        <f t="shared" si="0"/>
         <v>6.2334820766377974E-2</v>
       </c>
     </row>

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ABF31B-3C4A-422B-8B26-C6DA4A672E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B96A97-973F-4BDB-941F-3F606878817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Décomposition Cellule TOPCON" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
   <si>
     <t>Paramètre</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>moyenne</t>
+  </si>
+  <si>
+    <t>solar glass</t>
   </si>
 </sst>
 </file>
@@ -859,6 +862,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,18 +914,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4953,8 +4956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,7 +5575,7 @@
       </c>
       <c r="G47" s="28">
         <f>N65</f>
-        <v>0.70279043500000005</v>
+        <v>0.59453410000000007</v>
       </c>
       <c r="O47" s="18"/>
     </row>
@@ -5633,7 +5636,7 @@
       </c>
       <c r="G50" s="23">
         <f>SUM(G41:G49)</f>
-        <v>1.892790435</v>
+        <v>1.7845341000000001</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>43</v>
@@ -5682,11 +5685,11 @@
       </c>
       <c r="J56" s="30">
         <f>G47/G51</f>
-        <v>0.291515100671141</v>
+        <v>0.2466107382550336</v>
       </c>
       <c r="K56" s="31">
         <f>100% - SUM(I56,J56)</f>
-        <v>0.21487691532341691</v>
+        <v>0.25978127773952431</v>
       </c>
       <c r="O56" s="18"/>
     </row>
@@ -5697,11 +5700,11 @@
       </c>
       <c r="J57" s="21">
         <f t="shared" ref="J57:K57" si="1">J56*$G$51</f>
-        <v>0.70279043500000005</v>
+        <v>0.59453410000000007</v>
       </c>
       <c r="K57" s="21">
         <f t="shared" si="1"/>
-        <v>0.51802956499999986</v>
+        <v>0.62628589999999995</v>
       </c>
       <c r="O57" s="18"/>
     </row>
@@ -5760,14 +5763,14 @@
       <c r="J62" s="53"/>
       <c r="K62" s="53"/>
       <c r="L62" s="42">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M62" s="41">
         <v>5335</v>
       </c>
       <c r="N62" s="12">
         <f>L62*$E$47*M62/1000000</f>
-        <v>8.6320300000000016E-2</v>
+        <v>0.10790037500000002</v>
       </c>
       <c r="O62" s="18"/>
     </row>
@@ -5785,14 +5788,14 @@
       <c r="J63" s="53"/>
       <c r="K63" s="53"/>
       <c r="L63" s="42">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="M63" s="41">
         <v>8037</v>
       </c>
       <c r="N63" s="12">
         <f>L63*$E$47*M63/1000000</f>
-        <v>0.42262564500000005</v>
+        <v>0.32509665000000004</v>
       </c>
       <c r="O63" s="18"/>
     </row>
@@ -5810,14 +5813,14 @@
       <c r="J64" s="53"/>
       <c r="K64" s="53"/>
       <c r="L64" s="42">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="M64" s="41">
         <v>7987</v>
       </c>
       <c r="N64" s="12">
         <f>L64*$E$47*M64/1000000</f>
-        <v>0.19384448999999998</v>
+        <v>0.161537075</v>
       </c>
       <c r="O64" s="18"/>
     </row>
@@ -5834,7 +5837,7 @@
       </c>
       <c r="N65" s="21">
         <f>SUM(N62:N64)</f>
-        <v>0.70279043500000005</v>
+        <v>0.59453410000000007</v>
       </c>
       <c r="O65" s="18"/>
     </row>
@@ -6243,7 +6246,7 @@
   <dimension ref="A1:AC62"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G17" sqref="G17:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6262,12 +6265,12 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -6295,10 +6298,10 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -6483,11 +6486,11 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
@@ -6648,10 +6651,10 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="71" t="s">
+      <c r="O13" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="71"/>
+      <c r="P13" s="57"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -6772,19 +6775,21 @@
         <v>56</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="32"/>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
       <c r="N17" s="33"/>
-      <c r="O17" s="32"/>
+      <c r="O17" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
       <c r="R17" s="32"/>
@@ -6807,13 +6812,13 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="64"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="68"/>
       <c r="N18" s="33"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -6838,13 +6843,13 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="67"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="71"/>
       <c r="N19" s="33"/>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
@@ -6864,10 +6869,10 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="32"/>
       <c r="E20" s="36" t="s">
         <v>57</v>
@@ -6886,14 +6891,14 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="70" t="s">
+      <c r="T20" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70" t="s">
+      <c r="U20" s="56"/>
+      <c r="V20" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="W20" s="70"/>
+      <c r="W20" s="56"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
@@ -6923,12 +6928,12 @@
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="73" t="s">
+      <c r="T21" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="U21" s="73"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
@@ -6951,10 +6956,10 @@
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="71" t="s">
+      <c r="O22" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="71"/>
+      <c r="P22" s="57"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -7502,9 +7507,9 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -7533,9 +7538,9 @@
     </row>
     <row r="41" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="35"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -8214,6 +8219,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="G17:I19"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="O13:P13"/>
@@ -8221,11 +8231,6 @@
     <mergeCell ref="B40:D41"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="T21:U21"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="G17:I19"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="https://www.metal.com/Solar/202112230003" xr:uid="{243A1FFF-81ED-444D-9597-55B71892D5AF}"/>

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8690,4 +8690,303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bc66a12d-422f-46eb-8711-8734656fa1ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_Flow_SignoffStatus" ma:index="24" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="25" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="09278d32-0650-4b18-af85-79262d978988" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{91b441d4-d774-4977-be6d-83cf0bcab93d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="9127e09c-edc9-4337-a757-fe205fcf4165">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C42FEA1C-1C72-4302-A593-3A036979BFBD}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AEE9DA9-A79F-41B6-8401-F368AA5C5D5B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF589C6-B74B-43D3-8529-BD8564F59676}"/>
 </file>
--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\Statistiques &amp; Calcules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arcelormittal.sharepoint.com/sites/PVSTEEL/Shared Documents/General/11_Market Intelligence/Anticipation-of-Raw-Material-Prices/Statistiques &amp; Calcules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B96A97-973F-4BDB-941F-3F606878817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{A7B96A97-973F-4BDB-941F-3F606878817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{453E9AD5-ADA7-4C46-A919-5D4877F4DAC1}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Décomposition Cellule TOPCON" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
   <si>
     <t>Paramètre</t>
   </si>
@@ -362,9 +362,6 @@
     <t>% Cell</t>
   </si>
   <si>
-    <t>% Autres</t>
-  </si>
-  <si>
     <t>Prix unitaire (CNY)</t>
   </si>
   <si>
@@ -390,6 +387,15 @@
   </si>
   <si>
     <t>solar glass</t>
+  </si>
+  <si>
+    <t>% Aluminium</t>
+  </si>
+  <si>
+    <t>% Verre</t>
+  </si>
+  <si>
+    <t>to convert from USD/kg =&gt; * kg / W</t>
   </si>
 </sst>
 </file>
@@ -862,18 +868,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,6 +908,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4664,6 +4670,50 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>391390</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{831EA5B3-1E5E-9DCD-C035-091A939DD074}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525250" y="4752975"/>
+          <a:ext cx="6201640" cy="828791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4956,8 +5006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A31" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5064,7 +5114,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="10">
-        <v>8.09</v>
+        <v>7.5</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -5166,7 +5216,7 @@
       </c>
       <c r="B14" s="22">
         <f>SUM(E41:E47)</f>
-        <v>10189.171498324997</v>
+        <v>10183.271498324997</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -5179,7 +5229,7 @@
       </c>
       <c r="B15" s="22">
         <f>B6*B7</f>
-        <v>2.4108199999999997</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -5192,7 +5242,7 @@
       </c>
       <c r="B16" s="5">
         <f>B7/B14</f>
-        <v>7.9398015837989569E-4</v>
+        <v>7.3650201717921822E-4</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -5205,7 +5255,7 @@
       </c>
       <c r="B17" s="8">
         <f>B15/(B14/1000)</f>
-        <v>0.23660608719720888</v>
+        <v>0.21947760111940701</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -5561,21 +5611,21 @@
       </c>
       <c r="C47" s="19">
         <f>(E47/B12)/D47</f>
-        <v>2.3155307657331443E-4</v>
+        <v>2.1466601660072413E-4</v>
       </c>
       <c r="D47" s="12">
         <v>10.49</v>
       </c>
       <c r="E47" s="12">
         <f>10*B7</f>
-        <v>80.900000000000006</v>
+        <v>75</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="28">
         <f>N65</f>
-        <v>0.59453410000000007</v>
+        <v>0.55117499999999997</v>
       </c>
       <c r="O47" s="18"/>
     </row>
@@ -5625,18 +5675,18 @@
       </c>
       <c r="C50" s="23">
         <f>SUM(C41:C47)</f>
-        <v>0.13041780307657333</v>
+        <v>0.13040091601660073</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E50" s="23">
         <f>SUM(E41:E47)</f>
-        <v>10189.171498324997</v>
+        <v>10183.271498324997</v>
       </c>
       <c r="G50" s="23">
         <f>SUM(G41:G49)</f>
-        <v>1.7845341000000001</v>
+        <v>1.7411749999999999</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>43</v>
@@ -5646,7 +5696,7 @@
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G51" s="23">
         <f>0.298*B7</f>
-        <v>2.4108199999999997</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="H51" s="20" t="s">
         <v>44</v>
@@ -5681,15 +5731,15 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I56" s="30">
         <f>G43/G51</f>
-        <v>0.49360798400544215</v>
+        <v>0.53243847874720363</v>
       </c>
       <c r="J56" s="30">
         <f>G47/G51</f>
-        <v>0.2466107382550336</v>
+        <v>0.24661073825503355</v>
       </c>
       <c r="K56" s="31">
         <f>100% - SUM(I56,J56)</f>
-        <v>0.25978127773952431</v>
+        <v>0.22095078299776283</v>
       </c>
       <c r="O56" s="18"/>
     </row>
@@ -5700,11 +5750,11 @@
       </c>
       <c r="J57" s="21">
         <f t="shared" ref="J57:K57" si="1">J56*$G$51</f>
-        <v>0.59453410000000007</v>
+        <v>0.55117499999999997</v>
       </c>
       <c r="K57" s="21">
         <f t="shared" si="1"/>
-        <v>0.62628589999999995</v>
+        <v>0.4938249999999999</v>
       </c>
       <c r="O57" s="18"/>
     </row>
@@ -5770,7 +5820,7 @@
       </c>
       <c r="N62" s="12">
         <f>L62*$E$47*M62/1000000</f>
-        <v>0.10790037500000002</v>
+        <v>0.10003125</v>
       </c>
       <c r="O62" s="18"/>
     </row>
@@ -5795,7 +5845,7 @@
       </c>
       <c r="N63" s="12">
         <f>L63*$E$47*M63/1000000</f>
-        <v>0.32509665000000004</v>
+        <v>0.30138749999999997</v>
       </c>
       <c r="O63" s="18"/>
     </row>
@@ -5820,7 +5870,7 @@
       </c>
       <c r="N64" s="12">
         <f>L64*$E$47*M64/1000000</f>
-        <v>0.161537075</v>
+        <v>0.14975625000000001</v>
       </c>
       <c r="O64" s="18"/>
     </row>
@@ -5837,7 +5887,7 @@
       </c>
       <c r="N65" s="21">
         <f>SUM(N62:N64)</f>
-        <v>0.59453410000000007</v>
+        <v>0.55117499999999997</v>
       </c>
       <c r="O65" s="18"/>
     </row>
@@ -6245,8 +6295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E917B3B-4BCF-4647-AB61-1058E32AFD0A}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:I19"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6265,12 +6315,12 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -6298,10 +6348,10 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -6486,11 +6536,11 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
@@ -6651,10 +6701,10 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="57" t="s">
+      <c r="O13" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="57"/>
+      <c r="P13" s="71"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -6775,20 +6825,20 @@
         <v>56</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="32"/>
-      <c r="K17" s="63" t="s">
+      <c r="K17" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="33"/>
-      <c r="O17" s="32" t="s">
-        <v>97</v>
+      <c r="O17" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
@@ -6812,13 +6862,13 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="68"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
       <c r="N18" s="33"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -6843,13 +6893,13 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="71"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="67"/>
       <c r="N19" s="33"/>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
@@ -6869,10 +6919,10 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="32"/>
       <c r="E20" s="36" t="s">
         <v>57</v>
@@ -6891,14 +6941,14 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="56" t="s">
+      <c r="T20" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56" t="s">
+      <c r="U20" s="70"/>
+      <c r="V20" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="W20" s="56"/>
+      <c r="W20" s="70"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
@@ -6928,12 +6978,12 @@
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="59" t="s">
+      <c r="T21" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="U21" s="59"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
@@ -6956,10 +7006,10 @@
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="57" t="s">
+      <c r="O22" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="57"/>
+      <c r="P22" s="71"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -7507,9 +7557,9 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -7538,9 +7588,9 @@
     </row>
     <row r="41" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
       <c r="E41" s="35"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -8219,11 +8269,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="G17:I19"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="O13:P13"/>
@@ -8231,6 +8276,11 @@
     <mergeCell ref="B40:D41"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="T21:U21"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="G17:I19"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="https://www.metal.com/Solar/202112230003" xr:uid="{243A1FFF-81ED-444D-9597-55B71892D5AF}"/>
@@ -8250,10 +8300,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22EF4E4-4639-4D25-A7E0-36B40C5D2D97}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8261,6 +8311,7 @@
     <col min="13" max="13" width="15.28515625" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
     <col min="15" max="15" width="18.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
     <col min="19" max="19" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8325,18 +8376,18 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S12" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M13" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N13" s="44" t="s">
         <v>86</v>
       </c>
       <c r="O13" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S13" s="46">
         <f>O14-(O15*54)</f>
@@ -8374,21 +8425,25 @@
         <v>2.4108199999999997</v>
       </c>
     </row>
-    <row r="18" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:19" x14ac:dyDescent="0.25">
       <c r="M18">
         <f>M14-M15</f>
         <v>0.432</v>
       </c>
     </row>
-    <row r="20" spans="13:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:19" x14ac:dyDescent="0.25">
       <c r="P20" s="44" t="s">
         <v>87</v>
       </c>
       <c r="Q20" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="13:17" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="R20" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="S20" s="44"/>
+    </row>
+    <row r="21" spans="13:19" x14ac:dyDescent="0.25">
       <c r="O21" s="44" t="s">
         <v>84</v>
       </c>
@@ -8397,8 +8452,16 @@
         <v>0.40821917808219166</v>
       </c>
       <c r="Q21" s="45">
-        <f>(1-P21)</f>
-        <v>0.59178082191780834</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R21" s="45">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="S21" s="45"/>
+    </row>
+    <row r="31" spans="13:19" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -8406,7 +8469,8 @@
     <mergeCell ref="A1:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8425,16 +8489,16 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="C4" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="D4" s="47" t="s">
         <v>94</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8679,7 +8743,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="21">
         <f>AVERAGE(D5:D20)</f>
@@ -8693,6 +8757,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
@@ -8958,35 +9043,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
-    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C42FEA1C-1C72-4302-A593-3A036979BFBD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF589C6-B74B-43D3-8529-BD8564F59676}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <ds:schemaRef ds:uri="09278d32-0650-4b18-af85-79262d978988"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AEE9DA9-A79F-41B6-8401-F368AA5C5D5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AEE9DA9-A79F-41B6-8401-F368AA5C5D5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF589C6-B74B-43D3-8529-BD8564F59676}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C42FEA1C-1C72-4302-A593-3A036979BFBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <ds:schemaRef ds:uri="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <ds:schemaRef ds:uri="09278d32-0650-4b18-af85-79262d978988"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8778,8 +8778,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="c0b0ddaf80390e6ffa1c53f9cf83bde3">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7ec726e8f2050b83e9b4a438fb2f017" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="122426dadd4212b0c94bb7fdd569e94d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1889529ed04855864ffdcec696839eb" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
     <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
     <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
@@ -8807,6 +8807,7 @@
                 <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -8894,6 +8895,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="26" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="27" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -9063,21 +9069,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C42FEA1C-1C72-4302-A593-3A036979BFBD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
-    <ds:schemaRef ds:uri="9127e09c-edc9-4337-a757-fe205fcf4165"/>
-    <ds:schemaRef ds:uri="09278d32-0650-4b18-af85-79262d978988"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44CBFCD6-EAAE-4857-A694-7DF981121478}"/>
 </file>
--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arcelormittal.sharepoint.com/sites/PVSTEEL/Shared Documents/General/11_Market Intelligence/Anticipation-of-Raw-Material-Prices/Statistiques &amp; Calcules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{A7B96A97-973F-4BDB-941F-3F606878817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{453E9AD5-ADA7-4C46-A919-5D4877F4DAC1}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{A7B96A97-973F-4BDB-941F-3F606878817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347164B1-78C6-4784-AD31-005142D784B9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Décomposition Cellule TOPCON" sheetId="1" r:id="rId1"/>
@@ -371,15 +371,6 @@
     <t>SPREAD (CNY)</t>
   </si>
   <si>
-    <t>somme ARG</t>
-  </si>
-  <si>
-    <t>wafer_W</t>
-  </si>
-  <si>
-    <t>prix cellule(cny/W)</t>
-  </si>
-  <si>
     <t>difference</t>
   </si>
   <si>
@@ -396,6 +387,15 @@
   </si>
   <si>
     <t>to convert from USD/kg =&gt; * kg / W</t>
+  </si>
+  <si>
+    <t>3-Wafer_RMB</t>
+  </si>
+  <si>
+    <t>3-Cell_RMB</t>
+  </si>
+  <si>
+    <t>3-Argent_USD</t>
   </si>
 </sst>
 </file>
@@ -846,7 +846,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,6 +866,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -910,21 +921,10 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -5006,8 +5006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5027,56 +5027,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
       <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
       <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
       <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -5102,7 +5102,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="10">
-        <v>0.29799999999999999</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="B14" s="22">
         <f>SUM(E41:E47)</f>
-        <v>10183.271498324997</v>
+        <v>10160.771498324997</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="B15" s="22">
         <f>B6*B7</f>
-        <v>2.2349999999999999</v>
+        <v>1.9875</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="B16" s="5">
         <f>B7/B14</f>
-        <v>7.3650201717921822E-4</v>
+        <v>7.3813292634682072E-4</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B17" s="8">
         <f>B15/(B14/1000)</f>
-        <v>0.21947760111940701</v>
+        <v>0.19560522548190748</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -5359,71 +5359,71 @@
       <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
       <c r="O34" s="18"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
       <c r="O35" s="18"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="18"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
       <c r="O37" s="18"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -5525,7 +5525,7 @@
         <v>33</v>
       </c>
       <c r="G43" s="28">
-        <v>1.19</v>
+        <v>0.98</v>
       </c>
       <c r="H43" s="24"/>
       <c r="O43" s="18"/>
@@ -5611,21 +5611,21 @@
       </c>
       <c r="C47" s="19">
         <f>(E47/B12)/D47</f>
-        <v>2.1466601660072413E-4</v>
+        <v>1.502662116205069E-4</v>
       </c>
       <c r="D47" s="12">
         <v>10.49</v>
       </c>
       <c r="E47" s="12">
-        <f>10*B7</f>
-        <v>75</v>
+        <f>7*B7</f>
+        <v>52.5</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G47" s="28">
         <f>N65</f>
-        <v>0.55117499999999997</v>
+        <v>0.53157794545202819</v>
       </c>
       <c r="O47" s="18"/>
     </row>
@@ -5675,18 +5675,18 @@
       </c>
       <c r="C50" s="23">
         <f>SUM(C41:C47)</f>
-        <v>0.13040091601660073</v>
+        <v>0.13033651621162051</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E50" s="23">
         <f>SUM(E41:E47)</f>
-        <v>10183.271498324997</v>
+        <v>10160.771498324997</v>
       </c>
       <c r="G50" s="23">
         <f>SUM(G41:G49)</f>
-        <v>1.7411749999999999</v>
+        <v>1.5115779454520282</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>43</v>
@@ -5695,8 +5695,8 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G51" s="23">
-        <f>0.298*B7</f>
-        <v>2.2349999999999999</v>
+        <f>0.265*B7</f>
+        <v>1.9875</v>
       </c>
       <c r="H51" s="20" t="s">
         <v>44</v>
@@ -5731,30 +5731,30 @@
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I56" s="30">
         <f>G43/G51</f>
-        <v>0.53243847874720363</v>
+        <v>0.49308176100628931</v>
       </c>
       <c r="J56" s="30">
         <f>G47/G51</f>
-        <v>0.24661073825503355</v>
+        <v>0.26746060148529721</v>
       </c>
       <c r="K56" s="31">
         <f>100% - SUM(I56,J56)</f>
-        <v>0.22095078299776283</v>
+        <v>0.23945763750841342</v>
       </c>
       <c r="O56" s="18"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I57" s="21">
         <f>I56*$G$51</f>
-        <v>1.19</v>
+        <v>0.98</v>
       </c>
       <c r="J57" s="21">
         <f t="shared" ref="J57:K57" si="1">J56*$G$51</f>
-        <v>0.55117499999999997</v>
+        <v>0.53157794545202819</v>
       </c>
       <c r="K57" s="21">
         <f t="shared" si="1"/>
-        <v>0.4938249999999999</v>
+        <v>0.47592205454797171</v>
       </c>
       <c r="O57" s="18"/>
     </row>
@@ -5807,20 +5807,21 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="H62" s="40"/>
-      <c r="I62" s="53" t="s">
+      <c r="I62" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
       <c r="L62" s="42">
         <v>0.25</v>
       </c>
       <c r="M62" s="41">
-        <v>5335</v>
+        <f>5318/7.223</f>
+        <v>736.25917208915962</v>
       </c>
       <c r="N62" s="12">
-        <f>L62*$E$47*M62/1000000</f>
-        <v>0.10003125</v>
+        <f>L62*$E$47*M62/100000</f>
+        <v>9.6634016336702211E-2</v>
       </c>
       <c r="O62" s="18"/>
     </row>
@@ -5832,20 +5833,21 @@
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="H63" s="40"/>
-      <c r="I63" s="53" t="s">
+      <c r="I63" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
       <c r="L63" s="42">
         <v>0.5</v>
       </c>
       <c r="M63" s="41">
-        <v>8037</v>
+        <f>7962/7.223</f>
+        <v>1102.3120587013707</v>
       </c>
       <c r="N63" s="12">
-        <f>L63*$E$47*M63/1000000</f>
-        <v>0.30138749999999997</v>
+        <f>L63*$E$47*M63/100000</f>
+        <v>0.28935691540910979</v>
       </c>
       <c r="O63" s="18"/>
     </row>
@@ -5857,20 +5859,21 @@
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="H64" s="40"/>
-      <c r="I64" s="53" t="s">
+      <c r="I64" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
       <c r="L64" s="42">
         <v>0.25</v>
       </c>
       <c r="M64" s="41">
-        <v>7987</v>
+        <f>8012/7.223</f>
+        <v>1109.2343901426</v>
       </c>
       <c r="N64" s="12">
-        <f>L64*$E$47*M64/1000000</f>
-        <v>0.14975625000000001</v>
+        <f>L64*$E$47*M64/100000</f>
+        <v>0.14558701370621624</v>
       </c>
       <c r="O64" s="18"/>
     </row>
@@ -5887,7 +5890,7 @@
       </c>
       <c r="N65" s="21">
         <f>SUM(N62:N64)</f>
-        <v>0.55117499999999997</v>
+        <v>0.53157794545202819</v>
       </c>
       <c r="O65" s="18"/>
     </row>
@@ -5919,12 +5922,12 @@
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="H68" s="40"/>
-      <c r="J68" s="54" t="s">
+      <c r="J68" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
       <c r="O68" s="18"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -5935,28 +5938,28 @@
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="H69" s="40"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
       <c r="O69" s="18"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F70" s="16"/>
       <c r="H70" s="40"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
       <c r="O70" s="18"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
       <c r="F71" s="17"/>
       <c r="H71" s="40"/>
       <c r="I71" s="40"/>
@@ -5973,32 +5976,32 @@
       <c r="O72" s="18"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H73" s="55" t="s">
+      <c r="H73" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I73" s="53" t="s">
+      <c r="I73" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
       <c r="O73" s="18"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H74" s="55"/>
-      <c r="I74" s="53" t="s">
+      <c r="H74" s="54"/>
+      <c r="I74" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="J74" s="53"/>
-      <c r="K74" s="53"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
       <c r="O74" s="18"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H75" s="55"/>
-      <c r="I75" s="53" t="s">
+      <c r="H75" s="54"/>
+      <c r="I75" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="J75" s="53"/>
-      <c r="K75" s="53"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
       <c r="O75" s="18"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -6006,57 +6009,57 @@
       <c r="O76" s="18"/>
     </row>
     <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="50"/>
-      <c r="I77" s="50"/>
-      <c r="J77" s="50"/>
-      <c r="K77" s="50"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="50"/>
-      <c r="O77" s="50"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
+      <c r="I77" s="49"/>
+      <c r="J77" s="49"/>
+      <c r="K77" s="49"/>
+      <c r="L77" s="49"/>
+      <c r="M77" s="49"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="50"/>
-      <c r="I78" s="50"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="50"/>
-      <c r="L78" s="50"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="50"/>
-      <c r="O78" s="50"/>
+      <c r="A78" s="49"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="49"/>
+      <c r="I78" s="49"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="49"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50"/>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="50"/>
-      <c r="O79" s="50"/>
+      <c r="A79" s="49"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="49"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="49"/>
+      <c r="F79" s="49"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="49"/>
+      <c r="I79" s="49"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="49"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="49"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F80" s="15" t="s">
@@ -6315,12 +6318,12 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
@@ -6348,10 +6351,10 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -6536,11 +6539,11 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
@@ -6701,10 +6704,10 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="71" t="s">
+      <c r="O13" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="71"/>
+      <c r="P13" s="56"/>
       <c r="Q13" s="32"/>
       <c r="R13" s="32"/>
       <c r="S13" s="32"/>
@@ -6825,20 +6828,20 @@
         <v>56</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="32"/>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
       <c r="N17" s="33"/>
       <c r="O17" s="23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
@@ -6862,13 +6865,13 @@
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
       <c r="J18" s="32"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="64"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="67"/>
       <c r="N18" s="33"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -6893,13 +6896,13 @@
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="32"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="67"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="33"/>
       <c r="O19" s="32"/>
       <c r="P19" s="32"/>
@@ -6919,10 +6922,10 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="32"/>
       <c r="E20" s="36" t="s">
         <v>57</v>
@@ -6941,14 +6944,14 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="70" t="s">
+      <c r="T20" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70" t="s">
+      <c r="U20" s="55"/>
+      <c r="V20" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="W20" s="70"/>
+      <c r="W20" s="55"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
       <c r="Z20" s="32"/>
@@ -6978,12 +6981,12 @@
       <c r="Q21" s="32"/>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
-      <c r="T21" s="73" t="s">
+      <c r="T21" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="U21" s="73"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
@@ -7006,10 +7009,10 @@
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="71" t="s">
+      <c r="O22" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="P22" s="71"/>
+      <c r="P22" s="56"/>
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -7557,9 +7560,9 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -7588,9 +7591,9 @@
     </row>
     <row r="41" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
       <c r="E41" s="35"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -8269,6 +8272,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="G17:I19"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="O13:P13"/>
@@ -8276,11 +8284,6 @@
     <mergeCell ref="B40:D41"/>
     <mergeCell ref="T20:U20"/>
     <mergeCell ref="T21:U21"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="G17:I19"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E15" r:id="rId1" display="https://www.metal.com/Solar/202112230003" xr:uid="{243A1FFF-81ED-444D-9597-55B71892D5AF}"/>
@@ -8302,7 +8305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22EF4E4-4639-4D25-A7E0-36B40C5D2D97}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
@@ -8316,63 +8319,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S12" s="46" t="s">
@@ -8436,10 +8439,10 @@
         <v>87</v>
       </c>
       <c r="Q20" s="44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="R20" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S20" s="44"/>
     </row>
@@ -8461,7 +8464,7 @@
     </row>
     <row r="31" spans="13:19" x14ac:dyDescent="0.25">
       <c r="P31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -8476,10 +8479,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E947D54B-5760-45E9-BDC4-CE443C54D520}">
-  <dimension ref="A4:D21"/>
+  <dimension ref="A4:E76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8488,266 +8491,1094 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
-        <v>8.41615E-2</v>
-      </c>
-      <c r="B5" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C5" s="48">
+      <c r="A5" s="74">
+        <v>6.8295021781418705E-2</v>
+      </c>
+      <c r="B5" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C5" s="74">
         <v>0.28999999999999998</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" ref="D5:D20" si="0">C5-(B5+A5)</f>
-        <v>5.8743320766377977E-2</v>
+        <f t="shared" ref="D5:D68" si="0">C5-(B5+A5)</f>
+        <v>6.303831155191425E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
-        <v>8.4421499999999997E-2</v>
-      </c>
-      <c r="B6" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C6" s="48">
+      <c r="A6" s="74">
+        <v>6.8459095389332994E-2</v>
+      </c>
+      <c r="B6" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C6" s="74">
         <v>0.28999999999999998</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>5.8483320766377966E-2</v>
+        <v>6.2874237943999989E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
-        <v>8.4681500000000007E-2</v>
-      </c>
-      <c r="B7" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C7" s="48">
+      <c r="A7" s="74">
+        <v>6.8864116855660198E-2</v>
+      </c>
+      <c r="B7" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C7" s="74">
         <v>0.29299999999999998</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>6.1223320766377987E-2</v>
+        <v>6.5469216477672787E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
-        <v>8.5830500000000004E-2</v>
-      </c>
-      <c r="B8" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C8" s="48">
+      <c r="A8" s="74">
+        <v>7.0014941404905204E-2</v>
+      </c>
+      <c r="B8" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C8" s="74">
         <v>0.29499999999999998</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
-        <v>6.2074320766377977E-2</v>
+        <v>6.6318391928427756E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
-        <v>8.5526500000000005E-2</v>
-      </c>
-      <c r="B9" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C9" s="48">
+      <c r="A9" s="74">
+        <v>6.9737910718956006E-2</v>
+      </c>
+      <c r="B9" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C9" s="74">
         <v>0.29499999999999998</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>6.2378320766377976E-2</v>
+        <v>6.6595422614376953E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
-        <v>8.5526500000000005E-2</v>
-      </c>
-      <c r="B10" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C10" s="48">
+      <c r="A10" s="74">
+        <v>6.9737910718956006E-2</v>
+      </c>
+      <c r="B10" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C10" s="74">
         <v>0.29499999999999998</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>6.2378320766377976E-2</v>
+        <v>6.6595422614376953E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
-        <v>8.5526500000000005E-2</v>
-      </c>
-      <c r="B11" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C11" s="48">
+      <c r="A11" s="74">
+        <v>6.9737910718956006E-2</v>
+      </c>
+      <c r="B11" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C11" s="74">
         <v>0.29499999999999998</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>6.2378320766377976E-2</v>
+        <v>6.6595422614376953E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
-        <v>8.5698499999999997E-2</v>
-      </c>
-      <c r="B12" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C12" s="48">
+      <c r="A12" s="74">
+        <v>6.9925754507762006E-2</v>
+      </c>
+      <c r="B12" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C12" s="74">
         <v>0.29499999999999998</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>6.2206320766377998E-2</v>
+        <v>6.6407578825570968E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
-        <v>8.4844000000000003E-2</v>
-      </c>
-      <c r="B13" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C13" s="48">
+      <c r="A13" s="74">
+        <v>6.9048387761550797E-2</v>
+      </c>
+      <c r="B13" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C13" s="74">
         <v>0.29499999999999998</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
-        <v>6.3060820766377979E-2</v>
+        <v>6.7284945571782162E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
-        <v>8.5939500000000002E-2</v>
-      </c>
-      <c r="B14" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C14" s="48">
+      <c r="A14" s="74">
+        <v>7.02114307781425E-2</v>
+      </c>
+      <c r="B14" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C14" s="74">
         <v>0.29499999999999998</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>6.1965320766377979E-2</v>
+        <v>6.6121902555190459E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
-        <v>8.6696499999999996E-2</v>
-      </c>
-      <c r="B15" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C15" s="48">
+      <c r="A15" s="74">
+        <v>7.07697713836868E-2</v>
+      </c>
+      <c r="B15" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C15" s="74">
         <v>0.29799999999999999</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
-        <v>6.4208320766378002E-2</v>
+        <v>6.856356194964619E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
-        <v>8.8646500000000003E-2</v>
-      </c>
-      <c r="B16" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C16" s="48">
+      <c r="A16" s="74">
+        <v>7.2291669534810102E-2</v>
+      </c>
+      <c r="B16" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C16" s="74">
         <v>0.29799999999999999</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
-        <v>6.2258320766377995E-2</v>
+        <v>6.7041663798522888E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
-        <v>8.8646500000000003E-2</v>
-      </c>
-      <c r="B17" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C17" s="48">
+      <c r="A17" s="74">
+        <v>7.2291669534810102E-2</v>
+      </c>
+      <c r="B17" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C17" s="74">
         <v>0.29799999999999999</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>6.2258320766377995E-2</v>
+        <v>6.7041663798522888E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
-        <v>8.8646500000000003E-2</v>
-      </c>
-      <c r="B18" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C18" s="48">
+      <c r="A18" s="74">
+        <v>7.2291669534810102E-2</v>
+      </c>
+      <c r="B18" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C18" s="74">
         <v>0.29799999999999999</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
-        <v>6.2258320766377995E-2</v>
+        <v>6.7041663798522888E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
-        <v>8.84075E-2</v>
-      </c>
-      <c r="B19" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C19" s="48">
+      <c r="A19" s="74">
+        <v>7.2276623053991407E-2</v>
+      </c>
+      <c r="B19" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C19" s="74">
         <v>0.29799999999999999</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="0"/>
-        <v>6.2497320766377984E-2</v>
+        <v>6.7056710279341569E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
-        <v>8.8569999999999996E-2</v>
-      </c>
-      <c r="B20" s="48">
-        <v>0.147095179233622</v>
-      </c>
-      <c r="C20" s="48">
+      <c r="A20" s="74">
+        <v>7.2419457250917904E-2</v>
+      </c>
+      <c r="B20" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C20" s="74">
         <v>0.29799999999999999</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="0"/>
-        <v>6.2334820766377974E-2</v>
+        <v>6.6913876082415058E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="21">
-        <f>AVERAGE(D5:D20)</f>
-        <v>6.1919195766377992E-2</v>
+      <c r="A21" s="74">
+        <v>7.2462597990504599E-2</v>
+      </c>
+      <c r="B21" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C21" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="0"/>
+        <v>6.6870735342828391E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="74">
+        <v>7.2297567638415605E-2</v>
+      </c>
+      <c r="B22" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C22" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" si="0"/>
+        <v>6.7035765694917371E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="74">
+        <v>7.1470907765721903E-2</v>
+      </c>
+      <c r="B23" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C23" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="0"/>
+        <v>6.7862425567611073E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="74">
+        <v>7.1470907765721903E-2</v>
+      </c>
+      <c r="B24" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C24" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="0"/>
+        <v>6.7862425567611073E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="74">
+        <v>7.1470907765721903E-2</v>
+      </c>
+      <c r="B25" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C25" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="0"/>
+        <v>6.7862425567611073E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="74">
+        <v>7.0897583903686001E-2</v>
+      </c>
+      <c r="B26" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C26" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="0"/>
+        <v>6.8435749429646975E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="74">
+        <v>7.0870469807874495E-2</v>
+      </c>
+      <c r="B27" s="74">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C27" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="0"/>
+        <v>7.0462863525458497E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="74">
+        <v>7.1974119812629606E-2</v>
+      </c>
+      <c r="B28" s="74">
+        <v>0.161333333333333</v>
+      </c>
+      <c r="C28" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="0"/>
+        <v>6.969254685403739E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="74">
+        <v>7.1779359918789504E-2</v>
+      </c>
+      <c r="B29" s="74">
+        <v>0.161333333333333</v>
+      </c>
+      <c r="C29" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" si="0"/>
+        <v>6.9887306747877492E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="74">
+        <v>7.3143977367922303E-2</v>
+      </c>
+      <c r="B30" s="74">
+        <v>0.161333333333333</v>
+      </c>
+      <c r="C30" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="0"/>
+        <v>6.8522689298744693E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="74">
+        <v>7.3143977367922303E-2</v>
+      </c>
+      <c r="B31" s="74">
+        <v>0.161333333333333</v>
+      </c>
+      <c r="C31" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="0"/>
+        <v>6.8522689298744693E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="74">
+        <v>7.3143977367922303E-2</v>
+      </c>
+      <c r="B32" s="74">
+        <v>0.161333333333333</v>
+      </c>
+      <c r="C32" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="0"/>
+        <v>6.8522689298744693E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="74">
+        <v>7.2884594237959094E-2</v>
+      </c>
+      <c r="B33" s="74">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C33" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="0"/>
+        <v>6.3448739095373907E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="74">
+        <v>7.2607252789534393E-2</v>
+      </c>
+      <c r="B34" s="74">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C34" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="0"/>
+        <v>6.3726080543798608E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="74">
+        <v>7.23075023663525E-2</v>
+      </c>
+      <c r="B35" s="74">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C35" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D35" s="12">
+        <f t="shared" si="0"/>
+        <v>6.4025830966980501E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="74">
+        <v>7.2286773963978798E-2</v>
+      </c>
+      <c r="B36" s="74">
+        <v>0.17066666666666699</v>
+      </c>
+      <c r="C36" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D36" s="12">
+        <f t="shared" si="0"/>
+        <v>6.0046559369354213E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="74">
+        <v>7.2286773963978798E-2</v>
+      </c>
+      <c r="B37" s="74">
+        <v>0.17066666666666699</v>
+      </c>
+      <c r="C37" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D37" s="12">
+        <f t="shared" si="0"/>
+        <v>6.0046559369354213E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="74">
+        <v>7.2286773963978798E-2</v>
+      </c>
+      <c r="B38" s="74">
+        <v>0.17066666666666699</v>
+      </c>
+      <c r="C38" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D38" s="12">
+        <f t="shared" si="0"/>
+        <v>6.0046559369354213E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="74">
+        <v>7.2286773963978798E-2</v>
+      </c>
+      <c r="B39" s="74">
+        <v>0.17066666666666699</v>
+      </c>
+      <c r="C39" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D39" s="12">
+        <f t="shared" si="0"/>
+        <v>6.0046559369354213E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="74">
+        <v>6.6642316830060902E-2</v>
+      </c>
+      <c r="B40" s="74">
+        <v>0.17066666666666699</v>
+      </c>
+      <c r="C40" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D40" s="12">
+        <f t="shared" si="0"/>
+        <v>6.5691016503272082E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="74">
+        <v>6.5933341488942407E-2</v>
+      </c>
+      <c r="B41" s="74">
+        <v>0.17066666666666699</v>
+      </c>
+      <c r="C41" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D41" s="12">
+        <f t="shared" si="0"/>
+        <v>6.6399991844390605E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="74">
+        <v>6.5745096178611601E-2</v>
+      </c>
+      <c r="B42" s="74">
+        <v>0.17066666666666699</v>
+      </c>
+      <c r="C42" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D42" s="12">
+        <f t="shared" si="0"/>
+        <v>6.6588237154721397E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="74">
+        <v>6.7786692732727805E-2</v>
+      </c>
+      <c r="B43" s="74">
+        <v>0.17066666666666699</v>
+      </c>
+      <c r="C43" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D43" s="12">
+        <f t="shared" si="0"/>
+        <v>6.4546640600605193E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="74">
+        <v>6.8227019574654005E-2</v>
+      </c>
+      <c r="B44" s="74">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C44" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D44" s="12">
+        <f t="shared" si="0"/>
+        <v>6.8106313758678982E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="74">
+        <v>6.8227019574654005E-2</v>
+      </c>
+      <c r="B45" s="74">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C45" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D45" s="12">
+        <f t="shared" si="0"/>
+        <v>6.8106313758678982E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="74">
+        <v>6.8227019574654005E-2</v>
+      </c>
+      <c r="B46" s="74">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C46" s="74">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D46" s="12">
+        <f t="shared" si="0"/>
+        <v>6.8106313758678982E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="74">
+        <v>6.9597926456125003E-2</v>
+      </c>
+      <c r="B47" s="74">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="C47" s="74">
+        <v>0.3</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" si="0"/>
+        <v>6.3735406877207995E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="74">
+        <v>6.9825174347986296E-2</v>
+      </c>
+      <c r="B48" s="74">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C48" s="74">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D48" s="12">
+        <f t="shared" si="0"/>
+        <v>6.4174825652013684E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="74">
+        <v>7.0225981774345095E-2</v>
+      </c>
+      <c r="B49" s="74">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C49" s="74">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D49" s="12">
+        <f t="shared" si="0"/>
+        <v>6.0774018225654869E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="74">
+        <v>6.9787048279060904E-2</v>
+      </c>
+      <c r="B50" s="74">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C50" s="74">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="0"/>
+        <v>6.1212951720939074E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="74">
+        <v>7.0097576975113804E-2</v>
+      </c>
+      <c r="B51" s="74">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C51" s="74">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" si="0"/>
+        <v>5.8902423024886186E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="74">
+        <v>7.0097576975113804E-2</v>
+      </c>
+      <c r="B52" s="74">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C52" s="74">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" si="0"/>
+        <v>5.8902423024886186E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="74">
+        <v>7.0097576975113804E-2</v>
+      </c>
+      <c r="B53" s="74">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C53" s="74">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D53" s="12">
+        <f t="shared" si="0"/>
+        <v>5.8902423024886186E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="74">
+        <v>7.0643211682824406E-2</v>
+      </c>
+      <c r="B54" s="74">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="C54" s="74">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="D54" s="12">
+        <f t="shared" si="0"/>
+        <v>5.8356788317175556E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="74">
+        <v>7.0229067606711507E-2</v>
+      </c>
+      <c r="B55" s="74">
+        <v>0.15733333333333299</v>
+      </c>
+      <c r="C55" s="74">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D55" s="12">
+        <f t="shared" si="0"/>
+        <v>6.0437599059955494E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="74">
+        <v>7.0441393241251302E-2</v>
+      </c>
+      <c r="B56" s="74">
+        <v>0.15733333333333299</v>
+      </c>
+      <c r="C56" s="74">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" si="0"/>
+        <v>6.0225273425415671E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="74">
+        <v>7.1371497373029794E-2</v>
+      </c>
+      <c r="B57" s="74">
+        <v>0.15733333333333299</v>
+      </c>
+      <c r="C57" s="74">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D57" s="12">
+        <f t="shared" si="0"/>
+        <v>5.9295169293637207E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="74">
+        <v>7.1445821873760001E-2</v>
+      </c>
+      <c r="B58" s="74">
+        <v>0.15333333333333299</v>
+      </c>
+      <c r="C58" s="74">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D58" s="12">
+        <f t="shared" si="0"/>
+        <v>5.3220844792907035E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="74">
+        <v>7.1445821873760001E-2</v>
+      </c>
+      <c r="B59" s="74">
+        <v>0.15333333333333299</v>
+      </c>
+      <c r="C59" s="74">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D59" s="12">
+        <f t="shared" si="0"/>
+        <v>5.3220844792907035E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="74">
+        <v>7.1445821873760001E-2</v>
+      </c>
+      <c r="B60" s="74">
+        <v>0.15333333333333299</v>
+      </c>
+      <c r="C60" s="74">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="D60" s="12">
+        <f t="shared" si="0"/>
+        <v>5.3220844792907035E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="74">
+        <v>7.0363515695558196E-2</v>
+      </c>
+      <c r="B61" s="74">
+        <v>0.150666666666667</v>
+      </c>
+      <c r="C61" s="74">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D61" s="12">
+        <f t="shared" si="0"/>
+        <v>5.3969817637774808E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="74">
+        <v>7.0801746079531394E-2</v>
+      </c>
+      <c r="B62" s="74">
+        <v>0.137333333333333</v>
+      </c>
+      <c r="C62" s="74">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D62" s="12">
+        <f t="shared" si="0"/>
+        <v>6.6864920587135612E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="74">
+        <v>7.0753973151233399E-2</v>
+      </c>
+      <c r="B63" s="74">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C63" s="74">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D63" s="12">
+        <f t="shared" si="0"/>
+        <v>6.6246026848766626E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="74">
+        <v>7.0753973151233399E-2</v>
+      </c>
+      <c r="B64" s="74">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C64" s="74">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D64" s="12">
+        <f t="shared" si="0"/>
+        <v>6.6246026848766626E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="74">
+        <v>7.0753973151233399E-2</v>
+      </c>
+      <c r="B65" s="74">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C65" s="74">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D65" s="12">
+        <f t="shared" si="0"/>
+        <v>6.6246026848766626E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="74">
+        <v>7.0753973151233399E-2</v>
+      </c>
+      <c r="B66" s="74">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C66" s="74">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D66" s="12">
+        <f t="shared" si="0"/>
+        <v>6.6246026848766626E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="74">
+        <v>7.0753973151233399E-2</v>
+      </c>
+      <c r="B67" s="74">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C67" s="74">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D67" s="12">
+        <f t="shared" si="0"/>
+        <v>6.6246026848766626E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="74">
+        <v>7.0753973151233399E-2</v>
+      </c>
+      <c r="B68" s="74">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="C68" s="74">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D68" s="12">
+        <f t="shared" si="0"/>
+        <v>6.6246026848766626E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="74">
+        <v>7.1480368368809999E-2</v>
+      </c>
+      <c r="B69" s="74">
+        <v>0.137333333333333</v>
+      </c>
+      <c r="C69" s="74">
+        <v>0.27</v>
+      </c>
+      <c r="D69" s="12">
+        <f t="shared" ref="D69:D75" si="1">C69-(B69+A69)</f>
+        <v>6.1186298297857017E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="74">
+        <v>7.1249274521184E-2</v>
+      </c>
+      <c r="B70" s="74">
+        <v>0.137333333333333</v>
+      </c>
+      <c r="C70" s="74">
+        <v>0.27</v>
+      </c>
+      <c r="D70" s="12">
+        <f t="shared" si="1"/>
+        <v>6.141739214548303E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="74">
+        <v>7.1220565743968497E-2</v>
+      </c>
+      <c r="B71" s="74">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="C71" s="74">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D71" s="12">
+        <f t="shared" si="1"/>
+        <v>6.0446100922698531E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="74">
+        <v>7.04029359516367E-2</v>
+      </c>
+      <c r="B72" s="74">
+        <v>0.13066666666666699</v>
+      </c>
+      <c r="C72" s="74">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D72" s="12">
+        <f t="shared" si="1"/>
+        <v>6.3930397381696313E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="74">
+        <v>7.04029359516367E-2</v>
+      </c>
+      <c r="B73" s="74">
+        <v>0.13066666666666699</v>
+      </c>
+      <c r="C73" s="74">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D73" s="12">
+        <f t="shared" si="1"/>
+        <v>6.3930397381696313E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="74">
+        <v>7.04029359516367E-2</v>
+      </c>
+      <c r="B74" s="74">
+        <v>0.13066666666666699</v>
+      </c>
+      <c r="C74" s="74">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D74" s="12">
+        <f t="shared" si="1"/>
+        <v>6.3930397381696313E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="74">
+        <v>7.0636486561068496E-2</v>
+      </c>
+      <c r="B75" s="74">
+        <v>0.13066666666666699</v>
+      </c>
+      <c r="C75" s="74">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D75" s="12">
+        <f t="shared" si="1"/>
+        <v>6.3696846772264532E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="21">
+        <f>AVERAGE(D5:D75)</f>
+        <v>6.4265670220948923E-2</v>
+      </c>
+      <c r="E76">
+        <v>6.4265670220948895E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8757,27 +9588,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
-    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="122426dadd4212b0c94bb7fdd569e94d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1889529ed04855864ffdcec696839eb" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
@@ -9049,13 +9859,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad" xsi:nil="true"/>
+    <TaxCatchAll xmlns="09278d32-0650-4b18-af85-79262d978988" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc66a12d-422f-46eb-8711-8734656fa1ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF589C6-B74B-43D3-8529-BD8564F59676}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44CBFCD6-EAAE-4857-A694-7DF981121478}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <ds:schemaRef ds:uri="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <ds:schemaRef ds:uri="09278d32-0650-4b18-af85-79262d978988"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
-    <ds:schemaRef ds:uri="09278d32-0650-4b18-af85-79262d978988"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9069,5 +9909,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44CBFCD6-EAAE-4857-A694-7DF981121478}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF589C6-B74B-43D3-8529-BD8564F59676}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <ds:schemaRef ds:uri="09278d32-0650-4b18-af85-79262d978988"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -9588,8 +9588,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="122426dadd4212b0c94bb7fdd569e94d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1889529ed04855864ffdcec696839eb" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004970C428BB3BD34781FF42CD046AEA46" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbdfaaaee675021c2f9e5ee23dad9b2e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc66a12d-422f-46eb-8711-8734656fa1ad" xmlns:ns3="9127e09c-edc9-4337-a757-fe205fcf4165" xmlns:ns4="09278d32-0650-4b18-af85-79262d978988" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2395792d8eeba243887473f18fec5fd9" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
     <xsd:import namespace="9127e09c-edc9-4337-a757-fe205fcf4165"/>
     <xsd:import namespace="09278d32-0650-4b18-af85-79262d978988"/>
@@ -9687,7 +9687,7 @@
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="e32adc4a-80e2-451e-aed1-639643a83f86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -9718,7 +9718,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9127e09c-edc9-4337-a757-fe205fcf4165" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -9737,7 +9737,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -9769,8 +9769,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -9881,23 +9881,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44CBFCD6-EAAE-4857-A694-7DF981121478}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
-    <ds:schemaRef ds:uri="9127e09c-edc9-4337-a757-fe205fcf4165"/>
-    <ds:schemaRef ds:uri="09278d32-0650-4b18-af85-79262d978988"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{778AD795-0DDC-4A17-9E3C-23BCC8E00BA6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
+++ b/Statistiques & Calcules/Calcul_Prix_Cellule_TOPCon_M10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arcelormittal.sharepoint.com/sites/PVSTEEL/Shared Documents/General/11_Market Intelligence/Anticipation-of-Raw-Material-Prices/Statistiques &amp; Calcules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{A7B96A97-973F-4BDB-941F-3F606878817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347164B1-78C6-4784-AD31-005142D784B9}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{A7B96A97-973F-4BDB-941F-3F606878817F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43002DFC-6F35-46D6-A2A9-B3F05472B257}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31935" yWindow="1590" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Décomposition Cellule TOPCON" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
   <si>
     <t>Paramètre</t>
   </si>
@@ -371,12 +371,6 @@
     <t>SPREAD (CNY)</t>
   </si>
   <si>
-    <t>difference</t>
-  </si>
-  <si>
-    <t>moyenne</t>
-  </si>
-  <si>
     <t>solar glass</t>
   </si>
   <si>
@@ -395,7 +389,7 @@
     <t>3-Cell_RMB</t>
   </si>
   <si>
-    <t>3-Argent_USD</t>
+    <t>3-Argent_RMB</t>
   </si>
 </sst>
 </file>
@@ -769,7 +763,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -845,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -924,7 +918,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1060,8 +1053,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="418708" y="15620594"/>
-          <a:ext cx="23691132" cy="6599796"/>
+          <a:off x="418708" y="15815798"/>
+          <a:ext cx="23726410" cy="6682111"/>
           <a:chOff x="961104" y="19294577"/>
           <a:chExt cx="22069381" cy="6733796"/>
         </a:xfrm>
@@ -5006,8 +4999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6841,7 +6834,7 @@
       <c r="M17" s="64"/>
       <c r="N17" s="33"/>
       <c r="O17" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P17" s="32"/>
       <c r="Q17" s="32"/>
@@ -8439,10 +8432,10 @@
         <v>87</v>
       </c>
       <c r="Q20" s="44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R20" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S20" s="44"/>
     </row>
@@ -8464,7 +8457,7 @@
     </row>
     <row r="31" spans="13:19" x14ac:dyDescent="0.25">
       <c r="P31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8479,10 +8472,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E947D54B-5760-45E9-BDC4-CE443C54D520}">
-  <dimension ref="A4:E76"/>
+  <dimension ref="A1:E138"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8490,1095 +8483,2067 @@
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
+        <v>6.8295021781418705E-2</v>
+      </c>
+      <c r="B2" s="47">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C2" s="47">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D2">
+        <f>C2-(A2+B2)</f>
+        <v>6.303831155191425E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="47">
+        <v>6.8459095389332994E-2</v>
+      </c>
+      <c r="B3" s="47">
+        <v>0.15866666666666701</v>
+      </c>
+      <c r="C3" s="47">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D3" s="15">
+        <f t="shared" ref="D3:D66" si="0">C3-(A3+B3)</f>
+        <v>6.2874237943999989E-2</v>
+      </c>
+    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="74">
-        <v>6.8295021781418705E-2</v>
-      </c>
-      <c r="B5" s="74">
+      <c r="A4" s="47">
+        <v>6.8864116855660198E-2</v>
+      </c>
+      <c r="B4" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C5" s="74">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D5" s="12">
-        <f t="shared" ref="D5:D68" si="0">C5-(B5+A5)</f>
-        <v>6.303831155191425E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="74">
-        <v>6.8459095389332994E-2</v>
-      </c>
-      <c r="B6" s="74">
-        <v>0.15866666666666701</v>
-      </c>
-      <c r="C6" s="74">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" si="0"/>
-        <v>6.2874237943999989E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="74">
-        <v>6.8864116855660198E-2</v>
-      </c>
-      <c r="B7" s="74">
-        <v>0.15866666666666701</v>
-      </c>
-      <c r="C7" s="74">
+      <c r="C4" s="47">
         <v>0.29299999999999998</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D4" s="15">
         <f t="shared" si="0"/>
         <v>6.5469216477672787E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="74">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="47">
         <v>7.0014941404905204E-2</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B5" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C5" s="47">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>6.6318391928427756E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="74">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="47">
         <v>6.9737910718956006E-2</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B6" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C9" s="74">
+      <c r="C6" s="47">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>6.6595422614376953E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="74">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="47">
         <v>6.9737910718956006E-2</v>
       </c>
-      <c r="B10" s="74">
+      <c r="B7" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C7" s="47">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>6.6595422614376953E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="74">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="47">
         <v>6.9737910718956006E-2</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B8" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C8" s="47">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>6.6595422614376953E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="74">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
         <v>6.9925754507762006E-2</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B9" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C9" s="47">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>6.6407578825570968E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="74">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
         <v>6.9048387761550797E-2</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B10" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C10" s="47">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>6.7284945571782162E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="74">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="47">
         <v>7.02114307781425E-2</v>
       </c>
-      <c r="B14" s="74">
+      <c r="B11" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C11" s="47">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>6.6121902555190459E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="74">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="47">
         <v>7.07697713836868E-2</v>
       </c>
-      <c r="B15" s="74">
+      <c r="B12" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C12" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
         <v>6.856356194964619E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="74">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="47">
         <v>7.2291669534810102E-2</v>
       </c>
-      <c r="B16" s="74">
+      <c r="B13" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C13" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
         <v>6.7041663798522888E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="74">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="47">
         <v>7.2291669534810102E-2</v>
       </c>
-      <c r="B17" s="74">
+      <c r="B14" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C14" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D14" s="15">
         <f t="shared" si="0"/>
         <v>6.7041663798522888E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="74">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="47">
         <v>7.2291669534810102E-2</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B15" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C15" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D15" s="15">
         <f t="shared" si="0"/>
         <v>6.7041663798522888E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="74">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="47">
         <v>7.2276623053991407E-2</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B16" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C16" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D16" s="15">
         <f t="shared" si="0"/>
         <v>6.7056710279341569E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="74">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="47">
         <v>7.2419457250917904E-2</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B17" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C17" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D17" s="15">
         <f t="shared" si="0"/>
         <v>6.6913876082415058E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="74">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="47">
         <v>7.2462597990504599E-2</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B18" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C18" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D18" s="15">
         <f t="shared" si="0"/>
         <v>6.6870735342828391E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="74">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="47">
         <v>7.2297567638415605E-2</v>
       </c>
-      <c r="B22" s="74">
+      <c r="B19" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C19" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D19" s="15">
         <f t="shared" si="0"/>
         <v>6.7035765694917371E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="74">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="47">
         <v>7.1470907765721903E-2</v>
       </c>
-      <c r="B23" s="74">
+      <c r="B20" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C20" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D20" s="15">
         <f t="shared" si="0"/>
         <v>6.7862425567611073E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="74">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="47">
         <v>7.1470907765721903E-2</v>
       </c>
-      <c r="B24" s="74">
+      <c r="B21" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C21" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D21" s="15">
         <f t="shared" si="0"/>
         <v>6.7862425567611073E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="74">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="47">
         <v>7.1470907765721903E-2</v>
       </c>
-      <c r="B25" s="74">
+      <c r="B22" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C22" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D22" s="15">
         <f t="shared" si="0"/>
         <v>6.7862425567611073E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="74">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="47">
         <v>7.0897583903686001E-2</v>
       </c>
-      <c r="B26" s="74">
+      <c r="B23" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C26" s="74">
+      <c r="C23" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D23" s="15">
         <f t="shared" si="0"/>
         <v>6.8435749429646975E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="74">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="47">
         <v>7.0870469807874495E-2</v>
       </c>
-      <c r="B27" s="74">
+      <c r="B24" s="47">
         <v>0.15866666666666701</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C24" s="47">
         <v>0.3</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D24" s="15">
         <f t="shared" si="0"/>
         <v>7.0462863525458497E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="74">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="47">
         <v>7.1974119812629606E-2</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B25" s="47">
         <v>0.161333333333333</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C25" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D25" s="15">
         <f t="shared" si="0"/>
         <v>6.969254685403739E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="74">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="47">
         <v>7.1779359918789504E-2</v>
       </c>
-      <c r="B29" s="74">
+      <c r="B26" s="47">
         <v>0.161333333333333</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C26" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D26" s="15">
         <f t="shared" si="0"/>
         <v>6.9887306747877492E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="74">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="47">
         <v>7.3143977367922303E-2</v>
       </c>
-      <c r="B30" s="74">
+      <c r="B27" s="47">
         <v>0.161333333333333</v>
       </c>
-      <c r="C30" s="74">
+      <c r="C27" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D27" s="15">
         <f t="shared" si="0"/>
         <v>6.8522689298744693E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="74">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="47">
         <v>7.3143977367922303E-2</v>
       </c>
-      <c r="B31" s="74">
+      <c r="B28" s="47">
         <v>0.161333333333333</v>
       </c>
-      <c r="C31" s="74">
+      <c r="C28" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D28" s="15">
         <f t="shared" si="0"/>
         <v>6.8522689298744693E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="74">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="47">
         <v>7.3143977367922303E-2</v>
       </c>
-      <c r="B32" s="74">
+      <c r="B29" s="47">
         <v>0.161333333333333</v>
       </c>
-      <c r="C32" s="74">
+      <c r="C29" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D29" s="15">
         <f t="shared" si="0"/>
         <v>6.8522689298744693E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="74">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="47">
         <v>7.2884594237959094E-2</v>
       </c>
-      <c r="B33" s="74">
+      <c r="B30" s="47">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C30" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D30" s="15">
         <f t="shared" si="0"/>
         <v>6.3448739095373907E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="74">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="47">
         <v>7.2607252789534393E-2</v>
       </c>
-      <c r="B34" s="74">
+      <c r="B31" s="47">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C34" s="74">
+      <c r="C31" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D31" s="15">
         <f t="shared" si="0"/>
         <v>6.3726080543798608E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="74">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="47">
         <v>7.23075023663525E-2</v>
       </c>
-      <c r="B35" s="74">
+      <c r="B32" s="47">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C32" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D32" s="15">
         <f t="shared" si="0"/>
         <v>6.4025830966980501E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="74">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="47">
         <v>7.2286773963978798E-2</v>
       </c>
-      <c r="B36" s="74">
+      <c r="B33" s="47">
         <v>0.17066666666666699</v>
       </c>
-      <c r="C36" s="74">
+      <c r="C33" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D33" s="15">
         <f t="shared" si="0"/>
         <v>6.0046559369354213E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="74">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="47">
         <v>7.2286773963978798E-2</v>
       </c>
-      <c r="B37" s="74">
+      <c r="B34" s="47">
         <v>0.17066666666666699</v>
       </c>
-      <c r="C37" s="74">
+      <c r="C34" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D34" s="15">
         <f t="shared" si="0"/>
         <v>6.0046559369354213E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="74">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="47">
         <v>7.2286773963978798E-2</v>
       </c>
-      <c r="B38" s="74">
+      <c r="B35" s="47">
         <v>0.17066666666666699</v>
       </c>
-      <c r="C38" s="74">
+      <c r="C35" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D35" s="15">
         <f t="shared" si="0"/>
         <v>6.0046559369354213E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="74">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="47">
         <v>7.2286773963978798E-2</v>
       </c>
-      <c r="B39" s="74">
+      <c r="B36" s="47">
         <v>0.17066666666666699</v>
       </c>
-      <c r="C39" s="74">
+      <c r="C36" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D36" s="15">
         <f t="shared" si="0"/>
         <v>6.0046559369354213E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="74">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="47">
         <v>6.6642316830060902E-2</v>
       </c>
-      <c r="B40" s="74">
+      <c r="B37" s="47">
         <v>0.17066666666666699</v>
       </c>
-      <c r="C40" s="74">
+      <c r="C37" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D37" s="15">
         <f t="shared" si="0"/>
         <v>6.5691016503272082E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="74">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="47">
         <v>6.5933341488942407E-2</v>
       </c>
-      <c r="B41" s="74">
+      <c r="B38" s="47">
         <v>0.17066666666666699</v>
       </c>
-      <c r="C41" s="74">
+      <c r="C38" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D38" s="15">
         <f t="shared" si="0"/>
         <v>6.6399991844390605E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="74">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="47">
         <v>6.5745096178611601E-2</v>
       </c>
-      <c r="B42" s="74">
+      <c r="B39" s="47">
         <v>0.17066666666666699</v>
       </c>
-      <c r="C42" s="74">
+      <c r="C39" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D39" s="15">
         <f t="shared" si="0"/>
         <v>6.6588237154721397E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="74">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="47">
         <v>6.7786692732727805E-2</v>
       </c>
-      <c r="B43" s="74">
+      <c r="B40" s="47">
         <v>0.17066666666666699</v>
       </c>
-      <c r="C43" s="74">
+      <c r="C40" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D40" s="15">
         <f t="shared" si="0"/>
         <v>6.4546640600605193E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="74">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="47">
         <v>6.8227019574654005E-2</v>
       </c>
-      <c r="B44" s="74">
+      <c r="B41" s="47">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C44" s="74">
+      <c r="C41" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D41" s="15">
         <f t="shared" si="0"/>
         <v>6.8106313758678982E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="74">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="47">
         <v>6.8227019574654005E-2</v>
       </c>
-      <c r="B45" s="74">
+      <c r="B42" s="47">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C45" s="74">
+      <c r="C42" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D42" s="15">
         <f t="shared" si="0"/>
         <v>6.8106313758678982E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="74">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="47">
         <v>6.8227019574654005E-2</v>
       </c>
-      <c r="B46" s="74">
+      <c r="B43" s="47">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C46" s="74">
+      <c r="C43" s="47">
         <v>0.30299999999999999</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D43" s="15">
         <f t="shared" si="0"/>
         <v>6.8106313758678982E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="74">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="47">
         <v>6.9597926456125003E-2</v>
       </c>
-      <c r="B47" s="74">
+      <c r="B44" s="47">
         <v>0.16666666666666699</v>
       </c>
-      <c r="C47" s="74">
+      <c r="C44" s="47">
         <v>0.3</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D44" s="15">
         <f t="shared" si="0"/>
         <v>6.3735406877207995E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="74">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="47">
         <v>6.9825174347986296E-2</v>
       </c>
-      <c r="B48" s="74">
+      <c r="B45" s="47">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C48" s="74">
+      <c r="C45" s="47">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D45" s="15">
         <f t="shared" si="0"/>
         <v>6.4174825652013684E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="74">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="47">
         <v>7.0225981774345095E-2</v>
       </c>
-      <c r="B49" s="74">
+      <c r="B46" s="47">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C49" s="74">
+      <c r="C46" s="47">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D46" s="15">
         <f t="shared" si="0"/>
         <v>6.0774018225654869E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="74">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="47">
         <v>6.9787048279060904E-2</v>
       </c>
-      <c r="B50" s="74">
+      <c r="B47" s="47">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C47" s="47">
         <v>0.29499999999999998</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D47" s="15">
         <f t="shared" si="0"/>
         <v>6.1212951720939074E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="74">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="47">
         <v>7.0097576975113804E-2</v>
       </c>
-      <c r="B51" s="74">
+      <c r="B48" s="47">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C51" s="74">
+      <c r="C48" s="47">
         <v>0.29299999999999998</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D48" s="15">
         <f t="shared" si="0"/>
         <v>5.8902423024886186E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="74">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="47">
         <v>7.0097576975113804E-2</v>
       </c>
-      <c r="B52" s="74">
+      <c r="B49" s="47">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C52" s="74">
+      <c r="C49" s="47">
         <v>0.29299999999999998</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D49" s="15">
         <f t="shared" si="0"/>
         <v>5.8902423024886186E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="74">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="47">
         <v>7.0097576975113804E-2</v>
       </c>
-      <c r="B53" s="74">
+      <c r="B50" s="47">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C53" s="74">
+      <c r="C50" s="47">
         <v>0.29299999999999998</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D50" s="15">
         <f t="shared" si="0"/>
         <v>5.8902423024886186E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="74">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="47">
         <v>7.0643211682824406E-2</v>
       </c>
-      <c r="B54" s="74">
+      <c r="B51" s="47">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C54" s="74">
+      <c r="C51" s="47">
         <v>0.29299999999999998</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D51" s="15">
         <f t="shared" si="0"/>
         <v>5.8356788317175556E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="74">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="47">
         <v>7.0229067606711507E-2</v>
       </c>
-      <c r="B55" s="74">
+      <c r="B52" s="47">
         <v>0.15733333333333299</v>
       </c>
-      <c r="C55" s="74">
+      <c r="C52" s="47">
         <v>0.28799999999999998</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D52" s="15">
         <f t="shared" si="0"/>
         <v>6.0437599059955494E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="74">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="47">
         <v>7.0441393241251302E-2</v>
       </c>
-      <c r="B56" s="74">
+      <c r="B53" s="47">
         <v>0.15733333333333299</v>
       </c>
-      <c r="C56" s="74">
+      <c r="C53" s="47">
         <v>0.28799999999999998</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D53" s="15">
         <f t="shared" si="0"/>
         <v>6.0225273425415671E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="74">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="47">
         <v>7.1371497373029794E-2</v>
       </c>
-      <c r="B57" s="74">
+      <c r="B54" s="47">
         <v>0.15733333333333299</v>
       </c>
-      <c r="C57" s="74">
+      <c r="C54" s="47">
         <v>0.28799999999999998</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D54" s="15">
         <f t="shared" si="0"/>
         <v>5.9295169293637207E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="74">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="47">
         <v>7.1445821873760001E-2</v>
       </c>
-      <c r="B58" s="74">
+      <c r="B55" s="47">
         <v>0.15333333333333299</v>
       </c>
-      <c r="C58" s="74">
+      <c r="C55" s="47">
         <v>0.27800000000000002</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D55" s="15">
         <f t="shared" si="0"/>
         <v>5.3220844792907035E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="74">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="47">
         <v>7.1445821873760001E-2</v>
       </c>
-      <c r="B59" s="74">
+      <c r="B56" s="47">
         <v>0.15333333333333299</v>
       </c>
-      <c r="C59" s="74">
+      <c r="C56" s="47">
         <v>0.27800000000000002</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D56" s="15">
         <f t="shared" si="0"/>
         <v>5.3220844792907035E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="74">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="47">
         <v>7.1445821873760001E-2</v>
       </c>
-      <c r="B60" s="74">
+      <c r="B57" s="47">
         <v>0.15333333333333299</v>
       </c>
-      <c r="C60" s="74">
+      <c r="C57" s="47">
         <v>0.27800000000000002</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D57" s="15">
         <f t="shared" si="0"/>
         <v>5.3220844792907035E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="74">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="47">
         <v>7.0363515695558196E-2</v>
       </c>
-      <c r="B61" s="74">
+      <c r="B58" s="47">
         <v>0.150666666666667</v>
       </c>
-      <c r="C61" s="74">
+      <c r="C58" s="47">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D58" s="15">
         <f t="shared" si="0"/>
         <v>5.3969817637774808E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="74">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="47">
         <v>7.0801746079531394E-2</v>
       </c>
-      <c r="B62" s="74">
+      <c r="B59" s="47">
         <v>0.137333333333333</v>
       </c>
-      <c r="C62" s="74">
+      <c r="C59" s="47">
         <v>0.27500000000000002</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D59" s="15">
         <f t="shared" si="0"/>
         <v>6.6864920587135612E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="74">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="47">
         <v>7.0753973151233399E-2</v>
       </c>
-      <c r="B63" s="74">
+      <c r="B60" s="47">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C63" s="74">
+      <c r="C60" s="47">
         <v>0.27300000000000002</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D60" s="15">
         <f t="shared" si="0"/>
         <v>6.6246026848766626E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="74">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="47">
         <v>7.0753973151233399E-2</v>
       </c>
-      <c r="B64" s="74">
+      <c r="B61" s="47">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C64" s="74">
+      <c r="C61" s="47">
         <v>0.27300000000000002</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D61" s="15">
         <f t="shared" si="0"/>
         <v>6.6246026848766626E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="74">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="47">
         <v>7.0753973151233399E-2</v>
       </c>
-      <c r="B65" s="74">
+      <c r="B62" s="47">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C62" s="47">
         <v>0.27300000000000002</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D62" s="15">
         <f t="shared" si="0"/>
         <v>6.6246026848766626E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="74">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="47">
         <v>7.0753973151233399E-2</v>
       </c>
-      <c r="B66" s="74">
+      <c r="B63" s="47">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C66" s="74">
+      <c r="C63" s="47">
         <v>0.27300000000000002</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D63" s="15">
         <f t="shared" si="0"/>
         <v>6.6246026848766626E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="74">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="47">
         <v>7.0753973151233399E-2</v>
       </c>
-      <c r="B67" s="74">
+      <c r="B64" s="47">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C67" s="74">
+      <c r="C64" s="47">
         <v>0.27300000000000002</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D64" s="15">
         <f t="shared" si="0"/>
         <v>6.6246026848766626E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="74">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="47">
         <v>7.0753973151233399E-2</v>
       </c>
-      <c r="B68" s="74">
+      <c r="B65" s="47">
         <v>0.13600000000000001</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C65" s="47">
         <v>0.27300000000000002</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D65" s="15">
         <f t="shared" si="0"/>
         <v>6.6246026848766626E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="74">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="47">
         <v>7.1480368368809999E-2</v>
       </c>
-      <c r="B69" s="74">
+      <c r="B66" s="47">
         <v>0.137333333333333</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C66" s="47">
         <v>0.27</v>
       </c>
-      <c r="D69" s="12">
-        <f t="shared" ref="D69:D75" si="1">C69-(B69+A69)</f>
+      <c r="D66" s="15">
+        <f t="shared" si="0"/>
         <v>6.1186298297857017E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="74">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="47">
         <v>7.1249274521184E-2</v>
       </c>
-      <c r="B70" s="74">
+      <c r="B67" s="47">
         <v>0.137333333333333</v>
       </c>
-      <c r="C70" s="74">
+      <c r="C67" s="47">
         <v>0.27</v>
       </c>
-      <c r="D70" s="12">
-        <f t="shared" si="1"/>
+      <c r="D67" s="15">
+        <f t="shared" ref="D67:D130" si="1">C67-(A67+B67)</f>
         <v>6.141739214548303E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="74">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="47">
         <v>7.1220565743968497E-2</v>
       </c>
-      <c r="B71" s="74">
+      <c r="B68" s="47">
         <v>0.133333333333333</v>
       </c>
-      <c r="C71" s="74">
+      <c r="C68" s="47">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D68" s="15">
         <f t="shared" si="1"/>
         <v>6.0446100922698531E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="74">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="47">
         <v>7.04029359516367E-2</v>
       </c>
-      <c r="B72" s="74">
+      <c r="B69" s="47">
         <v>0.13066666666666699</v>
       </c>
-      <c r="C72" s="74">
+      <c r="C69" s="47">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D69" s="15">
         <f t="shared" si="1"/>
         <v>6.3930397381696313E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="74">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="47">
         <v>7.04029359516367E-2</v>
       </c>
-      <c r="B73" s="74">
+      <c r="B70" s="47">
         <v>0.13066666666666699</v>
       </c>
-      <c r="C73" s="74">
+      <c r="C70" s="47">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D70" s="15">
         <f t="shared" si="1"/>
         <v>6.3930397381696313E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="74">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="47">
         <v>7.04029359516367E-2</v>
       </c>
-      <c r="B74" s="74">
+      <c r="B71" s="47">
         <v>0.13066666666666699</v>
       </c>
-      <c r="C74" s="74">
+      <c r="C71" s="47">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D71" s="15">
         <f t="shared" si="1"/>
         <v>6.3930397381696313E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="74">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="47">
         <v>7.0636486561068496E-2</v>
       </c>
-      <c r="B75" s="74">
+      <c r="B72" s="47">
         <v>0.13066666666666699</v>
       </c>
-      <c r="C75" s="74">
+      <c r="C72" s="47">
         <v>0.26500000000000001</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D72" s="15">
         <f t="shared" si="1"/>
         <v>6.3696846772264532E-2</v>
       </c>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="47">
+        <v>7.0904963596600507E-2</v>
+      </c>
+      <c r="B73" s="47">
+        <v>0.13066666666666699</v>
+      </c>
+      <c r="C73" s="47">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D73" s="15">
+        <f t="shared" si="1"/>
+        <v>6.3428369736732521E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="47">
+        <v>7.1193380032116907E-2</v>
+      </c>
+      <c r="B74" s="47">
+        <v>0.13066666666666699</v>
+      </c>
+      <c r="C74" s="47">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="D74" s="15">
+        <f t="shared" si="1"/>
+        <v>6.3139953301216134E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="47">
+        <v>7.0032924771048305E-2</v>
+      </c>
+      <c r="B75" s="47">
+        <v>0.12666666666666701</v>
+      </c>
+      <c r="C75" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D75" s="15">
+        <f t="shared" si="1"/>
+        <v>6.1300408562284692E-2</v>
+      </c>
+    </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C76" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" s="21">
-        <f>AVERAGE(D5:D75)</f>
-        <v>6.4265670220948923E-2</v>
+      <c r="A76" s="47">
+        <v>7.0607191316146595E-2</v>
+      </c>
+      <c r="B76" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C76" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D76" s="15">
+        <f t="shared" si="1"/>
+        <v>6.2059475350520421E-2</v>
       </c>
       <c r="E76">
         <v>6.4265670220948895E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="47">
+        <v>7.0607191316146595E-2</v>
+      </c>
+      <c r="B77" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C77" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D77" s="15">
+        <f t="shared" si="1"/>
+        <v>6.2059475350520421E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="47">
+        <v>7.0607191316146595E-2</v>
+      </c>
+      <c r="B78" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C78" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D78" s="15">
+        <f t="shared" si="1"/>
+        <v>6.2059475350520421E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="47">
+        <v>7.0585060747792902E-2</v>
+      </c>
+      <c r="B79" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C79" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D79" s="15">
+        <f t="shared" si="1"/>
+        <v>6.2081605918874128E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="47">
+        <v>7.0393426983380802E-2</v>
+      </c>
+      <c r="B80" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C80" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D80" s="15">
+        <f t="shared" si="1"/>
+        <v>6.2273239683286213E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="47">
+        <v>7.1341539269621002E-2</v>
+      </c>
+      <c r="B81" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C81" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D81" s="15">
+        <f t="shared" si="1"/>
+        <v>6.1325127397046014E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="47">
+        <v>7.2093619261352604E-2</v>
+      </c>
+      <c r="B82" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C82" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D82" s="15">
+        <f t="shared" si="1"/>
+        <v>6.0573047405314412E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="47">
+        <v>7.1602690992649598E-2</v>
+      </c>
+      <c r="B83" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C83" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D83" s="15">
+        <f t="shared" si="1"/>
+        <v>6.1063975674017418E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="47">
+        <v>7.1602690992649598E-2</v>
+      </c>
+      <c r="B84" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C84" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D84" s="15">
+        <f t="shared" si="1"/>
+        <v>6.1063975674017418E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="47">
+        <v>7.1602690992649598E-2</v>
+      </c>
+      <c r="B85" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C85" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D85" s="15">
+        <f t="shared" si="1"/>
+        <v>6.1063975674017418E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="47">
+        <v>7.2080291970802901E-2</v>
+      </c>
+      <c r="B86" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C86" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D86" s="15">
+        <f t="shared" si="1"/>
+        <v>6.0586374695864115E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="47">
+        <v>7.1970769978476706E-2</v>
+      </c>
+      <c r="B87" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C87" s="47">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="D87" s="15">
+        <f t="shared" si="1"/>
+        <v>6.0695896688190309E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="47">
+        <v>7.1693822367052601E-2</v>
+      </c>
+      <c r="B88" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C88" s="47">
+        <v>0.253</v>
+      </c>
+      <c r="D88" s="15">
+        <f t="shared" si="1"/>
+        <v>5.597284429961441E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="47">
+        <v>7.1426938741584206E-2</v>
+      </c>
+      <c r="B89" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C89" s="47">
+        <v>0.253</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="1"/>
+        <v>5.6239727925082805E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="47">
+        <v>7.1493443419135494E-2</v>
+      </c>
+      <c r="B90" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C90" s="47">
+        <v>0.253</v>
+      </c>
+      <c r="D90" s="15">
+        <f t="shared" si="1"/>
+        <v>5.6173223247531517E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="47">
+        <v>7.1493443419135494E-2</v>
+      </c>
+      <c r="B91" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C91" s="47">
+        <v>0.253</v>
+      </c>
+      <c r="D91" s="15">
+        <f t="shared" si="1"/>
+        <v>5.6173223247531517E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="47">
+        <v>7.1493443419135494E-2</v>
+      </c>
+      <c r="B92" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C92" s="47">
+        <v>0.253</v>
+      </c>
+      <c r="D92" s="15">
+        <f t="shared" si="1"/>
+        <v>5.6173223247531517E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="47">
+        <v>7.1493443419135494E-2</v>
+      </c>
+      <c r="B93" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C93" s="47">
+        <v>0.253</v>
+      </c>
+      <c r="D93" s="15">
+        <f t="shared" si="1"/>
+        <v>5.6173223247531517E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="47">
+        <v>7.33770057922013E-2</v>
+      </c>
+      <c r="B94" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C94" s="47">
+        <v>0.253</v>
+      </c>
+      <c r="D94" s="15">
+        <f t="shared" si="1"/>
+        <v>5.4289660874465712E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="47">
+        <v>7.3766837939175101E-2</v>
+      </c>
+      <c r="B95" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C95" s="47">
+        <v>0.253</v>
+      </c>
+      <c r="D95" s="15">
+        <f t="shared" si="1"/>
+        <v>5.3899828727491911E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="47">
+        <v>7.3722473080930898E-2</v>
+      </c>
+      <c r="B96" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C96" s="47">
+        <v>0.248</v>
+      </c>
+      <c r="D96" s="15">
+        <f t="shared" si="1"/>
+        <v>4.8944193585736095E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="47">
+        <v>7.6166886681025503E-2</v>
+      </c>
+      <c r="B97" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C97" s="47">
+        <v>0.248</v>
+      </c>
+      <c r="D97" s="15">
+        <f t="shared" si="1"/>
+        <v>4.6499779985641504E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="47">
+        <v>7.6166886681025503E-2</v>
+      </c>
+      <c r="B98" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C98" s="47">
+        <v>0.248</v>
+      </c>
+      <c r="D98" s="15">
+        <f t="shared" si="1"/>
+        <v>4.6499779985641504E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="47">
+        <v>7.6166886681025503E-2</v>
+      </c>
+      <c r="B99" s="47">
+        <v>0.12533333333333299</v>
+      </c>
+      <c r="C99" s="47">
+        <v>0.248</v>
+      </c>
+      <c r="D99" s="15">
+        <f t="shared" si="1"/>
+        <v>4.6499779985641504E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="47">
+        <v>7.6315971981413405E-2</v>
+      </c>
+      <c r="B100" s="47">
+        <v>0.12266666666666701</v>
+      </c>
+      <c r="C100" s="47">
+        <v>0.245</v>
+      </c>
+      <c r="D100" s="15">
+        <f t="shared" si="1"/>
+        <v>4.6017361351919583E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="47">
+        <v>7.7081655325649201E-2</v>
+      </c>
+      <c r="B101" s="47">
+        <v>0.12266666666666701</v>
+      </c>
+      <c r="C101" s="47">
+        <v>0.245</v>
+      </c>
+      <c r="D101" s="15">
+        <f t="shared" si="1"/>
+        <v>4.5251678007683788E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="47">
+        <v>7.7097647303768502E-2</v>
+      </c>
+      <c r="B102" s="47">
+        <v>0.12266666666666701</v>
+      </c>
+      <c r="C102" s="47">
+        <v>0.245</v>
+      </c>
+      <c r="D102" s="15">
+        <f t="shared" si="1"/>
+        <v>4.5235686029564487E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="47">
+        <v>7.6515634750052006E-2</v>
+      </c>
+      <c r="B103" s="47">
+        <v>0.121333333333333</v>
+      </c>
+      <c r="C103" s="47">
+        <v>0.245</v>
+      </c>
+      <c r="D103" s="15">
+        <f t="shared" si="1"/>
+        <v>4.7151031916614988E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="47">
+        <v>7.6937287311618904E-2</v>
+      </c>
+      <c r="B104" s="47">
+        <v>0.121333333333333</v>
+      </c>
+      <c r="C104" s="47">
+        <v>0.245</v>
+      </c>
+      <c r="D104" s="15">
+        <f t="shared" si="1"/>
+        <v>4.672937935504809E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="47">
+        <v>7.6937287311618904E-2</v>
+      </c>
+      <c r="B105" s="47">
+        <v>0.121333333333333</v>
+      </c>
+      <c r="C105" s="47">
+        <v>0.245</v>
+      </c>
+      <c r="D105" s="15">
+        <f t="shared" si="1"/>
+        <v>4.672937935504809E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="47">
+        <v>7.6937287311618904E-2</v>
+      </c>
+      <c r="B106" s="47">
+        <v>0.121333333333333</v>
+      </c>
+      <c r="C106" s="47">
+        <v>0.245</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="1"/>
+        <v>4.672937935504809E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="47">
+        <v>7.6417760188849507E-2</v>
+      </c>
+      <c r="B107" s="47">
+        <v>0.121333333333333</v>
+      </c>
+      <c r="C107" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D107" s="15">
+        <f t="shared" si="1"/>
+        <v>3.7248906477817478E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="47">
+        <v>7.6545940690325706E-2</v>
+      </c>
+      <c r="B108" s="47">
+        <v>0.121333333333333</v>
+      </c>
+      <c r="C108" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D108" s="15">
+        <f t="shared" si="1"/>
+        <v>3.7120725976341279E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="47">
+        <v>7.7779396462018702E-2</v>
+      </c>
+      <c r="B109" s="47">
+        <v>0.121333333333333</v>
+      </c>
+      <c r="C109" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D109" s="15">
+        <f t="shared" si="1"/>
+        <v>3.5887270204648269E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="47">
+        <v>7.6893718801996705E-2</v>
+      </c>
+      <c r="B110" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="C110" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D110" s="15">
+        <f t="shared" si="1"/>
+        <v>3.81062811980033E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="47">
+        <v>7.6236540465439401E-2</v>
+      </c>
+      <c r="B111" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="C111" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D111" s="15">
+        <f t="shared" si="1"/>
+        <v>3.876345953456059E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="47">
+        <v>7.6236540465439401E-2</v>
+      </c>
+      <c r="B112" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="C112" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D112" s="15">
+        <f t="shared" si="1"/>
+        <v>3.876345953456059E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="47">
+        <v>7.6236540465439401E-2</v>
+      </c>
+      <c r="B113" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="C113" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D113" s="15">
+        <f t="shared" si="1"/>
+        <v>3.876345953456059E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="47">
+        <v>7.5796890184645305E-2</v>
+      </c>
+      <c r="B114" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="C114" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D114" s="15">
+        <f t="shared" si="1"/>
+        <v>3.9203109815354686E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="47">
+        <v>7.5893738272291303E-2</v>
+      </c>
+      <c r="B115" s="47">
+        <v>0.12</v>
+      </c>
+      <c r="C115" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D115" s="15">
+        <f t="shared" si="1"/>
+        <v>3.9106261727708702E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="47">
+        <v>7.5630000695749003E-2</v>
+      </c>
+      <c r="B116" s="47">
+        <v>0.118666666666667</v>
+      </c>
+      <c r="C116" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D116" s="15">
+        <f t="shared" si="1"/>
+        <v>4.0703332637583967E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="47">
+        <v>7.61801933375061E-2</v>
+      </c>
+      <c r="B117" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C117" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D117" s="15">
+        <f t="shared" si="1"/>
+        <v>4.2819806662493881E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="47">
+        <v>7.6657621930007705E-2</v>
+      </c>
+      <c r="B118" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C118" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D118" s="15">
+        <f t="shared" si="1"/>
+        <v>4.2342378069992276E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="47">
+        <v>7.6657621930007705E-2</v>
+      </c>
+      <c r="B119" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C119" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D119" s="15">
+        <f t="shared" si="1"/>
+        <v>4.2342378069992276E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="47">
+        <v>7.6657621930007705E-2</v>
+      </c>
+      <c r="B120" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C120" s="47">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D120" s="15">
+        <f t="shared" si="1"/>
+        <v>4.2342378069992276E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="47">
+        <v>7.5718412808910507E-2</v>
+      </c>
+      <c r="B121" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C121" s="47">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D121" s="15">
+        <f t="shared" si="1"/>
+        <v>4.1281587191089514E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="47">
+        <v>7.5949609701700602E-2</v>
+      </c>
+      <c r="B122" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C122" s="47">
+        <v>0.23</v>
+      </c>
+      <c r="D122" s="15">
+        <f t="shared" si="1"/>
+        <v>3.8050390298299402E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="47">
+        <v>7.6206416591272905E-2</v>
+      </c>
+      <c r="B123" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C123" s="47">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D123" s="15">
+        <f t="shared" si="1"/>
+        <v>3.5793583408727098E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="47">
+        <v>7.6866518198900405E-2</v>
+      </c>
+      <c r="B124" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C124" s="47">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D124" s="15">
+        <f t="shared" si="1"/>
+        <v>3.5133481801099598E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="47">
+        <v>7.7514784665692602E-2</v>
+      </c>
+      <c r="B125" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C125" s="47">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D125" s="15">
+        <f t="shared" si="1"/>
+        <v>3.4485215334307401E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="47">
+        <v>7.7514784665692602E-2</v>
+      </c>
+      <c r="B126" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C126" s="47">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D126" s="15">
+        <f t="shared" si="1"/>
+        <v>3.4485215334307401E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="47">
+        <v>7.7514784665692602E-2</v>
+      </c>
+      <c r="B127" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C127" s="47">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D127" s="15">
+        <f t="shared" si="1"/>
+        <v>3.4485215334307401E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="47">
+        <v>7.7647877522616607E-2</v>
+      </c>
+      <c r="B128" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C128" s="47">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D128" s="15">
+        <f t="shared" si="1"/>
+        <v>3.1352122477383393E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="47">
+        <v>7.7428591285009396E-2</v>
+      </c>
+      <c r="B129" s="47">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C129" s="47">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D129" s="15">
+        <f t="shared" si="1"/>
+        <v>3.1571408714990618E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="47">
+        <v>7.7144941634241307E-2</v>
+      </c>
+      <c r="B130" s="47">
+        <v>0.117333333333333</v>
+      </c>
+      <c r="C130" s="47">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D130" s="15">
+        <f t="shared" si="1"/>
+        <v>3.0521725032425701E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="47">
+        <v>7.6947010209042294E-2</v>
+      </c>
+      <c r="B131" s="47">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="C131" s="47">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="D131" s="15">
+        <f t="shared" ref="D131:D137" si="2">C131-(A131+B131)</f>
+        <v>1.4719656457624714E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="47">
+        <v>7.8075053808234401E-2</v>
+      </c>
+      <c r="B132" s="47">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="C132" s="47">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D132" s="15">
+        <f t="shared" si="2"/>
+        <v>1.6591612858432608E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="47">
+        <v>7.8075053808234401E-2</v>
+      </c>
+      <c r="B133" s="47">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="C133" s="47">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D133" s="15">
+        <f t="shared" si="2"/>
+        <v>1.6591612858432608E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="47">
+        <v>7.8075053808234401E-2</v>
+      </c>
+      <c r="B134" s="47">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="C134" s="47">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D134" s="15">
+        <f t="shared" si="2"/>
+        <v>1.6591612858432608E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="47">
+        <v>7.9727905358385504E-2</v>
+      </c>
+      <c r="B135" s="47">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="C135" s="47">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D135" s="15">
+        <f t="shared" si="2"/>
+        <v>2.4938761308281487E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="47">
+        <v>7.9489256658090507E-2</v>
+      </c>
+      <c r="B136" s="47">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="C136" s="47">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D136" s="15">
+        <f t="shared" si="2"/>
+        <v>2.5177410008576484E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="47">
+        <v>7.9064258423063596E-2</v>
+      </c>
+      <c r="B137" s="47">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="C137" s="47">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="D137" s="15">
+        <f t="shared" si="2"/>
+        <v>2.5602408243603381E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <f xml:space="preserve"> AVERAGE(D2:D137)</f>
+        <v>5.504342333025071E-2</v>
+      </c>
+      <c r="E138">
+        <v>5.5043423330250703E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9881,7 +10846,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{778AD795-0DDC-4A17-9E3C-23BCC8E00BA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{778AD795-0DDC-4A17-9E3C-23BCC8E00BA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bc66a12d-422f-46eb-8711-8734656fa1ad"/>
+    <ds:schemaRef ds:uri="9127e09c-edc9-4337-a757-fe205fcf4165"/>
+    <ds:schemaRef ds:uri="09278d32-0650-4b18-af85-79262d978988"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
